--- a/Hasil Pengujian Data.xlsx
+++ b/Hasil Pengujian Data.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B52B4-ABA4-474B-870E-574E77CFA7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14995DA3-C8D4-4B74-9868-DAA9C005194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="(ADAM) Pengujian Full Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="100 EPHOCS ADAM" sheetId="8" r:id="rId2"/>
+    <sheet name="100 EPHOCS" sheetId="8" r:id="rId1"/>
+    <sheet name="(ADAM) Pengujian Full Dataset" sheetId="1" r:id="rId2"/>
     <sheet name="(RMSP) FULL DATASET" sheetId="2" r:id="rId3"/>
     <sheet name="(SGD) FULL DATASET" sheetId="3" r:id="rId4"/>
     <sheet name="(ADAM) Pengujian HALF Dataset" sheetId="4" r:id="rId5"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
   <si>
     <t>ADAM OPTIMIZER</t>
   </si>
@@ -442,7 +442,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,14 @@
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -716,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +805,18 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,17 +834,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1510,46 +1521,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4886325" cy="3028950"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1256930652" name="Chart 1" title="Diagram">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C3DEB4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>192106</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603996</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124871</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8877300" cy="3148345"/>
     <xdr:pic>
@@ -1571,7 +1546,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="382606"/>
+          <a:off x="18454967" y="898077"/>
           <a:ext cx="8877300" cy="3148345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1637,7 +1612,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>375558</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>44887</xdr:rowOff>
+      <xdr:rowOff>44888</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1670,6 +1645,86 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>111438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>433667</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>195544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Gambar 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58AA761-7F4B-0A8A-A5D4-BAB5B2262500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18523323" y="4111938"/>
+          <a:ext cx="8838079" cy="3109694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4886325" cy="3028950"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1256930652" name="Chart 1" title="Diagram">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C3DEB4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2876,6 +2931,2055 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C1E00-6DC2-4A64-B7C8-7737F75FED18}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="C2:H103"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R2" zoomScale="85" workbookViewId="0">
+      <selection activeCell="AR28" sqref="AR28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" ht="16.5" thickBot="1">
+      <c r="D2" s="43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" ht="29.25" thickBot="1">
+      <c r="C3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="32">
+        <v>95</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.59740000000000004</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0.89049999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="32">
+        <v>95</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0.93610000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C6" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="32">
+        <v>95</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0.52029999999999998</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.81940000000000002</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.43070000000000003</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.93869999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C7" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="32">
+        <v>95</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0.44240000000000002</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.36320000000000002</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.94259999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C8" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="32">
+        <v>95</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="G8" s="32">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="H8" s="33">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C9" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="32">
+        <v>95</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0.3362</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.92059999999999997</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="32">
+        <v>95</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0.29330000000000001</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0.2319</v>
+      </c>
+      <c r="H10" s="33">
+        <v>0.95309999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="32">
+        <v>95</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0.2681</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="32">
+        <v>95</v>
+      </c>
+      <c r="E12" s="32">
+        <v>0.2389</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.1885</v>
+      </c>
+      <c r="H12" s="33">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C13" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="32">
+        <v>95</v>
+      </c>
+      <c r="E13" s="32">
+        <v>0.2218</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.96609999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="32">
+        <v>95</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0.14960000000000001</v>
+      </c>
+      <c r="H14" s="33">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="32">
+        <v>95</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.1885</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="G15" s="32">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.96609999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="32">
+        <v>95</v>
+      </c>
+      <c r="E16" s="32">
+        <v>0.182</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0.1356</v>
+      </c>
+      <c r="H16" s="33">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C17" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="32">
+        <v>95</v>
+      </c>
+      <c r="E17" s="32">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="G17" s="32">
+        <v>0.1278</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="32">
+        <v>95</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0.1235</v>
+      </c>
+      <c r="H18" s="33">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="32">
+        <v>95</v>
+      </c>
+      <c r="E19" s="32">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.111</v>
+      </c>
+      <c r="H19" s="33">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C20" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="32">
+        <v>95</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="F20" s="32">
+        <v>0.95450000000000002</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0.1056</v>
+      </c>
+      <c r="H20" s="33">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="32">
+        <v>95</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.1394</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.1003</v>
+      </c>
+      <c r="H21" s="33">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="32">
+        <v>95</v>
+      </c>
+      <c r="E22" s="32">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="F22" s="32">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="G22" s="32">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="H22" s="33">
+        <v>0.97130000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="32">
+        <v>95</v>
+      </c>
+      <c r="E23" s="32">
+        <v>0.1321</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="G23" s="32">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="H23" s="33">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C24" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="32">
+        <v>95</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0.1278</v>
+      </c>
+      <c r="F24" s="32">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="G24" s="32">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="H24" s="33">
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C25" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="32">
+        <v>95</v>
+      </c>
+      <c r="E25" s="32">
+        <v>0.1246</v>
+      </c>
+      <c r="F25" s="32">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="G25" s="32">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="H25" s="33">
+        <v>0.97519999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C26" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="32">
+        <v>95</v>
+      </c>
+      <c r="E26" s="32">
+        <v>0.1173</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0.9657</v>
+      </c>
+      <c r="G26" s="32">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="H26" s="33">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C27" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="32">
+        <v>95</v>
+      </c>
+      <c r="E27" s="32">
+        <v>0.1096</v>
+      </c>
+      <c r="F27" s="32">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G27" s="32">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C28" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="32">
+        <v>95</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.1065</v>
+      </c>
+      <c r="F28" s="32">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G28" s="32">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C29" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="32">
+        <v>95</v>
+      </c>
+      <c r="E29" s="32">
+        <v>0.1099</v>
+      </c>
+      <c r="F29" s="32">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="G29" s="32">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="H29" s="33">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C30" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="32">
+        <v>95</v>
+      </c>
+      <c r="E30" s="32">
+        <v>0.1089</v>
+      </c>
+      <c r="F30" s="32">
+        <v>0.9647</v>
+      </c>
+      <c r="G30" s="32">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="H30" s="33">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C31" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="32">
+        <v>95</v>
+      </c>
+      <c r="E31" s="32">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G31" s="32">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="H31" s="33">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C32" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="32">
+        <v>95</v>
+      </c>
+      <c r="E32" s="32">
+        <v>0.1012</v>
+      </c>
+      <c r="F32" s="32">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G32" s="32">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H32" s="33">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C33" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="32">
+        <v>95</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0.1009</v>
+      </c>
+      <c r="F33" s="32">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="G33" s="32">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="H33" s="33">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="32">
+        <v>95</v>
+      </c>
+      <c r="E34" s="32">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="F34" s="32">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="G34" s="32">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="H34" s="33">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C35" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="32">
+        <v>95</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0.1003</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="G35" s="32">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="H35" s="33">
+        <v>0.98040000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C36" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="32">
+        <v>95</v>
+      </c>
+      <c r="E36" s="32">
+        <v>8.6800000000000002E-2</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="G36" s="32">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="H36" s="33">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C37" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="32">
+        <v>95</v>
+      </c>
+      <c r="E37" s="32">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="G37" s="32">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="H37" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C38" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="32">
+        <v>95</v>
+      </c>
+      <c r="E38" s="32">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0.9677</v>
+      </c>
+      <c r="G38" s="32">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="H38" s="33">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C39" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="32">
+        <v>95</v>
+      </c>
+      <c r="E39" s="32">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="G39" s="32">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="H39" s="33">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C40" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="32">
+        <v>95</v>
+      </c>
+      <c r="E40" s="32">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="G40" s="32">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="H40" s="33">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C41" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="32">
+        <v>95</v>
+      </c>
+      <c r="E41" s="32">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="F41" s="32">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="G41" s="32">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="H41" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C42" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="32">
+        <v>95</v>
+      </c>
+      <c r="E42" s="32">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="G42" s="32">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H42" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C43" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="32">
+        <v>95</v>
+      </c>
+      <c r="E43" s="32">
+        <v>7.85E-2</v>
+      </c>
+      <c r="F43" s="32">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G43" s="32">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H43" s="33">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C44" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="32">
+        <v>95</v>
+      </c>
+      <c r="E44" s="32">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="F44" s="32">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="G44" s="32">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="H44" s="33">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C45" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="32">
+        <v>95</v>
+      </c>
+      <c r="E45" s="32">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="F45" s="32">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="G45" s="32">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="H45" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C46" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="32">
+        <v>95</v>
+      </c>
+      <c r="E46" s="32">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="F46" s="32">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="G46" s="32">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="H46" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C47" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="32">
+        <v>95</v>
+      </c>
+      <c r="E47" s="32">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G47" s="32">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="H47" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="32">
+        <v>95</v>
+      </c>
+      <c r="E48" s="32">
+        <v>0.08</v>
+      </c>
+      <c r="F48" s="32">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="G48" s="32">
+        <v>4.82E-2</v>
+      </c>
+      <c r="H48" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C49" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="32">
+        <v>95</v>
+      </c>
+      <c r="E49" s="32">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="G49" s="32">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="H49" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C50" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="32">
+        <v>95</v>
+      </c>
+      <c r="E50" s="32">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0.97529999999999994</v>
+      </c>
+      <c r="G50" s="32">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="H50" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C51" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="32">
+        <v>95</v>
+      </c>
+      <c r="E51" s="32">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="F51" s="32">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="G51" s="32">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="H51" s="33">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C52" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="32">
+        <v>95</v>
+      </c>
+      <c r="E52" s="32">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="G52" s="32">
+        <v>4.53E-2</v>
+      </c>
+      <c r="H52" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C53" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="32">
+        <v>95</v>
+      </c>
+      <c r="E53" s="32">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="F53" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="G53" s="32">
+        <v>4.65E-2</v>
+      </c>
+      <c r="H53" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C54" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="32">
+        <v>95</v>
+      </c>
+      <c r="E54" s="32">
+        <v>7.51E-2</v>
+      </c>
+      <c r="F54" s="32">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G54" s="32">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C55" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="32">
+        <v>95</v>
+      </c>
+      <c r="E55" s="32">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="F55" s="32">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G55" s="32">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="H55" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C56" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="32">
+        <v>95</v>
+      </c>
+      <c r="E56" s="32">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="F56" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="G56" s="32">
+        <v>4.48E-2</v>
+      </c>
+      <c r="H56" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C57" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="32">
+        <v>95</v>
+      </c>
+      <c r="E57" s="32">
+        <v>7.1099999999999997E-2</v>
+      </c>
+      <c r="F57" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="G57" s="32">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="H57" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C58" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="32">
+        <v>95</v>
+      </c>
+      <c r="E58" s="32">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F58" s="32">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G58" s="32">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="H58" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C59" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="32">
+        <v>95</v>
+      </c>
+      <c r="E59" s="32">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="G59" s="32">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H59" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C60" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="32">
+        <v>95</v>
+      </c>
+      <c r="E60" s="32">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F60" s="32">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="G60" s="32">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="H60" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C61" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" s="32">
+        <v>95</v>
+      </c>
+      <c r="E61" s="32">
+        <v>7.51E-2</v>
+      </c>
+      <c r="F61" s="32">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G61" s="32">
+        <v>4.07E-2</v>
+      </c>
+      <c r="H61" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C62" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="32">
+        <v>95</v>
+      </c>
+      <c r="E62" s="32">
+        <v>7.22E-2</v>
+      </c>
+      <c r="F62" s="32">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="G62" s="32">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="H62" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C63" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="32">
+        <v>95</v>
+      </c>
+      <c r="E63" s="32">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="F63" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="G63" s="32">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="H63" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C64" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="32">
+        <v>95</v>
+      </c>
+      <c r="E64" s="32">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="F64" s="32">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="G64" s="32">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="H64" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C65" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="32">
+        <v>95</v>
+      </c>
+      <c r="E65" s="32">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="F65" s="32">
+        <v>0.97770000000000001</v>
+      </c>
+      <c r="G65" s="32">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H65" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C66" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" s="32">
+        <v>95</v>
+      </c>
+      <c r="E66" s="32">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="F66" s="32">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G66" s="32">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="H66" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C67" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="32">
+        <v>95</v>
+      </c>
+      <c r="E67" s="32">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="F67" s="32">
+        <v>0.97929999999999995</v>
+      </c>
+      <c r="G67" s="32">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H67" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C68" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="32">
+        <v>95</v>
+      </c>
+      <c r="E68" s="32">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="F68" s="32">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="G68" s="32">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="H68" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C69" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" s="32">
+        <v>95</v>
+      </c>
+      <c r="E69" s="32">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="F69" s="32">
+        <v>0.97829999999999995</v>
+      </c>
+      <c r="G69" s="32">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="H69" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C70" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" s="32">
+        <v>95</v>
+      </c>
+      <c r="E70" s="32">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F70" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="G70" s="32">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="H70" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C71" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" s="32">
+        <v>95</v>
+      </c>
+      <c r="E71" s="32">
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="F71" s="32">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G71" s="32">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="H71" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C72" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" s="32">
+        <v>95</v>
+      </c>
+      <c r="E72" s="32">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F72" s="32">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="G72" s="32">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="H72" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C73" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="32">
+        <v>95</v>
+      </c>
+      <c r="E73" s="32">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="F73" s="32">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="G73" s="32">
+        <v>3.44E-2</v>
+      </c>
+      <c r="H73" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C74" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="32">
+        <v>95</v>
+      </c>
+      <c r="E74" s="32">
+        <v>6.1600000000000002E-2</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G74" s="32">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H74" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C75" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="32">
+        <v>95</v>
+      </c>
+      <c r="E75" s="32">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F75" s="32">
+        <v>0.98</v>
+      </c>
+      <c r="G75" s="32">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="H75" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C76" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="32">
+        <v>95</v>
+      </c>
+      <c r="E76" s="32">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="F76" s="32">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G76" s="32">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="H76" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C77" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" s="32">
+        <v>95</v>
+      </c>
+      <c r="E77" s="32">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="F77" s="32">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G77" s="32">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="H77" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C78" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" s="32">
+        <v>95</v>
+      </c>
+      <c r="E78" s="32">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="F78" s="32">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="G78" s="32">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="H78" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C79" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="32">
+        <v>95</v>
+      </c>
+      <c r="E79" s="32">
+        <v>5.9700000000000003E-2</v>
+      </c>
+      <c r="F79" s="32">
+        <v>0.98129999999999995</v>
+      </c>
+      <c r="G79" s="32">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H79" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C80" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" s="32">
+        <v>95</v>
+      </c>
+      <c r="E80" s="32">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="F80" s="32">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G80" s="32">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="H80" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C81" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" s="32">
+        <v>95</v>
+      </c>
+      <c r="E81" s="32">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="F81" s="32">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G81" s="32">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="H81" s="33">
+        <v>0.98640000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C82" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" s="32">
+        <v>95</v>
+      </c>
+      <c r="E82" s="32">
+        <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="F82" s="32">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G82" s="32">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H82" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C83" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="32">
+        <v>95</v>
+      </c>
+      <c r="E83" s="32">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="F83" s="32">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G83" s="32">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="H83" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C84" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="32">
+        <v>95</v>
+      </c>
+      <c r="E84" s="32">
+        <v>5.91E-2</v>
+      </c>
+      <c r="F84" s="32">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="G84" s="32">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="H84" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C85" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="32">
+        <v>95</v>
+      </c>
+      <c r="E85" s="32">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="F85" s="32">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G85" s="32">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="H85" s="33">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C86" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="32">
+        <v>95</v>
+      </c>
+      <c r="E86" s="32">
+        <v>5.9299999999999999E-2</v>
+      </c>
+      <c r="F86" s="32">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="G86" s="32">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="H86" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C87" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" s="32">
+        <v>95</v>
+      </c>
+      <c r="E87" s="32">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="F87" s="32">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G87" s="32">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H87" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C88" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="32">
+        <v>95</v>
+      </c>
+      <c r="E88" s="32">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="F88" s="32">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="G88" s="32">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H88" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C89" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="32">
+        <v>95</v>
+      </c>
+      <c r="E89" s="32">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="F89" s="32">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="G89" s="32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H89" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C90" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="32">
+        <v>95</v>
+      </c>
+      <c r="E90" s="32">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F90" s="32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G90" s="32">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="H90" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C91" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="32">
+        <v>95</v>
+      </c>
+      <c r="E91" s="32">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="F91" s="32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G91" s="32">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="H91" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C92" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="32">
+        <v>95</v>
+      </c>
+      <c r="E92" s="32">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="F92" s="32">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="G92" s="32">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="H92" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C93" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="32">
+        <v>95</v>
+      </c>
+      <c r="E93" s="32">
+        <v>5.62E-2</v>
+      </c>
+      <c r="F93" s="32">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="G93" s="32">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="H93" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C94" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="32">
+        <v>95</v>
+      </c>
+      <c r="E94" s="32">
+        <v>5.6800000000000003E-2</v>
+      </c>
+      <c r="F94" s="32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G94" s="32">
+        <v>3.09E-2</v>
+      </c>
+      <c r="H94" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C95" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="32">
+        <v>95</v>
+      </c>
+      <c r="E95" s="32">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="F95" s="32">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="G95" s="32">
+        <v>3.04E-2</v>
+      </c>
+      <c r="H95" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C96" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="32">
+        <v>95</v>
+      </c>
+      <c r="E96" s="32">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="F96" s="32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G96" s="32">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H96" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C97" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" s="32">
+        <v>95</v>
+      </c>
+      <c r="E97" s="32">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="F97" s="32">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G97" s="32">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H97" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C98" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="32">
+        <v>95</v>
+      </c>
+      <c r="E98" s="32">
+        <v>5.57E-2</v>
+      </c>
+      <c r="F98" s="32">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="G98" s="32">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="H98" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C99" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" s="32">
+        <v>95</v>
+      </c>
+      <c r="E99" s="32">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="F99" s="32">
+        <v>0.98329999999999995</v>
+      </c>
+      <c r="G99" s="32">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H99" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C100" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" s="32">
+        <v>95</v>
+      </c>
+      <c r="E100" s="32">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="F100" s="32">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="G100" s="32">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="H100" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C101" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="32">
+        <v>95</v>
+      </c>
+      <c r="E101" s="32">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="F101" s="32">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="G101" s="32">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="H101" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C102" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" s="32">
+        <v>95</v>
+      </c>
+      <c r="E102" s="32">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="F102" s="32">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="G102" s="32">
+        <v>3.0599999999999999E-2</v>
+      </c>
+      <c r="H102" s="33">
+        <v>0.98770000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C103" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" s="32">
+        <v>95</v>
+      </c>
+      <c r="E103" s="32">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F103" s="32">
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="G103" s="32">
+        <v>0.03</v>
+      </c>
+      <c r="H103" s="33">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V1001"/>
   <sheetViews>
@@ -2918,44 +5022,44 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="36"/>
     </row>
     <row r="3" spans="2:22" ht="39" customHeight="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="I3" s="33" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="I3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="O3" s="33" t="s">
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="O3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
       <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
@@ -5400,2048 +7504,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C1E00-6DC2-4A64-B7C8-7737F75FED18}">
-  <dimension ref="C2:H103"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:8" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:8" ht="29.25" thickBot="1">
-      <c r="C3" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="41">
-        <v>95</v>
-      </c>
-      <c r="E4" s="41">
-        <v>0.71419999999999995</v>
-      </c>
-      <c r="F4" s="41">
-        <v>0.56130000000000002</v>
-      </c>
-      <c r="G4" s="41">
-        <v>0.59740000000000004</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0.89049999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="41">
-        <v>95</v>
-      </c>
-      <c r="E5" s="41">
-        <v>0.60150000000000003</v>
-      </c>
-      <c r="F5" s="41">
-        <v>0.70860000000000001</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.50960000000000005</v>
-      </c>
-      <c r="H5" s="42">
-        <v>0.93610000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C6" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="41">
-        <v>95</v>
-      </c>
-      <c r="E6" s="41">
-        <v>0.52029999999999998</v>
-      </c>
-      <c r="F6" s="41">
-        <v>0.81940000000000002</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.43070000000000003</v>
-      </c>
-      <c r="H6" s="42">
-        <v>0.93869999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C7" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="41">
-        <v>95</v>
-      </c>
-      <c r="E7" s="41">
-        <v>0.44240000000000002</v>
-      </c>
-      <c r="F7" s="41">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0.36320000000000002</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0.94259999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C8" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="41">
-        <v>95</v>
-      </c>
-      <c r="E8" s="41">
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="F8" s="41">
-        <v>0.90310000000000001</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0.31259999999999999</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0.95050000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C9" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="41">
-        <v>95</v>
-      </c>
-      <c r="E9" s="41">
-        <v>0.3362</v>
-      </c>
-      <c r="F9" s="41">
-        <v>0.92059999999999997</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0.26840000000000003</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0.95309999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="41">
-        <v>95</v>
-      </c>
-      <c r="E10" s="41">
-        <v>0.29330000000000001</v>
-      </c>
-      <c r="F10" s="41">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0.2319</v>
-      </c>
-      <c r="H10" s="42">
-        <v>0.95309999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C11" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="41">
-        <v>95</v>
-      </c>
-      <c r="E11" s="41">
-        <v>0.2681</v>
-      </c>
-      <c r="F11" s="41">
-        <v>0.93440000000000001</v>
-      </c>
-      <c r="G11" s="41">
-        <v>0.20280000000000001</v>
-      </c>
-      <c r="H11" s="42">
-        <v>0.95830000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C12" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="41">
-        <v>95</v>
-      </c>
-      <c r="E12" s="41">
-        <v>0.2389</v>
-      </c>
-      <c r="F12" s="41">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0.1885</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0.95699999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C13" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="41">
-        <v>95</v>
-      </c>
-      <c r="E13" s="41">
-        <v>0.2218</v>
-      </c>
-      <c r="F13" s="41">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0.16389999999999999</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0.96609999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C14" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="41">
-        <v>95</v>
-      </c>
-      <c r="E14" s="41">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F14" s="41">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="G14" s="41">
-        <v>0.14960000000000001</v>
-      </c>
-      <c r="H14" s="42">
-        <v>0.96740000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="41">
-        <v>95</v>
-      </c>
-      <c r="E15" s="41">
-        <v>0.1885</v>
-      </c>
-      <c r="F15" s="41">
-        <v>0.94530000000000003</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0.13830000000000001</v>
-      </c>
-      <c r="H15" s="42">
-        <v>0.96609999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="41">
-        <v>95</v>
-      </c>
-      <c r="E16" s="41">
-        <v>0.182</v>
-      </c>
-      <c r="F16" s="41">
-        <v>0.95420000000000005</v>
-      </c>
-      <c r="G16" s="41">
-        <v>0.1356</v>
-      </c>
-      <c r="H16" s="42">
-        <v>0.96870000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C17" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="41">
-        <v>95</v>
-      </c>
-      <c r="E17" s="41">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="F17" s="41">
-        <v>0.95420000000000005</v>
-      </c>
-      <c r="G17" s="41">
-        <v>0.1278</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C18" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="41">
-        <v>95</v>
-      </c>
-      <c r="E18" s="41">
-        <v>0.16689999999999999</v>
-      </c>
-      <c r="F18" s="41">
-        <v>0.94689999999999996</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0.1235</v>
-      </c>
-      <c r="H18" s="42">
-        <v>0.96870000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C19" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="41">
-        <v>95</v>
-      </c>
-      <c r="E19" s="41">
-        <v>0.15809999999999999</v>
-      </c>
-      <c r="F19" s="41">
-        <v>0.95389999999999997</v>
-      </c>
-      <c r="G19" s="41">
-        <v>0.111</v>
-      </c>
-      <c r="H19" s="42">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="41">
-        <v>95</v>
-      </c>
-      <c r="E20" s="41">
-        <v>0.15529999999999999</v>
-      </c>
-      <c r="F20" s="41">
-        <v>0.95450000000000002</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0.1056</v>
-      </c>
-      <c r="H20" s="42">
-        <v>0.97130000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C21" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="41">
-        <v>95</v>
-      </c>
-      <c r="E21" s="41">
-        <v>0.1394</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0.96040000000000003</v>
-      </c>
-      <c r="G21" s="41">
-        <v>0.1003</v>
-      </c>
-      <c r="H21" s="42">
-        <v>0.97130000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C22" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="41">
-        <v>95</v>
-      </c>
-      <c r="E22" s="41">
-        <v>0.13550000000000001</v>
-      </c>
-      <c r="F22" s="41">
-        <v>0.96009999999999995</v>
-      </c>
-      <c r="G22" s="41">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="H22" s="42">
-        <v>0.97130000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C23" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="41">
-        <v>95</v>
-      </c>
-      <c r="E23" s="41">
-        <v>0.1321</v>
-      </c>
-      <c r="F23" s="41">
-        <v>0.96109999999999995</v>
-      </c>
-      <c r="G23" s="41">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0.97650000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C24" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="41">
-        <v>95</v>
-      </c>
-      <c r="E24" s="41">
-        <v>0.1278</v>
-      </c>
-      <c r="F24" s="41">
-        <v>0.96309999999999996</v>
-      </c>
-      <c r="G24" s="41">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="H24" s="42">
-        <v>0.97260000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C25" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="41">
-        <v>95</v>
-      </c>
-      <c r="E25" s="41">
-        <v>0.1246</v>
-      </c>
-      <c r="F25" s="41">
-        <v>0.96079999999999999</v>
-      </c>
-      <c r="G25" s="41">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="H25" s="42">
-        <v>0.97519999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C26" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="41">
-        <v>95</v>
-      </c>
-      <c r="E26" s="41">
-        <v>0.1173</v>
-      </c>
-      <c r="F26" s="41">
-        <v>0.9657</v>
-      </c>
-      <c r="G26" s="41">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="H26" s="42">
-        <v>0.97650000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C27" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="41">
-        <v>95</v>
-      </c>
-      <c r="E27" s="41">
-        <v>0.1096</v>
-      </c>
-      <c r="F27" s="41">
-        <v>0.96540000000000004</v>
-      </c>
-      <c r="G27" s="41">
-        <v>7.9899999999999999E-2</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0.9778</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C28" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="41">
-        <v>95</v>
-      </c>
-      <c r="E28" s="41">
-        <v>0.1065</v>
-      </c>
-      <c r="F28" s="41">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G28" s="41">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="H28" s="42">
-        <v>0.98040000000000005</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C29" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="41">
-        <v>95</v>
-      </c>
-      <c r="E29" s="41">
-        <v>0.1099</v>
-      </c>
-      <c r="F29" s="41">
-        <v>0.96309999999999996</v>
-      </c>
-      <c r="G29" s="41">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="H29" s="42">
-        <v>0.98040000000000005</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C30" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="41">
-        <v>95</v>
-      </c>
-      <c r="E30" s="41">
-        <v>0.1089</v>
-      </c>
-      <c r="F30" s="41">
-        <v>0.9647</v>
-      </c>
-      <c r="G30" s="41">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="H30" s="42">
-        <v>0.98170000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C31" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="41">
-        <v>95</v>
-      </c>
-      <c r="E31" s="41">
-        <v>0.10349999999999999</v>
-      </c>
-      <c r="F31" s="41">
-        <v>0.96540000000000004</v>
-      </c>
-      <c r="G31" s="41">
-        <v>7.1599999999999997E-2</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0.98040000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C32" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="41">
-        <v>95</v>
-      </c>
-      <c r="E32" s="41">
-        <v>0.1012</v>
-      </c>
-      <c r="F32" s="41">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G32" s="41">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="H32" s="42">
-        <v>0.98040000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C33" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="41">
-        <v>95</v>
-      </c>
-      <c r="E33" s="41">
-        <v>0.1009</v>
-      </c>
-      <c r="F33" s="41">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="G33" s="41">
-        <v>6.4899999999999999E-2</v>
-      </c>
-      <c r="H33" s="42">
-        <v>0.98170000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C34" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="41">
-        <v>95</v>
-      </c>
-      <c r="E34" s="41">
-        <v>9.8500000000000004E-2</v>
-      </c>
-      <c r="F34" s="41">
-        <v>0.97070000000000001</v>
-      </c>
-      <c r="G34" s="41">
-        <v>6.3700000000000007E-2</v>
-      </c>
-      <c r="H34" s="42">
-        <v>0.98170000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C35" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="41">
-        <v>95</v>
-      </c>
-      <c r="E35" s="41">
-        <v>0.1003</v>
-      </c>
-      <c r="F35" s="41">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="G35" s="41">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="H35" s="42">
-        <v>0.98040000000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C36" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="41">
-        <v>95</v>
-      </c>
-      <c r="E36" s="41">
-        <v>8.6800000000000002E-2</v>
-      </c>
-      <c r="F36" s="41">
-        <v>0.97589999999999999</v>
-      </c>
-      <c r="G36" s="41">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="H36" s="42">
-        <v>0.98309999999999997</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C37" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="41">
-        <v>95</v>
-      </c>
-      <c r="E37" s="41">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="F37" s="41">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="G37" s="41">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="H37" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C38" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="41">
-        <v>95</v>
-      </c>
-      <c r="E38" s="41">
-        <v>8.9499999999999996E-2</v>
-      </c>
-      <c r="F38" s="41">
-        <v>0.9677</v>
-      </c>
-      <c r="G38" s="41">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="H38" s="42">
-        <v>0.98170000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C39" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="41">
-        <v>95</v>
-      </c>
-      <c r="E39" s="41">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="F39" s="41">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="G39" s="41">
-        <v>5.7299999999999997E-2</v>
-      </c>
-      <c r="H39" s="42">
-        <v>0.98170000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C40" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="41">
-        <v>95</v>
-      </c>
-      <c r="E40" s="41">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="F40" s="41">
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="G40" s="41">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="H40" s="42">
-        <v>0.98309999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C41" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="41">
-        <v>95</v>
-      </c>
-      <c r="E41" s="41">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="F41" s="41">
-        <v>0.97109999999999996</v>
-      </c>
-      <c r="G41" s="41">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="H41" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C42" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="41">
-        <v>95</v>
-      </c>
-      <c r="E42" s="41">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="F42" s="41">
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="G42" s="41">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="H42" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C43" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="41">
-        <v>95</v>
-      </c>
-      <c r="E43" s="41">
-        <v>7.85E-2</v>
-      </c>
-      <c r="F43" s="41">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="G43" s="41">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H43" s="42">
-        <v>0.98440000000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C44" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="41">
-        <v>95</v>
-      </c>
-      <c r="E44" s="41">
-        <v>8.6099999999999996E-2</v>
-      </c>
-      <c r="F44" s="41">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="G44" s="41">
-        <v>5.0299999999999997E-2</v>
-      </c>
-      <c r="H44" s="42">
-        <v>0.98440000000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C45" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="41">
-        <v>95</v>
-      </c>
-      <c r="E45" s="41">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="F45" s="41">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="G45" s="41">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="H45" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C46" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="41">
-        <v>95</v>
-      </c>
-      <c r="E46" s="41">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="F46" s="41">
-        <v>0.97360000000000002</v>
-      </c>
-      <c r="G46" s="41">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="H46" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C47" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="41">
-        <v>95</v>
-      </c>
-      <c r="E47" s="41">
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="F47" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G47" s="41">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="H47" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C48" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="41">
-        <v>95</v>
-      </c>
-      <c r="E48" s="41">
-        <v>0.08</v>
-      </c>
-      <c r="F48" s="41">
-        <v>0.97270000000000001</v>
-      </c>
-      <c r="G48" s="41">
-        <v>4.82E-2</v>
-      </c>
-      <c r="H48" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C49" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="41">
-        <v>95</v>
-      </c>
-      <c r="E49" s="41">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="F49" s="41">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="G49" s="41">
-        <v>4.7600000000000003E-2</v>
-      </c>
-      <c r="H49" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C50" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="41">
-        <v>95</v>
-      </c>
-      <c r="E50" s="41">
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="F50" s="41">
-        <v>0.97529999999999994</v>
-      </c>
-      <c r="G50" s="41">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="H50" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C51" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="41">
-        <v>95</v>
-      </c>
-      <c r="E51" s="41">
-        <v>7.6100000000000001E-2</v>
-      </c>
-      <c r="F51" s="41">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="G51" s="41">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="H51" s="42">
-        <v>0.98570000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C52" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="41">
-        <v>95</v>
-      </c>
-      <c r="E52" s="41">
-        <v>8.1799999999999998E-2</v>
-      </c>
-      <c r="F52" s="41">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="G52" s="41">
-        <v>4.53E-2</v>
-      </c>
-      <c r="H52" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C53" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="41">
-        <v>95</v>
-      </c>
-      <c r="E53" s="41">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="F53" s="41">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G53" s="41">
-        <v>4.65E-2</v>
-      </c>
-      <c r="H53" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C54" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="41">
-        <v>95</v>
-      </c>
-      <c r="E54" s="41">
-        <v>7.51E-2</v>
-      </c>
-      <c r="F54" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G54" s="41">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="H54" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C55" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="41">
-        <v>95</v>
-      </c>
-      <c r="E55" s="41">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="F55" s="41">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="G55" s="41">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="H55" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C56" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="41">
-        <v>95</v>
-      </c>
-      <c r="E56" s="41">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="F56" s="41">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G56" s="41">
-        <v>4.48E-2</v>
-      </c>
-      <c r="H56" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C57" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="41">
-        <v>95</v>
-      </c>
-      <c r="E57" s="41">
-        <v>7.1099999999999997E-2</v>
-      </c>
-      <c r="F57" s="41">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G57" s="41">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="H57" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C58" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="41">
-        <v>95</v>
-      </c>
-      <c r="E58" s="41">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="F58" s="41">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="G58" s="41">
-        <v>4.3400000000000001E-2</v>
-      </c>
-      <c r="H58" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C59" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="41">
-        <v>95</v>
-      </c>
-      <c r="E59" s="41">
-        <v>7.5200000000000003E-2</v>
-      </c>
-      <c r="F59" s="41">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="G59" s="41">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="H59" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C60" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="41">
-        <v>95</v>
-      </c>
-      <c r="E60" s="41">
-        <v>7.4099999999999999E-2</v>
-      </c>
-      <c r="F60" s="41">
-        <v>0.97629999999999995</v>
-      </c>
-      <c r="G60" s="41">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="H60" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C61" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="41">
-        <v>95</v>
-      </c>
-      <c r="E61" s="41">
-        <v>7.51E-2</v>
-      </c>
-      <c r="F61" s="41">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G61" s="41">
-        <v>4.07E-2</v>
-      </c>
-      <c r="H61" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C62" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D62" s="41">
-        <v>95</v>
-      </c>
-      <c r="E62" s="41">
-        <v>7.22E-2</v>
-      </c>
-      <c r="F62" s="41">
-        <v>0.97570000000000001</v>
-      </c>
-      <c r="G62" s="41">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="H62" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C63" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="41">
-        <v>95</v>
-      </c>
-      <c r="E63" s="41">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="F63" s="41">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G63" s="41">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="H63" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C64" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D64" s="41">
-        <v>95</v>
-      </c>
-      <c r="E64" s="41">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="F64" s="41">
-        <v>0.97729999999999995</v>
-      </c>
-      <c r="G64" s="41">
-        <v>3.7600000000000001E-2</v>
-      </c>
-      <c r="H64" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C65" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="41">
-        <v>95</v>
-      </c>
-      <c r="E65" s="41">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="F65" s="41">
-        <v>0.97770000000000001</v>
-      </c>
-      <c r="G65" s="41">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H65" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C66" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" s="41">
-        <v>95</v>
-      </c>
-      <c r="E66" s="41">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="F66" s="41">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="G66" s="41">
-        <v>3.7900000000000003E-2</v>
-      </c>
-      <c r="H66" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C67" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="41">
-        <v>95</v>
-      </c>
-      <c r="E67" s="41">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="F67" s="41">
-        <v>0.97929999999999995</v>
-      </c>
-      <c r="G67" s="41">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="H67" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C68" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="41">
-        <v>95</v>
-      </c>
-      <c r="E68" s="41">
-        <v>6.6100000000000006E-2</v>
-      </c>
-      <c r="F68" s="41">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="G68" s="41">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="H68" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C69" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="41">
-        <v>95</v>
-      </c>
-      <c r="E69" s="41">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="F69" s="41">
-        <v>0.97829999999999995</v>
-      </c>
-      <c r="G69" s="41">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="H69" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C70" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="41">
-        <v>95</v>
-      </c>
-      <c r="E70" s="41">
-        <v>6.3899999999999998E-2</v>
-      </c>
-      <c r="F70" s="41">
-        <v>0.98</v>
-      </c>
-      <c r="G70" s="41">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="H70" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C71" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D71" s="41">
-        <v>95</v>
-      </c>
-      <c r="E71" s="41">
-        <v>6.2300000000000001E-2</v>
-      </c>
-      <c r="F71" s="41">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="G71" s="41">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="H71" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C72" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="41">
-        <v>95</v>
-      </c>
-      <c r="E72" s="41">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F72" s="41">
-        <v>0.97899999999999998</v>
-      </c>
-      <c r="G72" s="41">
-        <v>3.4700000000000002E-2</v>
-      </c>
-      <c r="H72" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C73" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="41">
-        <v>95</v>
-      </c>
-      <c r="E73" s="41">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="F73" s="41">
-        <v>0.98029999999999995</v>
-      </c>
-      <c r="G73" s="41">
-        <v>3.44E-2</v>
-      </c>
-      <c r="H73" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C74" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D74" s="41">
-        <v>95</v>
-      </c>
-      <c r="E74" s="41">
-        <v>6.1600000000000002E-2</v>
-      </c>
-      <c r="F74" s="41">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="G74" s="41">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="H74" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C75" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="41">
-        <v>95</v>
-      </c>
-      <c r="E75" s="41">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="F75" s="41">
-        <v>0.98</v>
-      </c>
-      <c r="G75" s="41">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="H75" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="76" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C76" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="41">
-        <v>95</v>
-      </c>
-      <c r="E76" s="41">
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="F76" s="41">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="G76" s="41">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="H76" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C77" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D77" s="41">
-        <v>95</v>
-      </c>
-      <c r="E77" s="41">
-        <v>6.2100000000000002E-2</v>
-      </c>
-      <c r="F77" s="41">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="G77" s="41">
-        <v>3.3799999999999997E-2</v>
-      </c>
-      <c r="H77" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C78" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D78" s="41">
-        <v>95</v>
-      </c>
-      <c r="E78" s="41">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="F78" s="41">
-        <v>0.98129999999999995</v>
-      </c>
-      <c r="G78" s="41">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="H78" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C79" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="41">
-        <v>95</v>
-      </c>
-      <c r="E79" s="41">
-        <v>5.9700000000000003E-2</v>
-      </c>
-      <c r="F79" s="41">
-        <v>0.98129999999999995</v>
-      </c>
-      <c r="G79" s="41">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="H79" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C80" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D80" s="41">
-        <v>95</v>
-      </c>
-      <c r="E80" s="41">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="F80" s="41">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="G80" s="41">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="H80" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C81" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D81" s="41">
-        <v>95</v>
-      </c>
-      <c r="E81" s="41">
-        <v>6.2600000000000003E-2</v>
-      </c>
-      <c r="F81" s="41">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="G81" s="41">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="H81" s="42">
-        <v>0.98640000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C82" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D82" s="41">
-        <v>95</v>
-      </c>
-      <c r="E82" s="41">
-        <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="F82" s="41">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="G82" s="41">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="H82" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C83" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="41">
-        <v>95</v>
-      </c>
-      <c r="E83" s="41">
-        <v>5.8200000000000002E-2</v>
-      </c>
-      <c r="F83" s="41">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G83" s="41">
-        <v>3.3500000000000002E-2</v>
-      </c>
-      <c r="H83" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="84" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C84" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D84" s="41">
-        <v>95</v>
-      </c>
-      <c r="E84" s="41">
-        <v>5.91E-2</v>
-      </c>
-      <c r="F84" s="41">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="G84" s="41">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="H84" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C85" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="41">
-        <v>95</v>
-      </c>
-      <c r="E85" s="41">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="F85" s="41">
-        <v>0.98170000000000002</v>
-      </c>
-      <c r="G85" s="41">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="H85" s="42">
-        <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C86" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="41">
-        <v>95</v>
-      </c>
-      <c r="E86" s="41">
-        <v>5.9299999999999999E-2</v>
-      </c>
-      <c r="F86" s="41">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="G86" s="41">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="H86" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C87" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D87" s="41">
-        <v>95</v>
-      </c>
-      <c r="E87" s="41">
-        <v>5.5300000000000002E-2</v>
-      </c>
-      <c r="F87" s="41">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G87" s="41">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="H87" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C88" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D88" s="41">
-        <v>95</v>
-      </c>
-      <c r="E88" s="41">
-        <v>5.5399999999999998E-2</v>
-      </c>
-      <c r="F88" s="41">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="G88" s="41">
-        <v>3.15E-2</v>
-      </c>
-      <c r="H88" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C89" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D89" s="41">
-        <v>95</v>
-      </c>
-      <c r="E89" s="41">
-        <v>5.5899999999999998E-2</v>
-      </c>
-      <c r="F89" s="41">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="G89" s="41">
-        <v>3.1E-2</v>
-      </c>
-      <c r="H89" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C90" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D90" s="41">
-        <v>95</v>
-      </c>
-      <c r="E90" s="41">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F90" s="41">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="G90" s="41">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="H90" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C91" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="41">
-        <v>95</v>
-      </c>
-      <c r="E91" s="41">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="F91" s="41">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="G91" s="41">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="H91" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C92" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D92" s="41">
-        <v>95</v>
-      </c>
-      <c r="E92" s="41">
-        <v>5.7799999999999997E-2</v>
-      </c>
-      <c r="F92" s="41">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="G92" s="41">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="H92" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="93" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C93" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D93" s="41">
-        <v>95</v>
-      </c>
-      <c r="E93" s="41">
-        <v>5.62E-2</v>
-      </c>
-      <c r="F93" s="41">
-        <v>0.98270000000000002</v>
-      </c>
-      <c r="G93" s="41">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="H93" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="94" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C94" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" s="41">
-        <v>95</v>
-      </c>
-      <c r="E94" s="41">
-        <v>5.6800000000000003E-2</v>
-      </c>
-      <c r="F94" s="41">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="G94" s="41">
-        <v>3.09E-2</v>
-      </c>
-      <c r="H94" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C95" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="41">
-        <v>95</v>
-      </c>
-      <c r="E95" s="41">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="F95" s="41">
-        <v>0.98229999999999995</v>
-      </c>
-      <c r="G95" s="41">
-        <v>3.04E-2</v>
-      </c>
-      <c r="H95" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C96" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="41">
-        <v>95</v>
-      </c>
-      <c r="E96" s="41">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="F96" s="41">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="G96" s="41">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="H96" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C97" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" s="41">
-        <v>95</v>
-      </c>
-      <c r="E97" s="41">
-        <v>5.4699999999999999E-2</v>
-      </c>
-      <c r="F97" s="41">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="G97" s="41">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="H97" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C98" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="41">
-        <v>95</v>
-      </c>
-      <c r="E98" s="41">
-        <v>5.57E-2</v>
-      </c>
-      <c r="F98" s="41">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="G98" s="41">
-        <v>3.0300000000000001E-2</v>
-      </c>
-      <c r="H98" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C99" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D99" s="41">
-        <v>95</v>
-      </c>
-      <c r="E99" s="41">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="F99" s="41">
-        <v>0.98329999999999995</v>
-      </c>
-      <c r="G99" s="41">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="H99" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C100" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="41">
-        <v>95</v>
-      </c>
-      <c r="E100" s="41">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="F100" s="41">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="G100" s="41">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="H100" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-    <row r="101" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C101" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="41">
-        <v>95</v>
-      </c>
-      <c r="E101" s="41">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="F101" s="41">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="G101" s="41">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="H101" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C102" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D102" s="41">
-        <v>95</v>
-      </c>
-      <c r="E102" s="41">
-        <v>5.2299999999999999E-2</v>
-      </c>
-      <c r="F102" s="41">
-        <v>0.98370000000000002</v>
-      </c>
-      <c r="G102" s="41">
-        <v>3.0599999999999999E-2</v>
-      </c>
-      <c r="H102" s="42">
-        <v>0.98770000000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="3:8" ht="15.75" thickBot="1">
-      <c r="C103" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D103" s="41">
-        <v>95</v>
-      </c>
-      <c r="E103" s="41">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="F103" s="41">
-        <v>0.98429999999999995</v>
-      </c>
-      <c r="G103" s="41">
-        <v>0.03</v>
-      </c>
-      <c r="H103" s="42">
-        <v>0.98829999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
@@ -10450,23 +10512,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="39" customHeight="1">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="J1" s="33" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="J1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="Q1" s="33" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="Q1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="2:20" ht="25.5" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -14449,16 +14511,16 @@
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="11"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="11"/>
@@ -14533,16 +14595,16 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="11"/>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38" t="s">
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="11"/>

--- a/Hasil Pengujian Data.xlsx
+++ b/Hasil Pengujian Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14995DA3-C8D4-4B74-9868-DAA9C005194C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BBDFE-1DB4-4052-9E5F-F41B73CB7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
   <si>
     <t>ADAM OPTIMIZER</t>
   </si>
@@ -437,12 +437,15 @@
   <si>
     <t>100/100</t>
   </si>
+  <si>
+    <t>RMSP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +536,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +597,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +846,9 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,9 +866,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,10 +1568,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>603996</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>124871</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>54908</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>203312</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8877300" cy="3148345"/>
     <xdr:pic>
@@ -1546,7 +1593,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18454967" y="898077"/>
+          <a:off x="7013761" y="606724"/>
           <a:ext cx="8877300" cy="3148345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1612,7 +1659,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>375558</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>44888</xdr:rowOff>
+      <xdr:rowOff>44887</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,16 +1694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>111438</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>433667</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>195544</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>467285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83484</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1679,8 +1726,228 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18523323" y="4111938"/>
+          <a:off x="20372294" y="537261"/>
           <a:ext cx="8838079" cy="3109694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>127187</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>130549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Gambar 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E81453-6C59-6459-4276-721AD68801F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20495559" y="3685170"/>
+          <a:ext cx="4138892" cy="3673173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>75854</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>15542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Gambar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64B7081-05F5-8F52-A66C-44788CD3113E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20854147" y="7507942"/>
+          <a:ext cx="5544324" cy="2962688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>272261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>276785</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Gambar 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C27EF1-4894-D940-0EF4-2B63814D3230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39097323" y="675673"/>
+          <a:ext cx="8221756" cy="2892840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>125671</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>228040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Gambar 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A769BBC1-6079-EB6E-BD63-32B8C3AC30DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39301436" y="3978088"/>
+          <a:ext cx="3733075" cy="3313019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>591981</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>113035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Gambar 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69683991-62B9-6B6C-7F4B-8C676F840F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39579176" y="7754470"/>
+          <a:ext cx="6239746" cy="2981741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,10 +3202,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C2:H103"/>
+  <dimension ref="C2:BD104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R2" zoomScale="85" workbookViewId="0">
-      <selection activeCell="AR28" sqref="AR28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2946,14 +3213,33 @@
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="50"/>
+    <col min="26" max="26" width="9.140625" style="51"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="50"/>
+    <col min="51" max="51" width="9.140625" style="51"/>
+    <col min="52" max="52" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.85546875" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" customWidth="1"/>
+    <col min="55" max="55" width="16.42578125" customWidth="1"/>
+    <col min="56" max="56" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="16.5" thickBot="1">
-      <c r="D2" s="43" t="s">
+    <row r="2" spans="3:56" ht="16.5" thickBot="1">
+      <c r="D2" s="34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="3:8" ht="29.25" thickBot="1">
+      <c r="AA2" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="34"/>
+      <c r="BA2" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="3:56" ht="29.25" thickBot="1">
       <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2973,7 +3259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="15.75" thickBot="1">
+    <row r="4" spans="3:56" ht="29.25" thickBot="1">
       <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
@@ -2992,8 +3278,38 @@
       <c r="H4" s="33">
         <v>0.89049999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA4" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC4" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD4" s="47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="3:56" ht="15.75" thickBot="1">
       <c r="C5" s="32" t="s">
         <v>32</v>
       </c>
@@ -3012,8 +3328,38 @@
       <c r="H5" s="33">
         <v>0.93610000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA5" s="48">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="48">
+        <v>0.75280000000000002</v>
+      </c>
+      <c r="AC5" s="48">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="AD5" s="48">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="AE5" s="49">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="AZ5" s="48">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="48">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="BB5" s="48">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="BC5" s="48">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="BD5" s="49">
+        <v>0.9335</v>
+      </c>
+    </row>
+    <row r="6" spans="3:56" ht="15.75" thickBot="1">
       <c r="C6" s="32" t="s">
         <v>33</v>
       </c>
@@ -3032,8 +3378,38 @@
       <c r="H6" s="33">
         <v>0.93869999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA6" s="48">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="48">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="AC6" s="48">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="AD6" s="48">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="AE6" s="49">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="AZ6" s="48">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="48">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="BB6" s="48">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="BC6" s="48">
+        <v>0.4783</v>
+      </c>
+      <c r="BD6" s="49">
+        <v>0.94389999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="3:56" ht="15.75" thickBot="1">
       <c r="C7" s="32" t="s">
         <v>34</v>
       </c>
@@ -3052,8 +3428,38 @@
       <c r="H7" s="33">
         <v>0.94259999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA7" s="48">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="48">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="AC7" s="48">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AD7" s="48">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AE7" s="49">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="AZ7" s="48">
+        <v>3</v>
+      </c>
+      <c r="BA7" s="48">
+        <v>0.4824</v>
+      </c>
+      <c r="BB7" s="48">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="BC7" s="48">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="BD7" s="49">
+        <v>0.93869999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="3:56" ht="15.75" thickBot="1">
       <c r="C8" s="32" t="s">
         <v>35</v>
       </c>
@@ -3072,8 +3478,38 @@
       <c r="H8" s="33">
         <v>0.95050000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA8" s="48">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="48">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="AC8" s="48">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="AD8" s="48">
+        <v>0.7006</v>
+      </c>
+      <c r="AE8" s="49">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="AZ8" s="48">
+        <v>4</v>
+      </c>
+      <c r="BA8" s="48">
+        <v>0.41</v>
+      </c>
+      <c r="BB8" s="48">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="BC8" s="48">
+        <v>0.3337</v>
+      </c>
+      <c r="BD8" s="49">
+        <v>0.94650000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:56" ht="15.75" thickBot="1">
       <c r="C9" s="32" t="s">
         <v>36</v>
       </c>
@@ -3092,8 +3528,38 @@
       <c r="H9" s="33">
         <v>0.95309999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA9" s="48">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="48">
+        <v>0.7349</v>
+      </c>
+      <c r="AC9" s="48">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="AD9" s="48">
+        <v>0.6956</v>
+      </c>
+      <c r="AE9" s="49">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="AZ9" s="48">
+        <v>5</v>
+      </c>
+      <c r="BA9" s="48">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="BB9" s="48">
+        <v>0.91959999999999997</v>
+      </c>
+      <c r="BC9" s="48">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="BD9" s="49">
+        <v>0.95179999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:56" ht="15.75" thickBot="1">
       <c r="C10" s="32" t="s">
         <v>37</v>
       </c>
@@ -3112,8 +3578,38 @@
       <c r="H10" s="33">
         <v>0.95309999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA10" s="48">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="48">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="AC10" s="48">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="AD10" s="48">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="AE10" s="49">
+        <v>0.5645</v>
+      </c>
+      <c r="AZ10" s="48">
+        <v>6</v>
+      </c>
+      <c r="BA10" s="48">
+        <v>0.3135</v>
+      </c>
+      <c r="BB10" s="48">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="BC10" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="BD10" s="49">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="3:56" ht="15.75" thickBot="1">
       <c r="C11" s="32" t="s">
         <v>38</v>
       </c>
@@ -3132,8 +3628,38 @@
       <c r="H11" s="33">
         <v>0.95830000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA11" s="48">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>0.7228</v>
+      </c>
+      <c r="AC11" s="48">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="AD11" s="48">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AE11" s="49">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="AZ11" s="48">
+        <v>7</v>
+      </c>
+      <c r="BA11" s="48">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="BB11" s="48">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="BC11" s="48">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="BD11" s="49">
+        <v>0.95960000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:56" ht="15.75" thickBot="1">
       <c r="C12" s="32" t="s">
         <v>39</v>
       </c>
@@ -3152,8 +3678,38 @@
       <c r="H12" s="33">
         <v>0.95699999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA12" s="48">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="48">
+        <v>0.71550000000000002</v>
+      </c>
+      <c r="AC12" s="48">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="AD12" s="48">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AE12" s="49">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="AZ12" s="48">
+        <v>8</v>
+      </c>
+      <c r="BA12" s="48">
+        <v>0.24249999999999999</v>
+      </c>
+      <c r="BB12" s="48">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="BC12" s="48">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="BD12" s="49">
+        <v>0.95830000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:56" ht="15.75" thickBot="1">
       <c r="C13" s="32" t="s">
         <v>40</v>
       </c>
@@ -3172,8 +3728,38 @@
       <c r="H13" s="33">
         <v>0.96609999999999996</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA13" s="48">
+        <v>9</v>
+      </c>
+      <c r="AB13" s="48">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AC13" s="48">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="AD13" s="48">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="AE13" s="49">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AZ13" s="48">
+        <v>9</v>
+      </c>
+      <c r="BA13" s="48">
+        <v>0.22339999999999999</v>
+      </c>
+      <c r="BB13" s="48">
+        <v>0.94069999999999998</v>
+      </c>
+      <c r="BC13" s="48">
+        <v>0.1701</v>
+      </c>
+      <c r="BD13" s="49">
+        <v>0.95440000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="3:56" ht="15.75" thickBot="1">
       <c r="C14" s="32" t="s">
         <v>41</v>
       </c>
@@ -3192,8 +3778,38 @@
       <c r="H14" s="33">
         <v>0.96740000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA14" s="48">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="48">
+        <v>0.7087</v>
+      </c>
+      <c r="AC14" s="48">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="AD14" s="48">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="AE14" s="49">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="AZ14" s="48">
+        <v>10</v>
+      </c>
+      <c r="BA14" s="48">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="BB14" s="48">
+        <v>0.9446</v>
+      </c>
+      <c r="BC14" s="48">
+        <v>0.15060000000000001</v>
+      </c>
+      <c r="BD14" s="49">
+        <v>0.96479999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:56" ht="15.75" thickBot="1">
       <c r="C15" s="32" t="s">
         <v>42</v>
       </c>
@@ -3212,8 +3828,38 @@
       <c r="H15" s="33">
         <v>0.96609999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA15" s="48">
+        <v>11</v>
+      </c>
+      <c r="AB15" s="48">
+        <v>0.71120000000000005</v>
+      </c>
+      <c r="AC15" s="48">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="AD15" s="48">
+        <v>0.6804</v>
+      </c>
+      <c r="AE15" s="49">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="AZ15" s="48">
+        <v>11</v>
+      </c>
+      <c r="BA15" s="48">
+        <v>0.1918</v>
+      </c>
+      <c r="BB15" s="48">
+        <v>0.9456</v>
+      </c>
+      <c r="BC15" s="48">
+        <v>0.1331</v>
+      </c>
+      <c r="BD15" s="49">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="3:56" ht="15.75" thickBot="1">
       <c r="C16" s="32" t="s">
         <v>43</v>
       </c>
@@ -3232,8 +3878,38 @@
       <c r="H16" s="33">
         <v>0.96870000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA16" s="48">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="48">
+        <v>0.71309999999999996</v>
+      </c>
+      <c r="AC16" s="48">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="AD16" s="48">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AE16" s="49">
+        <v>0.6754</v>
+      </c>
+      <c r="AZ16" s="48">
+        <v>12</v>
+      </c>
+      <c r="BA16" s="48">
+        <v>0.1802</v>
+      </c>
+      <c r="BB16" s="48">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="BC16" s="48">
+        <v>0.1273</v>
+      </c>
+      <c r="BD16" s="49">
+        <v>0.96740000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="3:56" ht="15.75" thickBot="1">
       <c r="C17" s="32" t="s">
         <v>44</v>
       </c>
@@ -3252,8 +3928,38 @@
       <c r="H17" s="33">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA17" s="48">
+        <v>13</v>
+      </c>
+      <c r="AB17" s="48">
+        <v>0.7087</v>
+      </c>
+      <c r="AC17" s="48">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="AD17" s="48">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="AE17" s="49">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AZ17" s="48">
+        <v>13</v>
+      </c>
+      <c r="BA17" s="48">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="BB17" s="48">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="BC17" s="48">
+        <v>0.11990000000000001</v>
+      </c>
+      <c r="BD17" s="49">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:56" ht="15.75" thickBot="1">
       <c r="C18" s="32" t="s">
         <v>45</v>
       </c>
@@ -3272,8 +3978,38 @@
       <c r="H18" s="33">
         <v>0.96870000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA18" s="48">
+        <v>14</v>
+      </c>
+      <c r="AB18" s="48">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="AC18" s="48">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AD18" s="48">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="AE18" s="49">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="AZ18" s="48">
+        <v>14</v>
+      </c>
+      <c r="BA18" s="48">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="BB18" s="48">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="BC18" s="48">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="BD18" s="49">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="3:56" ht="15.75" thickBot="1">
       <c r="C19" s="32" t="s">
         <v>46</v>
       </c>
@@ -3292,8 +4028,38 @@
       <c r="H19" s="33">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA19" s="48">
+        <v>15</v>
+      </c>
+      <c r="AB19" s="48">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="AC19" s="48">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="AD19" s="48">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="AE19" s="49">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AZ19" s="48">
+        <v>15</v>
+      </c>
+      <c r="BA19" s="48">
+        <v>0.158</v>
+      </c>
+      <c r="BB19" s="48">
+        <v>0.95150000000000001</v>
+      </c>
+      <c r="BC19" s="48">
+        <v>0.1081</v>
+      </c>
+      <c r="BD19" s="49">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:56" ht="15.75" thickBot="1">
       <c r="C20" s="32" t="s">
         <v>47</v>
       </c>
@@ -3312,8 +4078,38 @@
       <c r="H20" s="33">
         <v>0.97130000000000005</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA20" s="48">
+        <v>16</v>
+      </c>
+      <c r="AB20" s="48">
+        <v>0.70150000000000001</v>
+      </c>
+      <c r="AC20" s="48">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="AD20" s="48">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="AE20" s="49">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="AZ20" s="48">
+        <v>16</v>
+      </c>
+      <c r="BA20" s="48">
+        <v>0.1472</v>
+      </c>
+      <c r="BB20" s="48">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="BC20" s="48">
+        <v>0.1026</v>
+      </c>
+      <c r="BD20" s="49">
+        <v>0.96870000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:56" ht="15.75" thickBot="1">
       <c r="C21" s="32" t="s">
         <v>48</v>
       </c>
@@ -3332,8 +4128,38 @@
       <c r="H21" s="33">
         <v>0.97130000000000005</v>
       </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA21" s="48">
+        <v>17</v>
+      </c>
+      <c r="AB21" s="48">
+        <v>0.69330000000000003</v>
+      </c>
+      <c r="AC21" s="48">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AD21" s="48">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="AE21" s="49">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AZ21" s="48">
+        <v>17</v>
+      </c>
+      <c r="BA21" s="48">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="BB21" s="48">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="BC21" s="48">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="BD21" s="49">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="3:56" ht="15.75" thickBot="1">
       <c r="C22" s="32" t="s">
         <v>49</v>
       </c>
@@ -3352,8 +4178,38 @@
       <c r="H22" s="33">
         <v>0.97130000000000005</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA22" s="48">
+        <v>18</v>
+      </c>
+      <c r="AB22" s="48">
+        <v>0.7026</v>
+      </c>
+      <c r="AC22" s="48">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="AD22" s="48">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="AE22" s="49">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="AZ22" s="48">
+        <v>18</v>
+      </c>
+      <c r="BA22" s="48">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="BB22" s="48">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="BC22" s="48">
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="BD22" s="49">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="23" spans="3:56" ht="15.75" thickBot="1">
       <c r="C23" s="32" t="s">
         <v>50</v>
       </c>
@@ -3372,8 +4228,38 @@
       <c r="H23" s="33">
         <v>0.97650000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA23" s="48">
+        <v>19</v>
+      </c>
+      <c r="AB23" s="48">
+        <v>0.69730000000000003</v>
+      </c>
+      <c r="AC23" s="48">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AD23" s="48">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="AE23" s="49">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="AZ23" s="48">
+        <v>19</v>
+      </c>
+      <c r="BA23" s="48">
+        <v>0.1283</v>
+      </c>
+      <c r="BB23" s="48">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="BC23" s="48">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="BD23" s="49">
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:56" ht="15.75" thickBot="1">
       <c r="C24" s="32" t="s">
         <v>51</v>
       </c>
@@ -3392,8 +4278,38 @@
       <c r="H24" s="33">
         <v>0.97260000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA24" s="48">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="48">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="AC24" s="48">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD24" s="48">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="AE24" s="49">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="AZ24" s="48">
+        <v>20</v>
+      </c>
+      <c r="BA24" s="48">
+        <v>0.1265</v>
+      </c>
+      <c r="BB24" s="48">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="BC24" s="48">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="BD24" s="49">
+        <v>0.97260000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="3:56" ht="15.75" thickBot="1">
       <c r="C25" s="32" t="s">
         <v>52</v>
       </c>
@@ -3412,8 +4328,38 @@
       <c r="H25" s="33">
         <v>0.97519999999999996</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA25" s="48">
+        <v>21</v>
+      </c>
+      <c r="AB25" s="48">
+        <v>0.6946</v>
+      </c>
+      <c r="AC25" s="48">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="AD25" s="48">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="AE25" s="49">
+        <v>0.74709999999999999</v>
+      </c>
+      <c r="AZ25" s="48">
+        <v>21</v>
+      </c>
+      <c r="BA25" s="48">
+        <v>0.12</v>
+      </c>
+      <c r="BB25" s="48">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="BC25" s="48">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="BD25" s="49">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="3:56" ht="15.75" thickBot="1">
       <c r="C26" s="32" t="s">
         <v>53</v>
       </c>
@@ -3432,8 +4378,38 @@
       <c r="H26" s="33">
         <v>0.97650000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA26" s="48">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="48">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="AC26" s="48">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="AD26" s="48">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AE26" s="49">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="AZ26" s="48">
+        <v>22</v>
+      </c>
+      <c r="BA26" s="48">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="BB26" s="48">
+        <v>0.95950000000000002</v>
+      </c>
+      <c r="BC26" s="48">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="BD26" s="49">
+        <v>0.97650000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="3:56" ht="15.75" thickBot="1">
       <c r="C27" s="32" t="s">
         <v>54</v>
       </c>
@@ -3452,8 +4428,38 @@
       <c r="H27" s="33">
         <v>0.9778</v>
       </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA27" s="48">
+        <v>23</v>
+      </c>
+      <c r="AB27" s="48">
+        <v>0.69410000000000005</v>
+      </c>
+      <c r="AC27" s="48">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="AD27" s="48">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="AE27" s="49">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="AZ27" s="48">
+        <v>23</v>
+      </c>
+      <c r="BA27" s="48">
+        <v>0.1149</v>
+      </c>
+      <c r="BB27" s="48">
+        <v>0.9637</v>
+      </c>
+      <c r="BC27" s="48">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="BD27" s="49">
+        <v>0.97909999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="3:56" ht="15.75" thickBot="1">
       <c r="C28" s="32" t="s">
         <v>55</v>
       </c>
@@ -3472,8 +4478,38 @@
       <c r="H28" s="33">
         <v>0.98040000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA28" s="48">
+        <v>24</v>
+      </c>
+      <c r="AB28" s="48">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="AC28" s="48">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="AD28" s="48">
+        <v>0.6673</v>
+      </c>
+      <c r="AE28" s="49">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AZ28" s="48">
+        <v>24</v>
+      </c>
+      <c r="BA28" s="48">
+        <v>0.115</v>
+      </c>
+      <c r="BB28" s="48">
+        <v>0.95850000000000002</v>
+      </c>
+      <c r="BC28" s="48">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="BD28" s="49">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="29" spans="3:56" ht="15.75" thickBot="1">
       <c r="C29" s="32" t="s">
         <v>56</v>
       </c>
@@ -3492,8 +4528,38 @@
       <c r="H29" s="33">
         <v>0.98040000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA29" s="48">
+        <v>25</v>
+      </c>
+      <c r="AB29" s="48">
+        <v>0.69679999999999997</v>
+      </c>
+      <c r="AC29" s="48">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AD29" s="48">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="AE29" s="49">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="AZ29" s="48">
+        <v>25</v>
+      </c>
+      <c r="BA29" s="48">
+        <v>0.1096</v>
+      </c>
+      <c r="BB29" s="48">
+        <v>0.96009999999999995</v>
+      </c>
+      <c r="BC29" s="48">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="BD29" s="49">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="30" spans="3:56" ht="15.75" thickBot="1">
       <c r="C30" s="32" t="s">
         <v>57</v>
       </c>
@@ -3512,8 +4578,38 @@
       <c r="H30" s="33">
         <v>0.98170000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA30" s="48">
+        <v>26</v>
+      </c>
+      <c r="AB30" s="48">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="AC30" s="48">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="AD30" s="48">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="AE30" s="49">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="AZ30" s="48">
+        <v>26</v>
+      </c>
+      <c r="BA30" s="48">
+        <v>0.1072</v>
+      </c>
+      <c r="BB30" s="48">
+        <v>0.96640000000000004</v>
+      </c>
+      <c r="BC30" s="48">
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="BD30" s="49">
+        <v>0.97909999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="3:56" ht="15.75" thickBot="1">
       <c r="C31" s="32" t="s">
         <v>58</v>
       </c>
@@ -3532,8 +4628,38 @@
       <c r="H31" s="33">
         <v>0.98040000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA31" s="48">
+        <v>27</v>
+      </c>
+      <c r="AB31" s="48">
+        <v>0.68989999999999996</v>
+      </c>
+      <c r="AC31" s="48">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="AD31" s="48">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="AE31" s="49">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="AZ31" s="48">
+        <v>27</v>
+      </c>
+      <c r="BA31" s="48">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="BB31" s="48">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="BC31" s="48">
+        <v>7.0599999999999996E-2</v>
+      </c>
+      <c r="BD31" s="49">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="32" spans="3:56" ht="15.75" thickBot="1">
       <c r="C32" s="32" t="s">
         <v>59</v>
       </c>
@@ -3552,8 +4678,38 @@
       <c r="H32" s="33">
         <v>0.98040000000000005</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA32" s="48">
+        <v>28</v>
+      </c>
+      <c r="AB32" s="48">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="AC32" s="48">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AD32" s="48">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="AE32" s="49">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AZ32" s="48">
+        <v>28</v>
+      </c>
+      <c r="BA32" s="48">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="BB32" s="48">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="BC32" s="48">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="BD32" s="49">
+        <v>0.98170000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="3:56" ht="15.75" thickBot="1">
       <c r="C33" s="32" t="s">
         <v>60</v>
       </c>
@@ -3572,8 +4728,38 @@
       <c r="H33" s="33">
         <v>0.98170000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA33" s="48">
+        <v>29</v>
+      </c>
+      <c r="AB33" s="48">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="AC33" s="48">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="AD33" s="48">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AE33" s="49">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="AZ33" s="48">
+        <v>29</v>
+      </c>
+      <c r="BA33" s="48">
+        <v>9.7699999999999995E-2</v>
+      </c>
+      <c r="BB33" s="48">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="BC33" s="48">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="BD33" s="49">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="3:56" ht="15.75" thickBot="1">
       <c r="C34" s="32" t="s">
         <v>61</v>
       </c>
@@ -3592,8 +4778,38 @@
       <c r="H34" s="33">
         <v>0.98170000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA34" s="48">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="48">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="AC34" s="48">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="AD34" s="48">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="AE34" s="49">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="AZ34" s="48">
+        <v>30</v>
+      </c>
+      <c r="BA34" s="48">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="BB34" s="48">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="BC34" s="48">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="BD34" s="49">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="35" spans="3:56" ht="15.75" thickBot="1">
       <c r="C35" s="32" t="s">
         <v>62</v>
       </c>
@@ -3612,8 +4828,38 @@
       <c r="H35" s="33">
         <v>0.98040000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA35" s="48">
+        <v>31</v>
+      </c>
+      <c r="AB35" s="48">
+        <v>0.6835</v>
+      </c>
+      <c r="AC35" s="48">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="AD35" s="48">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="AE35" s="49">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AZ35" s="48">
+        <v>31</v>
+      </c>
+      <c r="BA35" s="48">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="BB35" s="48">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="BC35" s="48">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="BD35" s="49">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="3:56" ht="15.75" thickBot="1">
       <c r="C36" s="32" t="s">
         <v>63</v>
       </c>
@@ -3632,8 +4878,38 @@
       <c r="H36" s="33">
         <v>0.98309999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA36" s="48">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="48">
+        <v>0.6845</v>
+      </c>
+      <c r="AC36" s="48">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AD36" s="48">
+        <v>0.6603</v>
+      </c>
+      <c r="AE36" s="49">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="AZ36" s="48">
+        <v>32</v>
+      </c>
+      <c r="BA36" s="48">
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="BB36" s="48">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="BC36" s="48">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="BD36" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="3:56" ht="15.75" thickBot="1">
       <c r="C37" s="32" t="s">
         <v>64</v>
       </c>
@@ -3652,8 +4928,38 @@
       <c r="H37" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA37" s="48">
+        <v>33</v>
+      </c>
+      <c r="AB37" s="48">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="AC37" s="48">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="AD37" s="48">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="AE37" s="49">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="AZ37" s="48">
+        <v>33</v>
+      </c>
+      <c r="BA37" s="48">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="BB37" s="48">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="BC37" s="48">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="BD37" s="49">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="3:56" ht="15.75" thickBot="1">
       <c r="C38" s="32" t="s">
         <v>65</v>
       </c>
@@ -3672,8 +4978,38 @@
       <c r="H38" s="33">
         <v>0.98170000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA38" s="48">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="48">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="AC38" s="48">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="AD38" s="48">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AE38" s="49">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AZ38" s="48">
+        <v>34</v>
+      </c>
+      <c r="BA38" s="48">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="BB38" s="48">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="BC38" s="48">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="BD38" s="49">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="3:56" ht="15.75" thickBot="1">
       <c r="C39" s="32" t="s">
         <v>66</v>
       </c>
@@ -3692,8 +5028,38 @@
       <c r="H39" s="33">
         <v>0.98170000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA39" s="48">
+        <v>35</v>
+      </c>
+      <c r="AB39" s="48">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="AC39" s="48">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="AD39" s="48">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="AE39" s="49">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="AZ39" s="48">
+        <v>35</v>
+      </c>
+      <c r="BA39" s="48">
+        <v>8.77E-2</v>
+      </c>
+      <c r="BB39" s="48">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="BC39" s="48">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="BD39" s="49">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="3:56" ht="15.75" thickBot="1">
       <c r="C40" s="32" t="s">
         <v>67</v>
       </c>
@@ -3712,8 +5078,38 @@
       <c r="H40" s="33">
         <v>0.98309999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA40" s="48">
+        <v>36</v>
+      </c>
+      <c r="AB40" s="48">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="AC40" s="48">
+        <v>0.59509999999999996</v>
+      </c>
+      <c r="AD40" s="48">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="AE40" s="49">
+        <v>0.7823</v>
+      </c>
+      <c r="AZ40" s="48">
+        <v>36</v>
+      </c>
+      <c r="BA40" s="48">
+        <v>9.01E-2</v>
+      </c>
+      <c r="BB40" s="48">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="BC40" s="48">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="BD40" s="49">
+        <v>0.98309999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:56" ht="15.75" thickBot="1">
       <c r="C41" s="32" t="s">
         <v>68</v>
       </c>
@@ -3732,8 +5128,38 @@
       <c r="H41" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA41" s="48">
+        <v>37</v>
+      </c>
+      <c r="AB41" s="48">
+        <v>0.67920000000000003</v>
+      </c>
+      <c r="AC41" s="48">
+        <v>0.6028</v>
+      </c>
+      <c r="AD41" s="48">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="AE41" s="49">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="AZ41" s="48">
+        <v>37</v>
+      </c>
+      <c r="BA41" s="48">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="BB41" s="48">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="BC41" s="48">
+        <v>5.1200000000000002E-2</v>
+      </c>
+      <c r="BD41" s="49">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="3:56" ht="15.75" thickBot="1">
       <c r="C42" s="32" t="s">
         <v>69</v>
       </c>
@@ -3752,8 +5178,38 @@
       <c r="H42" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA42" s="48">
+        <v>38</v>
+      </c>
+      <c r="AB42" s="48">
+        <v>0.6794</v>
+      </c>
+      <c r="AC42" s="48">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="AD42" s="48">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="AE42" s="49">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="AZ42" s="48">
+        <v>38</v>
+      </c>
+      <c r="BA42" s="48">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="BB42" s="48">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="BC42" s="48">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="BD42" s="49">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="3:56" ht="15.75" thickBot="1">
       <c r="C43" s="32" t="s">
         <v>70</v>
       </c>
@@ -3772,8 +5228,38 @@
       <c r="H43" s="33">
         <v>0.98440000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA43" s="48">
+        <v>39</v>
+      </c>
+      <c r="AB43" s="48">
+        <v>0.68169999999999997</v>
+      </c>
+      <c r="AC43" s="48">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="AD43" s="48">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="AE43" s="49">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="AZ43" s="48">
+        <v>39</v>
+      </c>
+      <c r="BA43" s="48">
+        <v>8.5300000000000001E-2</v>
+      </c>
+      <c r="BB43" s="48">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="BC43" s="48">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="BD43" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:56" ht="15.75" thickBot="1">
       <c r="C44" s="32" t="s">
         <v>71</v>
       </c>
@@ -3792,8 +5278,38 @@
       <c r="H44" s="33">
         <v>0.98440000000000005</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA44" s="48">
+        <v>40</v>
+      </c>
+      <c r="AB44" s="48">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="AC44" s="48">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="AD44" s="48">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="AE44" s="49">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="AZ44" s="48">
+        <v>40</v>
+      </c>
+      <c r="BA44" s="48">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="BB44" s="48">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="BC44" s="48">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="BD44" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="3:56" ht="15.75" thickBot="1">
       <c r="C45" s="32" t="s">
         <v>72</v>
       </c>
@@ -3812,8 +5328,38 @@
       <c r="H45" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA45" s="48">
+        <v>41</v>
+      </c>
+      <c r="AB45" s="48">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="AC45" s="48">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="AD45" s="48">
+        <v>0.6522</v>
+      </c>
+      <c r="AE45" s="49">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="AZ45" s="48">
+        <v>41</v>
+      </c>
+      <c r="BA45" s="48">
+        <v>8.3900000000000002E-2</v>
+      </c>
+      <c r="BB45" s="48">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="BC45" s="48">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="BD45" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="3:56" ht="15.75" thickBot="1">
       <c r="C46" s="32" t="s">
         <v>73</v>
       </c>
@@ -3832,8 +5378,38 @@
       <c r="H46" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA46" s="48">
+        <v>42</v>
+      </c>
+      <c r="AB46" s="48">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="AC46" s="48">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="AD46" s="48">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="AE46" s="49">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="AZ46" s="48">
+        <v>42</v>
+      </c>
+      <c r="BA46" s="48">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="BB46" s="48">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="BC46" s="48">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="BD46" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:56" ht="15.75" thickBot="1">
       <c r="C47" s="32" t="s">
         <v>74</v>
       </c>
@@ -3852,8 +5428,38 @@
       <c r="H47" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA47" s="48">
+        <v>43</v>
+      </c>
+      <c r="AB47" s="48">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="AC47" s="48">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="AD47" s="48">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="AE47" s="49">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AZ47" s="48">
+        <v>43</v>
+      </c>
+      <c r="BA47" s="48">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="BB47" s="48">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="BC47" s="48">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="BD47" s="49">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="3:56" ht="15.75" thickBot="1">
       <c r="C48" s="32" t="s">
         <v>75</v>
       </c>
@@ -3872,8 +5478,38 @@
       <c r="H48" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA48" s="48">
+        <v>44</v>
+      </c>
+      <c r="AB48" s="48">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="AC48" s="48">
+        <v>0.6119</v>
+      </c>
+      <c r="AD48" s="48">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="AE48" s="49">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AZ48" s="48">
+        <v>44</v>
+      </c>
+      <c r="BA48" s="48">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="BB48" s="48">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="BC48" s="48">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="BD48" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="3:56" ht="15.75" thickBot="1">
       <c r="C49" s="32" t="s">
         <v>76</v>
       </c>
@@ -3892,8 +5528,38 @@
       <c r="H49" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA49" s="48">
+        <v>45</v>
+      </c>
+      <c r="AB49" s="48">
+        <v>0.67620000000000002</v>
+      </c>
+      <c r="AC49" s="48">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="AD49" s="48">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="AE49" s="49">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AZ49" s="48">
+        <v>45</v>
+      </c>
+      <c r="BA49" s="48">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="BB49" s="48">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="BC49" s="48">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="BD49" s="49">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="3:56" ht="15.75" thickBot="1">
       <c r="C50" s="32" t="s">
         <v>77</v>
       </c>
@@ -3912,8 +5578,38 @@
       <c r="H50" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA50" s="48">
+        <v>46</v>
+      </c>
+      <c r="AB50" s="48">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="AC50" s="48">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="AD50" s="48">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AE50" s="49">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AZ50" s="48">
+        <v>46</v>
+      </c>
+      <c r="BA50" s="48">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="BB50" s="48">
+        <v>0.97750000000000004</v>
+      </c>
+      <c r="BC50" s="48">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="BD50" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:56" ht="15.75" thickBot="1">
       <c r="C51" s="32" t="s">
         <v>78</v>
       </c>
@@ -3932,8 +5628,38 @@
       <c r="H51" s="33">
         <v>0.98570000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA51" s="48">
+        <v>47</v>
+      </c>
+      <c r="AB51" s="48">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="AC51" s="48">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="AD51" s="48">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="AE51" s="49">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AZ51" s="48">
+        <v>47</v>
+      </c>
+      <c r="BA51" s="48">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="BB51" s="48">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="BC51" s="48">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="BD51" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="3:56" ht="15.75" thickBot="1">
       <c r="C52" s="32" t="s">
         <v>79</v>
       </c>
@@ -3952,8 +5678,38 @@
       <c r="H52" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA52" s="48">
+        <v>48</v>
+      </c>
+      <c r="AB52" s="48">
+        <v>0.67410000000000003</v>
+      </c>
+      <c r="AC52" s="48">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="AD52" s="48">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="AE52" s="49">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AZ52" s="48">
+        <v>48</v>
+      </c>
+      <c r="BA52" s="48">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="BB52" s="48">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="BC52" s="48">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="BD52" s="49">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="3:56" ht="15.75" thickBot="1">
       <c r="C53" s="32" t="s">
         <v>80</v>
       </c>
@@ -3972,8 +5728,38 @@
       <c r="H53" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA53" s="48">
+        <v>49</v>
+      </c>
+      <c r="AB53" s="48">
+        <v>0.6754</v>
+      </c>
+      <c r="AC53" s="48">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="AD53" s="48">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="AE53" s="49">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="AZ53" s="48">
+        <v>49</v>
+      </c>
+      <c r="BA53" s="48">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="BB53" s="48">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="BC53" s="48">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="BD53" s="49">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="3:56" ht="15.75" thickBot="1">
       <c r="C54" s="32" t="s">
         <v>81</v>
       </c>
@@ -3992,8 +5778,38 @@
       <c r="H54" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA54" s="48">
+        <v>50</v>
+      </c>
+      <c r="AB54" s="48">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="AC54" s="48">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="AD54" s="48">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="AE54" s="49">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="AZ54" s="48">
+        <v>50</v>
+      </c>
+      <c r="BA54" s="48">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="BB54" s="48">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="BC54" s="48">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="BD54" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="3:56" ht="15.75" thickBot="1">
       <c r="C55" s="32" t="s">
         <v>82</v>
       </c>
@@ -4012,8 +5828,38 @@
       <c r="H55" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="56" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA55" s="48">
+        <v>51</v>
+      </c>
+      <c r="AB55" s="48">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="AC55" s="48">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="AD55" s="48">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="AE55" s="49">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AZ55" s="48">
+        <v>51</v>
+      </c>
+      <c r="BA55" s="48">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="BB55" s="48">
+        <v>0.97419999999999995</v>
+      </c>
+      <c r="BC55" s="48">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="BD55" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="3:56" ht="15.75" thickBot="1">
       <c r="C56" s="32" t="s">
         <v>83</v>
       </c>
@@ -4032,8 +5878,38 @@
       <c r="H56" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="57" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA56" s="48">
+        <v>52</v>
+      </c>
+      <c r="AB56" s="48">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="AC56" s="48">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="AD56" s="48">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="AE56" s="49">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AZ56" s="48">
+        <v>52</v>
+      </c>
+      <c r="BA56" s="48">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="BB56" s="48">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="BC56" s="48">
+        <v>3.95E-2</v>
+      </c>
+      <c r="BD56" s="49">
+        <v>0.98570000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="3:56" ht="15.75" thickBot="1">
       <c r="C57" s="32" t="s">
         <v>84</v>
       </c>
@@ -4052,8 +5928,38 @@
       <c r="H57" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA57" s="48">
+        <v>53</v>
+      </c>
+      <c r="AB57" s="48">
+        <v>0.66639999999999999</v>
+      </c>
+      <c r="AC57" s="48">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="AD57" s="48">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="AE57" s="49">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AZ57" s="48">
+        <v>53</v>
+      </c>
+      <c r="BA57" s="48">
+        <v>6.93E-2</v>
+      </c>
+      <c r="BB57" s="48">
+        <v>0.97650000000000003</v>
+      </c>
+      <c r="BC57" s="48">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="BD57" s="49">
+        <v>0.98829999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="3:56" ht="15.75" thickBot="1">
       <c r="C58" s="32" t="s">
         <v>85</v>
       </c>
@@ -4072,8 +5978,38 @@
       <c r="H58" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA58" s="48">
+        <v>54</v>
+      </c>
+      <c r="AB58" s="48">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="AC58" s="48">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="AD58" s="48">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="AE58" s="49">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AZ58" s="48">
+        <v>54</v>
+      </c>
+      <c r="BA58" s="48">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="BB58" s="48">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="BC58" s="48">
+        <v>4.07E-2</v>
+      </c>
+      <c r="BD58" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="3:56" ht="15.75" thickBot="1">
       <c r="C59" s="32" t="s">
         <v>86</v>
       </c>
@@ -4092,8 +6028,38 @@
       <c r="H59" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="60" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA59" s="48">
+        <v>55</v>
+      </c>
+      <c r="AB59" s="48">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="AC59" s="48">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AD59" s="48">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="AE59" s="49">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AZ59" s="48">
+        <v>55</v>
+      </c>
+      <c r="BA59" s="48">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="BB59" s="48">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="BC59" s="48">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="BD59" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="3:56" ht="15.75" thickBot="1">
       <c r="C60" s="32" t="s">
         <v>87</v>
       </c>
@@ -4112,8 +6078,38 @@
       <c r="H60" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="61" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA60" s="48">
+        <v>56</v>
+      </c>
+      <c r="AB60" s="48">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AC60" s="48">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="AD60" s="48">
+        <v>0.64</v>
+      </c>
+      <c r="AE60" s="49">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AZ60" s="48">
+        <v>56</v>
+      </c>
+      <c r="BA60" s="48">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="BB60" s="48">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="BC60" s="48">
+        <v>3.95E-2</v>
+      </c>
+      <c r="BD60" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="3:56" ht="15.75" thickBot="1">
       <c r="C61" s="32" t="s">
         <v>88</v>
       </c>
@@ -4132,8 +6128,38 @@
       <c r="H61" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA61" s="48">
+        <v>57</v>
+      </c>
+      <c r="AB61" s="48">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AC61" s="48">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AD61" s="48">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="AE61" s="49">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="AZ61" s="48">
+        <v>57</v>
+      </c>
+      <c r="BA61" s="48">
+        <v>6.88E-2</v>
+      </c>
+      <c r="BB61" s="48">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="BC61" s="48">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="BD61" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="62" spans="3:56" ht="15.75" thickBot="1">
       <c r="C62" s="32" t="s">
         <v>89</v>
       </c>
@@ -4152,8 +6178,38 @@
       <c r="H62" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA62" s="48">
+        <v>58</v>
+      </c>
+      <c r="AB62" s="48">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="AC62" s="48">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="AD62" s="48">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="AE62" s="49">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="AZ62" s="48">
+        <v>58</v>
+      </c>
+      <c r="BA62" s="48">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="BB62" s="48">
+        <v>0.97719999999999996</v>
+      </c>
+      <c r="BC62" s="48">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="BD62" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="3:56" ht="15.75" thickBot="1">
       <c r="C63" s="32" t="s">
         <v>90</v>
       </c>
@@ -4172,8 +6228,38 @@
       <c r="H63" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="64" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA63" s="48">
+        <v>59</v>
+      </c>
+      <c r="AB63" s="48">
+        <v>0.66069999999999995</v>
+      </c>
+      <c r="AC63" s="48">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="AD63" s="48">
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="AE63" s="49">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AZ63" s="48">
+        <v>59</v>
+      </c>
+      <c r="BA63" s="48">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="BB63" s="48">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="BC63" s="48">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="BD63" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="64" spans="3:56" ht="15.75" thickBot="1">
       <c r="C64" s="32" t="s">
         <v>91</v>
       </c>
@@ -4192,8 +6278,38 @@
       <c r="H64" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA64" s="48">
+        <v>60</v>
+      </c>
+      <c r="AB64" s="48">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="AC64" s="48">
+        <v>0.6371</v>
+      </c>
+      <c r="AD64" s="48">
+        <v>0.6371</v>
+      </c>
+      <c r="AE64" s="49">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AZ64" s="48">
+        <v>60</v>
+      </c>
+      <c r="BA64" s="48">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="BB64" s="48">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="BC64" s="48">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="BD64" s="49">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="3:56" ht="15.75" thickBot="1">
       <c r="C65" s="32" t="s">
         <v>92</v>
       </c>
@@ -4212,8 +6328,38 @@
       <c r="H65" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="66" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA65" s="48">
+        <v>61</v>
+      </c>
+      <c r="AB65" s="48">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="AC65" s="48">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="AD65" s="48">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AE65" s="49">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AZ65" s="48">
+        <v>61</v>
+      </c>
+      <c r="BA65" s="48">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="BB65" s="48">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="BC65" s="48">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="BD65" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="66" spans="3:56" ht="15.75" thickBot="1">
       <c r="C66" s="32" t="s">
         <v>93</v>
       </c>
@@ -4232,8 +6378,38 @@
       <c r="H66" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA66" s="48">
+        <v>62</v>
+      </c>
+      <c r="AB66" s="48">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="AC66" s="48">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="AD66" s="48">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AE66" s="49">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AZ66" s="48">
+        <v>62</v>
+      </c>
+      <c r="BA66" s="48">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="BB66" s="48">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="BC66" s="48">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="BD66" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="67" spans="3:56" ht="15.75" thickBot="1">
       <c r="C67" s="32" t="s">
         <v>94</v>
       </c>
@@ -4252,8 +6428,38 @@
       <c r="H67" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="68" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA67" s="48">
+        <v>63</v>
+      </c>
+      <c r="AB67" s="48">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="AC67" s="48">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="AD67" s="48">
+        <v>0.6351</v>
+      </c>
+      <c r="AE67" s="49">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="AZ67" s="48">
+        <v>63</v>
+      </c>
+      <c r="BA67" s="48">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="BB67" s="48">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="BC67" s="48">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="BD67" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="68" spans="3:56" ht="15.75" thickBot="1">
       <c r="C68" s="32" t="s">
         <v>95</v>
       </c>
@@ -4272,8 +6478,38 @@
       <c r="H68" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="69" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA68" s="48">
+        <v>64</v>
+      </c>
+      <c r="AB68" s="48">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="AC68" s="48">
+        <v>0.6421</v>
+      </c>
+      <c r="AD68" s="48">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="AE68" s="49">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="AZ68" s="48">
+        <v>64</v>
+      </c>
+      <c r="BA68" s="48">
+        <v>6.4799999999999996E-2</v>
+      </c>
+      <c r="BB68" s="48">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="BC68" s="48">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="BD68" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="69" spans="3:56" ht="15.75" thickBot="1">
       <c r="C69" s="32" t="s">
         <v>96</v>
       </c>
@@ -4292,8 +6528,38 @@
       <c r="H69" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="70" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA69" s="48">
+        <v>65</v>
+      </c>
+      <c r="AB69" s="48">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="AC69" s="48">
+        <v>0.6421</v>
+      </c>
+      <c r="AD69" s="48">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="AE69" s="49">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AZ69" s="48">
+        <v>65</v>
+      </c>
+      <c r="BA69" s="48">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="BB69" s="48">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="BC69" s="48">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="BD69" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="70" spans="3:56" ht="15.75" thickBot="1">
       <c r="C70" s="32" t="s">
         <v>97</v>
       </c>
@@ -4312,8 +6578,38 @@
       <c r="H70" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="71" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA70" s="48">
+        <v>66</v>
+      </c>
+      <c r="AB70" s="48">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="AC70" s="48">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="AD70" s="48">
+        <v>0.6331</v>
+      </c>
+      <c r="AE70" s="49">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AZ70" s="48">
+        <v>66</v>
+      </c>
+      <c r="BA70" s="48">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="BB70" s="48">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="BC70" s="48">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="BD70" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="71" spans="3:56" ht="15.75" thickBot="1">
       <c r="C71" s="32" t="s">
         <v>98</v>
       </c>
@@ -4332,8 +6628,38 @@
       <c r="H71" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="72" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA71" s="48">
+        <v>67</v>
+      </c>
+      <c r="AB71" s="48">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="AC71" s="48">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="AD71" s="48">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="AE71" s="49">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AZ71" s="48">
+        <v>67</v>
+      </c>
+      <c r="BA71" s="48">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="BB71" s="48">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="BC71" s="48">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="BD71" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="72" spans="3:56" ht="15.75" thickBot="1">
       <c r="C72" s="32" t="s">
         <v>99</v>
       </c>
@@ -4352,8 +6678,38 @@
       <c r="H72" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="73" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA72" s="48">
+        <v>68</v>
+      </c>
+      <c r="AB72" s="48">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="AC72" s="48">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="AD72" s="48">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="AE72" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ72" s="48">
+        <v>68</v>
+      </c>
+      <c r="BA72" s="48">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="BB72" s="48">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="BC72" s="48">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="BD72" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="73" spans="3:56" ht="15.75" thickBot="1">
       <c r="C73" s="32" t="s">
         <v>100</v>
       </c>
@@ -4372,8 +6728,38 @@
       <c r="H73" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="74" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA73" s="48">
+        <v>69</v>
+      </c>
+      <c r="AB73" s="48">
+        <v>0.65490000000000004</v>
+      </c>
+      <c r="AC73" s="48">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="AD73" s="48">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="AE73" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ73" s="48">
+        <v>69</v>
+      </c>
+      <c r="BA73" s="48">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="BB73" s="48">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="BC73" s="48">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="BD73" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="74" spans="3:56" ht="15.75" thickBot="1">
       <c r="C74" s="32" t="s">
         <v>101</v>
       </c>
@@ -4392,8 +6778,38 @@
       <c r="H74" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="75" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA74" s="48">
+        <v>70</v>
+      </c>
+      <c r="AB74" s="48">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="AC74" s="48">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="AD74" s="48">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="AE74" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ74" s="48">
+        <v>70</v>
+      </c>
+      <c r="BA74" s="48">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="BB74" s="48">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="BC74" s="48">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="BD74" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="75" spans="3:56" ht="15.75" thickBot="1">
       <c r="C75" s="32" t="s">
         <v>102</v>
       </c>
@@ -4412,8 +6828,38 @@
       <c r="H75" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA75" s="48">
+        <v>71</v>
+      </c>
+      <c r="AB75" s="48">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="AC75" s="48">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="AD75" s="48">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="AE75" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ75" s="48">
+        <v>71</v>
+      </c>
+      <c r="BA75" s="48">
+        <v>5.96E-2</v>
+      </c>
+      <c r="BB75" s="48">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="BC75" s="48">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="BD75" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="76" spans="3:56" ht="15.75" thickBot="1">
       <c r="C76" s="32" t="s">
         <v>103</v>
       </c>
@@ -4432,8 +6878,38 @@
       <c r="H76" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="77" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA76" s="48">
+        <v>72</v>
+      </c>
+      <c r="AB76" s="48">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="AC76" s="48">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="AD76" s="48">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="AE76" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ76" s="48">
+        <v>72</v>
+      </c>
+      <c r="BA76" s="48">
+        <v>5.91E-2</v>
+      </c>
+      <c r="BB76" s="48">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="BC76" s="48">
+        <v>3.32E-2</v>
+      </c>
+      <c r="BD76" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="77" spans="3:56" ht="15.75" thickBot="1">
       <c r="C77" s="32" t="s">
         <v>104</v>
       </c>
@@ -4452,8 +6928,38 @@
       <c r="H77" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="78" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA77" s="48">
+        <v>73</v>
+      </c>
+      <c r="AB77" s="48">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="AC77" s="48">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="AD77" s="48">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="AE77" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ77" s="48">
+        <v>73</v>
+      </c>
+      <c r="BA77" s="48">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="BB77" s="48">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="BC77" s="48">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="BD77" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="78" spans="3:56" ht="15.75" thickBot="1">
       <c r="C78" s="32" t="s">
         <v>105</v>
       </c>
@@ -4472,8 +6978,38 @@
       <c r="H78" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA78" s="48">
+        <v>74</v>
+      </c>
+      <c r="AB78" s="48">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="AC78" s="48">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AD78" s="48">
+        <v>0.628</v>
+      </c>
+      <c r="AE78" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ78" s="48">
+        <v>74</v>
+      </c>
+      <c r="BA78" s="48">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="BB78" s="48">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="BC78" s="48">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="BD78" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="79" spans="3:56" ht="15.75" thickBot="1">
       <c r="C79" s="32" t="s">
         <v>106</v>
       </c>
@@ -4492,8 +7028,38 @@
       <c r="H79" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA79" s="48">
+        <v>75</v>
+      </c>
+      <c r="AB79" s="48">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="AC79" s="48">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="AD79" s="48">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="AE79" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ79" s="48">
+        <v>75</v>
+      </c>
+      <c r="BA79" s="48">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="BB79" s="48">
+        <v>0.9819</v>
+      </c>
+      <c r="BC79" s="48">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="BD79" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="80" spans="3:56" ht="15.75" thickBot="1">
       <c r="C80" s="32" t="s">
         <v>107</v>
       </c>
@@ -4512,8 +7078,38 @@
       <c r="H80" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA80" s="48">
+        <v>76</v>
+      </c>
+      <c r="AB80" s="48">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="AC80" s="48">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="AD80" s="48">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="AE80" s="49">
+        <v>0.8085</v>
+      </c>
+      <c r="AZ80" s="48">
+        <v>76</v>
+      </c>
+      <c r="BA80" s="48">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="BB80" s="48">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="BC80" s="48">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="BD80" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="81" spans="3:56" ht="15.75" thickBot="1">
       <c r="C81" s="32" t="s">
         <v>108</v>
       </c>
@@ -4532,8 +7128,38 @@
       <c r="H81" s="33">
         <v>0.98640000000000005</v>
       </c>
-    </row>
-    <row r="82" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA81" s="48">
+        <v>77</v>
+      </c>
+      <c r="AB81" s="48">
+        <v>0.64780000000000004</v>
+      </c>
+      <c r="AC81" s="48">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="AD81" s="48">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="AE81" s="49">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AZ81" s="48">
+        <v>77</v>
+      </c>
+      <c r="BA81" s="48">
+        <v>5.67E-2</v>
+      </c>
+      <c r="BB81" s="48">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="BC81" s="48">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="BD81" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="82" spans="3:56" ht="15.75" thickBot="1">
       <c r="C82" s="32" t="s">
         <v>109</v>
       </c>
@@ -4552,8 +7178,38 @@
       <c r="H82" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA82" s="48">
+        <v>78</v>
+      </c>
+      <c r="AB82" s="48">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="AC82" s="48">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="AD82" s="48">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="AE82" s="49">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AZ82" s="48">
+        <v>78</v>
+      </c>
+      <c r="BA82" s="48">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="BB82" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC82" s="48">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="BD82" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="83" spans="3:56" ht="15.75" thickBot="1">
       <c r="C83" s="32" t="s">
         <v>110</v>
       </c>
@@ -4572,8 +7228,38 @@
       <c r="H83" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="84" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA83" s="48">
+        <v>79</v>
+      </c>
+      <c r="AB83" s="48">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="AC83" s="48">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="AD83" s="48">
+        <v>0.625</v>
+      </c>
+      <c r="AE83" s="49">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AZ83" s="48">
+        <v>79</v>
+      </c>
+      <c r="BA83" s="48">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="BB83" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC83" s="48">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="BD83" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="84" spans="3:56" ht="15.75" thickBot="1">
       <c r="C84" s="32" t="s">
         <v>111</v>
       </c>
@@ -4592,8 +7278,38 @@
       <c r="H84" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="85" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA84" s="48">
+        <v>80</v>
+      </c>
+      <c r="AB84" s="48">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="AC84" s="48">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="AD84" s="48">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="AE84" s="49">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AZ84" s="48">
+        <v>80</v>
+      </c>
+      <c r="BA84" s="48">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="BB84" s="48">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="BC84" s="48">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="BD84" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="85" spans="3:56" ht="15.75" thickBot="1">
       <c r="C85" s="32" t="s">
         <v>112</v>
       </c>
@@ -4612,8 +7328,38 @@
       <c r="H85" s="33">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="86" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA85" s="48">
+        <v>81</v>
+      </c>
+      <c r="AB85" s="48">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="AC85" s="48">
+        <v>0.6522</v>
+      </c>
+      <c r="AD85" s="48">
+        <v>0.62380000000000002</v>
+      </c>
+      <c r="AE85" s="49">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AZ85" s="48">
+        <v>81</v>
+      </c>
+      <c r="BA85" s="48">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="BB85" s="48">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="BC85" s="48">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="BD85" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="86" spans="3:56" ht="15.75" thickBot="1">
       <c r="C86" s="32" t="s">
         <v>113</v>
       </c>
@@ -4632,8 +7378,38 @@
       <c r="H86" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA86" s="48">
+        <v>82</v>
+      </c>
+      <c r="AB86" s="48">
+        <v>0.6482</v>
+      </c>
+      <c r="AC86" s="48">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AD86" s="48">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AE86" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ86" s="48">
+        <v>82</v>
+      </c>
+      <c r="BA86" s="48">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="BB86" s="48">
+        <v>0.9819</v>
+      </c>
+      <c r="BC86" s="48">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="BD86" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="87" spans="3:56" ht="15.75" thickBot="1">
       <c r="C87" s="32" t="s">
         <v>114</v>
       </c>
@@ -4652,8 +7428,38 @@
       <c r="H87" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="88" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA87" s="48">
+        <v>83</v>
+      </c>
+      <c r="AB87" s="48">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="AC87" s="48">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="AD87" s="48">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="AE87" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ87" s="48">
+        <v>83</v>
+      </c>
+      <c r="BA87" s="48">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="BB87" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC87" s="48">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="BD87" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="88" spans="3:56" ht="15.75" thickBot="1">
       <c r="C88" s="32" t="s">
         <v>115</v>
       </c>
@@ -4672,8 +7478,38 @@
       <c r="H88" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA88" s="48">
+        <v>84</v>
+      </c>
+      <c r="AB88" s="48">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="AC88" s="48">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="AD88" s="48">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="AE88" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ88" s="48">
+        <v>84</v>
+      </c>
+      <c r="BA88" s="48">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="BB88" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC88" s="48">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="BD88" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="89" spans="3:56" ht="15.75" thickBot="1">
       <c r="C89" s="32" t="s">
         <v>116</v>
       </c>
@@ -4692,8 +7528,38 @@
       <c r="H89" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="90" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA89" s="48">
+        <v>85</v>
+      </c>
+      <c r="AB89" s="48">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="AC89" s="48">
+        <v>0.6573</v>
+      </c>
+      <c r="AD89" s="48">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="AE89" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ89" s="48">
+        <v>85</v>
+      </c>
+      <c r="BA89" s="48">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="BB89" s="48">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="BC89" s="48">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="BD89" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="90" spans="3:56" ht="15.75" thickBot="1">
       <c r="C90" s="32" t="s">
         <v>117</v>
       </c>
@@ -4712,8 +7578,38 @@
       <c r="H90" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA90" s="48">
+        <v>86</v>
+      </c>
+      <c r="AB90" s="48">
+        <v>0.64229999999999998</v>
+      </c>
+      <c r="AC90" s="48">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="AD90" s="48">
+        <v>0.621</v>
+      </c>
+      <c r="AE90" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ90" s="48">
+        <v>86</v>
+      </c>
+      <c r="BA90" s="48">
+        <v>5.5599999999999997E-2</v>
+      </c>
+      <c r="BB90" s="48">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="BC90" s="48">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="BD90" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="91" spans="3:56" ht="15.75" thickBot="1">
       <c r="C91" s="32" t="s">
         <v>118</v>
       </c>
@@ -4732,8 +7628,38 @@
       <c r="H91" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="92" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA91" s="48">
+        <v>87</v>
+      </c>
+      <c r="AB91" s="48">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="AC91" s="48">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AD91" s="48">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="AE91" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ91" s="48">
+        <v>87</v>
+      </c>
+      <c r="BA91" s="48">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="BB91" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC91" s="48">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="BD91" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="92" spans="3:56" ht="15.75" thickBot="1">
       <c r="C92" s="32" t="s">
         <v>119</v>
       </c>
@@ -4752,8 +7678,38 @@
       <c r="H92" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="93" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA92" s="48">
+        <v>88</v>
+      </c>
+      <c r="AB92" s="48">
+        <v>0.64370000000000005</v>
+      </c>
+      <c r="AC92" s="48">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="AD92" s="48">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="AE92" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ92" s="48">
+        <v>88</v>
+      </c>
+      <c r="BA92" s="48">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="BB92" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC92" s="48">
+        <v>3.15E-2</v>
+      </c>
+      <c r="BD92" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="93" spans="3:56" ht="15.75" thickBot="1">
       <c r="C93" s="32" t="s">
         <v>120</v>
       </c>
@@ -4772,8 +7728,38 @@
       <c r="H93" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="94" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA93" s="48">
+        <v>89</v>
+      </c>
+      <c r="AB93" s="48">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="AC93" s="48">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="AD93" s="48">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="AE93" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ93" s="48">
+        <v>89</v>
+      </c>
+      <c r="BA93" s="48">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="BB93" s="48">
+        <v>0.9819</v>
+      </c>
+      <c r="BC93" s="48">
+        <v>3.09E-2</v>
+      </c>
+      <c r="BD93" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="94" spans="3:56" ht="15.75" thickBot="1">
       <c r="C94" s="32" t="s">
         <v>121</v>
       </c>
@@ -4792,8 +7778,38 @@
       <c r="H94" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="95" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA94" s="48">
+        <v>90</v>
+      </c>
+      <c r="AB94" s="48">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="AC94" s="48">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="AD94" s="48">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="AE94" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ94" s="48">
+        <v>90</v>
+      </c>
+      <c r="BA94" s="48">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="BB94" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC94" s="48">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="BD94" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="95" spans="3:56" ht="15.75" thickBot="1">
       <c r="C95" s="32" t="s">
         <v>122</v>
       </c>
@@ -4812,8 +7828,38 @@
       <c r="H95" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA95" s="48">
+        <v>91</v>
+      </c>
+      <c r="AB95" s="48">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="AC95" s="48">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="AD95" s="48">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="AE95" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ95" s="48">
+        <v>91</v>
+      </c>
+      <c r="BA95" s="48">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="BB95" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC95" s="48">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="BD95" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="96" spans="3:56" ht="15.75" thickBot="1">
       <c r="C96" s="32" t="s">
         <v>123</v>
       </c>
@@ -4832,8 +7878,38 @@
       <c r="H96" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="97" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA96" s="48">
+        <v>92</v>
+      </c>
+      <c r="AB96" s="48">
+        <v>0.63890000000000002</v>
+      </c>
+      <c r="AC96" s="48">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AD96" s="48">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="AE96" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ96" s="48">
+        <v>92</v>
+      </c>
+      <c r="BA96" s="48">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="BB96" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC96" s="48">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="BD96" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="97" spans="3:56" ht="15.75" thickBot="1">
       <c r="C97" s="32" t="s">
         <v>124</v>
       </c>
@@ -4852,8 +7928,38 @@
       <c r="H97" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA97" s="48">
+        <v>93</v>
+      </c>
+      <c r="AB97" s="48">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AC97" s="48">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="AD97" s="48">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="AE97" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ97" s="48">
+        <v>93</v>
+      </c>
+      <c r="BA97" s="48">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="BB97" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC97" s="48">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="BD97" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="98" spans="3:56" ht="15.75" thickBot="1">
       <c r="C98" s="32" t="s">
         <v>125</v>
       </c>
@@ -4872,8 +7978,38 @@
       <c r="H98" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="99" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA98" s="48">
+        <v>94</v>
+      </c>
+      <c r="AB98" s="48">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AC98" s="48">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AD98" s="48">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="AE98" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ98" s="48">
+        <v>94</v>
+      </c>
+      <c r="BA98" s="48">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="BB98" s="48">
+        <v>0.9819</v>
+      </c>
+      <c r="BC98" s="48">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="BD98" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="99" spans="3:56" ht="15.75" thickBot="1">
       <c r="C99" s="32" t="s">
         <v>126</v>
       </c>
@@ -4892,8 +8028,38 @@
       <c r="H99" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="100" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA99" s="48">
+        <v>95</v>
+      </c>
+      <c r="AB99" s="48">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="AC99" s="48">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="AD99" s="48">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="AE99" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ99" s="48">
+        <v>95</v>
+      </c>
+      <c r="BA99" s="48">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="BB99" s="48">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="BC99" s="48">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="BD99" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="100" spans="3:56" ht="15.75" thickBot="1">
       <c r="C100" s="32" t="s">
         <v>127</v>
       </c>
@@ -4912,8 +8078,38 @@
       <c r="H100" s="33">
         <v>0.98829999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA100" s="48">
+        <v>96</v>
+      </c>
+      <c r="AB100" s="48">
+        <v>0.63839999999999997</v>
+      </c>
+      <c r="AC100" s="48">
+        <v>0.6633</v>
+      </c>
+      <c r="AD100" s="48">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="AE100" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ100" s="48">
+        <v>96</v>
+      </c>
+      <c r="BA100" s="48">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="BB100" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC100" s="48">
+        <v>3.09E-2</v>
+      </c>
+      <c r="BD100" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="101" spans="3:56" ht="15.75" thickBot="1">
       <c r="C101" s="32" t="s">
         <v>128</v>
       </c>
@@ -4932,8 +8128,38 @@
       <c r="H101" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="102" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA101" s="48">
+        <v>97</v>
+      </c>
+      <c r="AB101" s="48">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="AC101" s="48">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="AD101" s="48">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AE101" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ101" s="48">
+        <v>97</v>
+      </c>
+      <c r="BA101" s="48">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="BB101" s="48">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="BC101" s="48">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="BD101" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="102" spans="3:56" ht="15.75" thickBot="1">
       <c r="C102" s="32" t="s">
         <v>129</v>
       </c>
@@ -4952,8 +8178,38 @@
       <c r="H102" s="33">
         <v>0.98770000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="3:8" ht="15.75" thickBot="1">
+      <c r="AA102" s="48">
+        <v>98</v>
+      </c>
+      <c r="AB102" s="48">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="AC102" s="48">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="AD102" s="48">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="AE102" s="49">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AZ102" s="48">
+        <v>98</v>
+      </c>
+      <c r="BA102" s="48">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="BB102" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC102" s="48">
+        <v>3.09E-2</v>
+      </c>
+      <c r="BD102" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="103" spans="3:56" ht="15.75" thickBot="1">
       <c r="C103" s="32" t="s">
         <v>130</v>
       </c>
@@ -4972,10 +8228,73 @@
       <c r="H103" s="33">
         <v>0.98829999999999996</v>
       </c>
+      <c r="AA103" s="48">
+        <v>99</v>
+      </c>
+      <c r="AB103" s="48">
+        <v>0.63670000000000004</v>
+      </c>
+      <c r="AC103" s="48">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="AD103" s="48">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AE103" s="49">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="AZ103" s="48">
+        <v>99</v>
+      </c>
+      <c r="BA103" s="48">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="BB103" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC103" s="48">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="BD103" s="49">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="104" spans="3:56" ht="15.75" thickBot="1">
+      <c r="AA104" s="48">
+        <v>100</v>
+      </c>
+      <c r="AB104" s="48">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AC104" s="48">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="AD104" s="48">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="AE104" s="49">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="AZ104" s="48">
+        <v>100</v>
+      </c>
+      <c r="BA104" s="48">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="BB104" s="48">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="BC104" s="48">
+        <v>3.09E-2</v>
+      </c>
+      <c r="BD104" s="49">
+        <v>0.9909</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5022,44 +8341,44 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="2:22" ht="39" customHeight="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="I3" s="37" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="I3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="O3" s="37" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="O3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
       <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
@@ -10512,23 +13831,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="39" customHeight="1">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="J1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="J1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="Q1" s="37" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="Q1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="2:20" ht="25.5" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -14511,16 +17830,16 @@
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="11"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="11"/>
@@ -14595,16 +17914,16 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="11"/>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="42" t="s">
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="40"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="11"/>

--- a/Hasil Pengujian Data.xlsx
+++ b/Hasil Pengujian Data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C7FB32-C50F-483C-9D11-CACB7343AF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9AA01-32C2-4B6C-B8F7-A97FFD28BB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100 EPHOCS" sheetId="8" r:id="rId1"/>
-    <sheet name="(ADAM) Pengujian Full Dataset" sheetId="1" r:id="rId2"/>
-    <sheet name="(RMSP) FULL DATASET" sheetId="2" r:id="rId3"/>
-    <sheet name="(SGD) FULL DATASET" sheetId="3" r:id="rId4"/>
-    <sheet name="(ADAM) Pengujian HALF Dataset" sheetId="4" r:id="rId5"/>
-    <sheet name="(SGD) HALF DATASET" sheetId="5" r:id="rId6"/>
-    <sheet name="(RMSP) HALF DATASET" sheetId="6" r:id="rId7"/>
-    <sheet name="Hasil  Analisis" sheetId="7" r:id="rId8"/>
+    <sheet name="Lembar1" sheetId="9" r:id="rId2"/>
+    <sheet name="(ADAM) Pengujian Full Dataset" sheetId="1" r:id="rId3"/>
+    <sheet name="(RMSP) FULL DATASET" sheetId="2" r:id="rId4"/>
+    <sheet name="(SGD) FULL DATASET" sheetId="3" r:id="rId5"/>
+    <sheet name="(ADAM) Pengujian HALF Dataset" sheetId="4" r:id="rId6"/>
+    <sheet name="(SGD) HALF DATASET" sheetId="5" r:id="rId7"/>
+    <sheet name="(RMSP) HALF DATASET" sheetId="6" r:id="rId8"/>
+    <sheet name="Hasil  Analisis" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
   <si>
     <t>ADAM OPTIMIZER</t>
   </si>
@@ -437,12 +438,69 @@
   <si>
     <t>RMSP</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Penjelasan</t>
+  </si>
+  <si>
+    <t>rotation_range=20</t>
+  </si>
+  <si>
+    <t>Rentang rotasi dalam derajat untuk memutar gambar.</t>
+  </si>
+  <si>
+    <t>zoom_range=0.15</t>
+  </si>
+  <si>
+    <t>Rentang level zoom-in dan zoom-out pada gambar.</t>
+  </si>
+  <si>
+    <t>width_shift_range=0.2</t>
+  </si>
+  <si>
+    <t>Rentang pergeseran horizontal gambar.</t>
+  </si>
+  <si>
+    <t>height_shift_range=0.2</t>
+  </si>
+  <si>
+    <t>Rentang pergeseran vertikal gambar.</t>
+  </si>
+  <si>
+    <t>shear_range=0.15</t>
+  </si>
+  <si>
+    <t>Rentang pergeseran sudut pemotongan.</t>
+  </si>
+  <si>
+    <t>horizontal_flip=True</t>
+  </si>
+  <si>
+    <t>Kemungkinan untuk memutar gambar secara horizontal.</t>
+  </si>
+  <si>
+    <t>fill_mode="nearest"</t>
+  </si>
+  <si>
+    <t>Cara mengisi piksel yang kosong setelah augmentasi (dalam hal ini, menggunakan piksel terdekat).</t>
+  </si>
+  <si>
+    <t>Rasio</t>
+  </si>
+  <si>
+    <t>Data Training</t>
+  </si>
+  <si>
+    <t>Data Testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +611,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -604,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -755,11 +825,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,6 +963,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,7 +983,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5068,8 +5176,8 @@
   </sheetPr>
   <dimension ref="C2:BC119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView showGridLines="0" topLeftCell="A102" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5092,13 +5200,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:55" ht="16.5" thickBot="1">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
       <c r="AA2" s="35" t="s">
         <v>26</v>
       </c>
@@ -10397,10 +10505,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352AC64A-2495-429D-B67A-772C9BA7E6C3}">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="90.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="15.75">
+      <c r="B2" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75">
+      <c r="B3" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="56">
+        <v>3449</v>
+      </c>
+      <c r="H3" s="56">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75">
+      <c r="B4" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="56">
+        <v>3066</v>
+      </c>
+      <c r="H4" s="56">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75">
+      <c r="B5" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="57">
+        <v>2683</v>
+      </c>
+      <c r="H5" s="57">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75">
+      <c r="B6" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75">
+      <c r="B7" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75">
+      <c r="B8" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75">
+      <c r="B9" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1440</v>
+      </c>
+      <c r="H9" s="56">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="F10" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1280</v>
+      </c>
+      <c r="H10" s="56">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="F11" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="57">
+        <v>1120</v>
+      </c>
+      <c r="H11" s="57">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="42" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Z1" zoomScale="42" workbookViewId="0">
       <selection activeCell="AH55" sqref="X16:AH55"/>
     </sheetView>
   </sheetViews>
@@ -10439,44 +10714,44 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="2:22" ht="39" customHeight="1">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="I3" s="46" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="I3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="O3" s="46" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="O3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
       <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
@@ -12921,7 +13196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14409,7 +14684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -15909,7 +16184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:T999"/>
   <sheetViews>
@@ -15929,23 +16204,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="39" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="J1" s="46" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="J1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="Q1" s="46" t="s">
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="Q1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="2:20" ht="25.5" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -18383,7 +18658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19888,7 +20163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -19903,14 +20178,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="D8:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -19928,16 +20205,16 @@
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="11"/>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="11"/>
@@ -20012,16 +20289,16 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="11"/>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51" t="s">
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="51"/>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="11"/>

--- a/Hasil Pengujian Data.xlsx
+++ b/Hasil Pengujian Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F9AA01-32C2-4B6C-B8F7-A97FFD28BB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A24D3-675B-4015-A358-9F80CF8F01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
   <si>
     <t>ADAM OPTIMIZER</t>
   </si>
@@ -495,12 +495,120 @@
   <si>
     <t>Data Testing</t>
   </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>Output Shape</t>
+  </si>
+  <si>
+    <t>block2_conv2</t>
+  </si>
+  <si>
+    <t>(None, 112, 112, 128)</t>
+  </si>
+  <si>
+    <t>block2_pool</t>
+  </si>
+  <si>
+    <t>(None, 56, 56, 128)</t>
+  </si>
+  <si>
+    <t>block3_conv1</t>
+  </si>
+  <si>
+    <t>(None, 56, 56, 256)</t>
+  </si>
+  <si>
+    <t>block3_conv2</t>
+  </si>
+  <si>
+    <t>block3_conv3</t>
+  </si>
+  <si>
+    <t>block3_pool</t>
+  </si>
+  <si>
+    <t>(None, 28, 28, 256)</t>
+  </si>
+  <si>
+    <t>block4_conv1</t>
+  </si>
+  <si>
+    <t>(None, 28, 28, 512)</t>
+  </si>
+  <si>
+    <t>block4_conv2</t>
+  </si>
+  <si>
+    <t>block4_conv3</t>
+  </si>
+  <si>
+    <t>block4_pool</t>
+  </si>
+  <si>
+    <t>(None, 14, 14, 512)</t>
+  </si>
+  <si>
+    <t>block5_conv1</t>
+  </si>
+  <si>
+    <t>block5_conv2</t>
+  </si>
+  <si>
+    <t>block5_conv3</t>
+  </si>
+  <si>
+    <t>block5_pool</t>
+  </si>
+  <si>
+    <t>(None, 7, 7, 512)</t>
+  </si>
+  <si>
+    <t>average_pooling2d_1</t>
+  </si>
+  <si>
+    <t>(None, 1, 1, 512)</t>
+  </si>
+  <si>
+    <t>flatten</t>
+  </si>
+  <si>
+    <t>(None, 512)</t>
+  </si>
+  <si>
+    <t>dense_2</t>
+  </si>
+  <si>
+    <t>(None, 128)</t>
+  </si>
+  <si>
+    <t>dropout_1</t>
+  </si>
+  <si>
+    <t>dense_3</t>
+  </si>
+  <si>
+    <t>(None, 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total params:  </t>
+  </si>
+  <si>
+    <t>Trainable params</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-trainable params: </t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +728,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -849,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,6 +1081,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -983,22 +1119,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1160,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2103,7 +2242,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="468459455"/>
@@ -2191,7 +2330,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1794542159"/>
@@ -2233,7 +2372,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2270,7 +2409,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2284,7 +2423,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="id-ID"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -2827,7 +2966,7 @@
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="157890628"/>
@@ -2905,7 +3044,7 @@
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1177637"/>
@@ -2928,7 +3067,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5200,13 +5339,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:55" ht="16.5" thickBot="1">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
       <c r="AA2" s="35" t="s">
         <v>26</v>
       </c>
@@ -10521,148 +10660,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="43" t="s">
         <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="48" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="46">
         <v>3449</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="46">
         <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="46">
         <v>3066</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="46">
         <v>767</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75">
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="47">
         <v>2683</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="47">
         <v>1150</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="44" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="44" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="44" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="48" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="46">
         <v>1440</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="46">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <v>1280</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="46">
         <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="47">
         <v>1120</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="47">
         <v>480</v>
       </c>
     </row>
@@ -10714,44 +10853,44 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="46"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="2:22" ht="39" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="I3" s="47" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="O3" s="47" t="s">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="O3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
       <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
@@ -16204,23 +16343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="39" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="J1" s="47" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="J1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="Q1" s="47" t="s">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="Q1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="2:20" ht="25.5" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -20183,19 +20322,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="D8:J31"/>
+  <dimension ref="D8:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:10">
+    <row r="8" spans="4:15">
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
@@ -20203,20 +20345,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:10">
+    <row r="12" spans="4:15">
       <c r="D12" s="11"/>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="M12" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="N12" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="O12" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15">
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
         <v>22</v>
@@ -20236,8 +20387,17 @@
       <c r="J13" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="4:10">
+      <c r="M13" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="N13" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="60">
+        <v>147584</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15">
       <c r="D14" s="25" t="s">
         <v>25</v>
       </c>
@@ -20256,8 +20416,17 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-    </row>
-    <row r="15" spans="4:10">
+      <c r="M14" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="N14" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15">
       <c r="D15" s="25" t="s">
         <v>26</v>
       </c>
@@ -20267,8 +20436,17 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-    </row>
-    <row r="16" spans="4:10">
+      <c r="M15" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="60">
+        <v>295168</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15">
       <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
@@ -20278,29 +20456,155 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-    </row>
-    <row r="25" spans="4:10">
+      <c r="M16" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" s="60">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" ht="15" customHeight="1">
+      <c r="M17" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="N17" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="60">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" ht="15" customHeight="1">
+      <c r="M18" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" ht="15" customHeight="1">
+      <c r="M19" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" s="60">
+        <v>1180160</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" ht="15" customHeight="1">
+      <c r="M20" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="N20" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" s="60">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" ht="15" customHeight="1">
+      <c r="M21" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="60">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" ht="15" customHeight="1">
+      <c r="M22" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="N22" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" ht="15" customHeight="1">
+      <c r="M23" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="60">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" ht="15" customHeight="1">
+      <c r="M24" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="N24" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24" s="60">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15">
       <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="4:10">
+      <c r="M25" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" s="60">
+        <v>2359808</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" ht="15" customHeight="1">
+      <c r="M26" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="N26" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15">
       <c r="D27" s="11"/>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52" t="s">
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="51"/>
-    </row>
-    <row r="28" spans="4:10">
+      <c r="I27" s="56"/>
+      <c r="J27" s="57"/>
+      <c r="M27" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15">
       <c r="D28" s="11"/>
       <c r="E28" s="24" t="s">
         <v>22</v>
@@ -20320,8 +20624,17 @@
       <c r="J28" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="4:10">
+      <c r="M28" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="O28" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15">
       <c r="D29" s="25" t="s">
         <v>25</v>
       </c>
@@ -20331,8 +20644,17 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-    </row>
-    <row r="30" spans="4:10">
+      <c r="M29" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" s="60">
+        <v>65664</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
       <c r="D30" s="25" t="s">
         <v>26</v>
       </c>
@@ -20342,8 +20664,17 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-    </row>
-    <row r="31" spans="4:10">
+      <c r="M30" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="N30" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15">
       <c r="D31" s="25" t="s">
         <v>27</v>
       </c>
@@ -20353,6 +20684,42 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
+      <c r="M31" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="O31" s="62">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" ht="15" customHeight="1">
+      <c r="M32" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="N32" s="59"/>
+      <c r="O32" s="65">
+        <v>14780610</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" ht="15" customHeight="1">
+      <c r="M33" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="N33" s="59"/>
+      <c r="O33" s="65">
+        <v>65922</v>
+      </c>
+    </row>
+    <row r="34" spans="13:15" ht="15" customHeight="1">
+      <c r="M34" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="N34" s="59"/>
+      <c r="O34" s="65">
+        <v>14714688</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Hasil Pengujian Data.xlsx
+++ b/Hasil Pengujian Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25A24D3-675B-4015-A358-9F80CF8F01FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C6AB62-E2E9-493A-812A-AE05CE3BD2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="100 EPHOCS" sheetId="8" r:id="rId1"/>
+    <sheet name="100 EPHOCS 80 20" sheetId="8" r:id="rId1"/>
     <sheet name="Lembar1" sheetId="9" r:id="rId2"/>
     <sheet name="(ADAM) Pengujian Full Dataset" sheetId="1" r:id="rId3"/>
     <sheet name="(RMSP) FULL DATASET" sheetId="2" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
   <si>
     <t>ADAM OPTIMIZER</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>Param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,7 +1082,6 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1097,6 +1099,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1119,27 +1142,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,1269 +1160,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.9514818546092026E-2"/>
-          <c:y val="4.5028732811844524E-2"/>
-          <c:w val="0.94391973358680725"/>
-          <c:h val="0.86448736624943368"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>SGD</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'100 EPHOCS'!$AB$5:$AB$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.53859999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52180000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51049999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51680000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51519999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.52929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53790000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53659999999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.54320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52470000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53590000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.55500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.55079999999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.56299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.54120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.55700000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.56789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.55869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.56659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.55869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.56100000000000005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.56789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.57120000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.56299999999999994</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.58209999999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.57909999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.58730000000000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.59099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.56689999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.58309999999999995</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.59360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.59509999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.6028</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.60219999999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.59719999999999995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.61240000000000006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.61270000000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.61629999999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.61819999999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.6119</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.61480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.62080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.61860000000000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.61629999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.61509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.62080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.63260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.62829999999999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.63170000000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.62860000000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.63339999999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.63429999999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.63570000000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.63490000000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.64049999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.6371</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.63829999999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.64239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.64319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.6421</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.6421</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.64510000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.64770000000000005</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.64349999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.64490000000000003</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.64659999999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.64770000000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.64859999999999995</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.64690000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.65300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.64939999999999998</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.65349999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.65410000000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.65159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.65080000000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.65469999999999995</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.6522</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.65100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.65620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.65469999999999995</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.6573</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.66080000000000005</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.65849999999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.65880000000000005</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.66020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.65759999999999996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.66349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.66300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.66210000000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.66290000000000004</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.66510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.6633</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.66569999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.66539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.66720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.66569999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E60-4D4E-8A6A-1ACF69654727}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Adam</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'100 EPHOCS'!$E$4:$E$103</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.56130000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70860000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.81940000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90310000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92059999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93310000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.93799999999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94099999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94530000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95420000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95420000000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.94689999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95450000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.96040000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.96009999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.96109999999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96309999999999996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.96079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9657</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.96540000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.96309999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.9647</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.96540000000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.97070000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.96840000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.97589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.96840000000000004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9677</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.97360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.97109999999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.97430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.97360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.97270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.97529999999999994</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.97529999999999994</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.97430000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97599999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97629999999999995</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.97570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97729999999999995</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.97770000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.97899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.97929999999999995</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.98029999999999995</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.97829999999999995</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.98070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97899999999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.98029999999999995</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.98070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.98070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.98070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.98129999999999995</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.98129999999999995</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.98170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.98170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.98170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.98299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.98199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.98170000000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.98299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.98370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.98329999999999995</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.98329999999999995</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.98270000000000002</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.98329999999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.98229999999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.98329999999999995</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.98399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98329999999999995</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.98370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.98429999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E60-4D4E-8A6A-1ACF69654727}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>RMSRP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'100 EPHOCS'!$BA$5:$BA$104</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.61040000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78349999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86950000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91959999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92390000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.93610000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94069999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9446</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9456</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94589999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95020000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95189999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.95150000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.95250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.95850000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.95950000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.96140000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.95879999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.95950000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9637</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.95850000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.96009999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.96640000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.96609999999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.96340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.96930000000000005</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.96970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.97099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.96699999999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.96930000000000005</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.97130000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.97230000000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.97170000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.97070000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.96840000000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.97260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.97199999999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.97689999999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.97360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.97560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.97750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.97460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.97589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.97519999999999996</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.97789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.97419999999999995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.97560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.97650000000000003</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.97950000000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.97789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.97719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.97719999999999996</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.97919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.97819999999999996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97860000000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.97889999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.97819999999999996</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.97860000000000003</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.97989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98019999999999996</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.98019999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.97989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.98060000000000003</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.97989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.97919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.9819</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.98019999999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.97960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.97919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.97989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.9819</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.98019999999999996</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.98160000000000003</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.9819</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.9819</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98160000000000003</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.98089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.98119999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-0E60-4D4E-8A6A-1ACF69654727}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1794542159"/>
-        <c:axId val="468459455"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1794542159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="468459455"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="468459455"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="5000"/>
-                    <a:lumOff val="95000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="74000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="45000"/>
-                    <a:lumOff val="55000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="83000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="45000"/>
-                    <a:lumOff val="55000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="30000"/>
-                    <a:lumOff val="70000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1794542159"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3083,562 +1822,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3769,13 +1952,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>133849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>467285</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>83484</xdr:rowOff>
@@ -3813,13 +1996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>88082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>127186</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>130549</xdr:rowOff>
@@ -3857,13 +2040,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>582706</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>75853</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>15542</xdr:rowOff>
@@ -3901,13 +2084,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>55</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>526676</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>272261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>64</xdr:col>
       <xdr:colOff>254373</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>5042</xdr:rowOff>
@@ -3945,13 +2128,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>125671</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>58</xdr:col>
       <xdr:colOff>228040</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>96931</xdr:rowOff>
@@ -3989,13 +2172,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>403411</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>591980</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>113035</xdr:rowOff>
@@ -4029,42 +2212,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621323</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>62939</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>121627</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Bagan 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2EDE6E3-F09E-6F66-2F86-4AE8A83675A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5313,48 +3460,49 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C2:BC119"/>
+  <dimension ref="C2:AY119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A102" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="41"/>
-    <col min="26" max="26" width="9.140625" style="42"/>
-    <col min="29" max="29" width="14" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" customWidth="1"/>
-    <col min="31" max="31" width="15.85546875" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="41"/>
-    <col min="51" max="51" width="9.140625" style="42"/>
-    <col min="52" max="52" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.85546875" customWidth="1"/>
-    <col min="54" max="54" width="18.85546875" customWidth="1"/>
-    <col min="55" max="55" width="16.42578125" customWidth="1"/>
-    <col min="56" max="56" width="18.42578125" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="41"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.42578125" customWidth="1"/>
+    <col min="28" max="28" width="21" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" customWidth="1"/>
+    <col min="47" max="47" width="9.140625" style="41"/>
+    <col min="48" max="48" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" customWidth="1"/>
+    <col min="50" max="50" width="18.85546875" customWidth="1"/>
+    <col min="51" max="51" width="16.42578125" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:55" ht="16.5" thickBot="1">
-      <c r="C2" s="49" t="s">
+    <row r="2" spans="3:51" ht="16.5" thickBot="1">
+      <c r="C2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="AA2" s="35" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="Y2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AG2" s="34"/>
+      <c r="AW2" s="36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="3:55" ht="29.25" thickBot="1">
+    <row r="3" spans="3:51" ht="29.25" thickBot="1">
       <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
@@ -5370,14 +3518,10 @@
       <c r="G3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3"/>
-    </row>
-    <row r="4" spans="3:55" ht="29.25" thickBot="1">
+      <c r="X3"/>
+      <c r="AU3"/>
+    </row>
+    <row r="4" spans="3:51" ht="29.25" thickBot="1">
       <c r="C4" s="32" t="s">
         <v>30</v>
       </c>
@@ -5393,42 +3537,38 @@
       <c r="G4" s="33">
         <v>0.89049999999999996</v>
       </c>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="42"/>
+      <c r="X4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="Z4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="37" t="s">
+      <c r="AV4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="38" t="s">
+      <c r="AY4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ4" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA4" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB4" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="BC4" s="38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:55" ht="15.75" thickBot="1">
+    </row>
+    <row r="5" spans="3:51" ht="15.75" thickBot="1">
       <c r="C5" s="32" t="s">
         <v>31</v>
       </c>
@@ -5444,42 +3584,38 @@
       <c r="G5" s="33">
         <v>0.93610000000000004</v>
       </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="42"/>
+      <c r="X5" s="39">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="39">
+        <v>0.75280000000000002</v>
+      </c>
       <c r="Z5" s="39">
+        <v>0.53859999999999997</v>
+      </c>
+      <c r="AA5" s="39">
+        <v>0.72529999999999994</v>
+      </c>
+      <c r="AB5" s="40">
+        <v>0.50329999999999997</v>
+      </c>
+      <c r="AU5" s="39">
         <v>1</v>
       </c>
-      <c r="AA5" s="39">
-        <v>0.75280000000000002</v>
-      </c>
-      <c r="AB5" s="39">
-        <v>0.53859999999999997</v>
-      </c>
-      <c r="AC5" s="39">
-        <v>0.72529999999999994</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>0.50329999999999997</v>
-      </c>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="39">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="39">
+      <c r="AV5" s="39">
         <v>0.67859999999999998</v>
       </c>
-      <c r="BA5" s="39">
+      <c r="AW5" s="39">
         <v>0.61040000000000005</v>
       </c>
-      <c r="BB5" s="39">
+      <c r="AX5" s="39">
         <v>0.57089999999999996</v>
       </c>
-      <c r="BC5" s="40">
+      <c r="AY5" s="40">
         <v>0.9335</v>
       </c>
     </row>
-    <row r="6" spans="3:55" ht="15.75" thickBot="1">
+    <row r="6" spans="3:51" ht="15.75" thickBot="1">
       <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
@@ -5495,42 +3631,38 @@
       <c r="G6" s="33">
         <v>0.93869999999999998</v>
       </c>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="42"/>
+      <c r="X6" s="39">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="39">
+        <v>0.74829999999999997</v>
+      </c>
       <c r="Z6" s="39">
+        <v>0.52180000000000004</v>
+      </c>
+      <c r="AA6" s="39">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="AB6" s="40">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="AU6" s="39">
         <v>2</v>
       </c>
-      <c r="AA6" s="39">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="AB6" s="39">
-        <v>0.52180000000000004</v>
-      </c>
-      <c r="AC6" s="39">
-        <v>0.71489999999999998</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>0.50980000000000003</v>
-      </c>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="39">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="39">
+      <c r="AV6" s="39">
         <v>0.56589999999999996</v>
       </c>
-      <c r="BA6" s="39">
+      <c r="AW6" s="39">
         <v>0.78349999999999997</v>
       </c>
-      <c r="BB6" s="39">
+      <c r="AX6" s="39">
         <v>0.4783</v>
       </c>
-      <c r="BC6" s="40">
+      <c r="AY6" s="40">
         <v>0.94389999999999996</v>
       </c>
     </row>
-    <row r="7" spans="3:55" ht="15.75" thickBot="1">
+    <row r="7" spans="3:51" ht="15.75" thickBot="1">
       <c r="C7" s="32" t="s">
         <v>33</v>
       </c>
@@ -5546,42 +3678,38 @@
       <c r="G7" s="33">
         <v>0.94259999999999999</v>
       </c>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="42"/>
+      <c r="X7" s="39">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="39">
+        <v>0.74150000000000005</v>
+      </c>
       <c r="Z7" s="39">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AA7" s="39">
+        <v>0.70689999999999997</v>
+      </c>
+      <c r="AB7" s="40">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="AU7" s="39">
         <v>3</v>
       </c>
-      <c r="AA7" s="39">
-        <v>0.74150000000000005</v>
-      </c>
-      <c r="AB7" s="39">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="AC7" s="39">
-        <v>0.70689999999999997</v>
-      </c>
-      <c r="AD7" s="40">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="39">
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="39">
+      <c r="AV7" s="39">
         <v>0.4824</v>
       </c>
-      <c r="BA7" s="39">
+      <c r="AW7" s="39">
         <v>0.86950000000000005</v>
       </c>
-      <c r="BB7" s="39">
+      <c r="AX7" s="39">
         <v>0.40679999999999999</v>
       </c>
-      <c r="BC7" s="40">
+      <c r="AY7" s="40">
         <v>0.93869999999999998</v>
       </c>
     </row>
-    <row r="8" spans="3:55" ht="15.75" thickBot="1">
+    <row r="8" spans="3:51" ht="15.75" thickBot="1">
       <c r="C8" s="32" t="s">
         <v>34</v>
       </c>
@@ -5597,42 +3725,38 @@
       <c r="G8" s="33">
         <v>0.95050000000000001</v>
       </c>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="42"/>
+      <c r="X8" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="39">
+        <v>0.73560000000000003</v>
+      </c>
       <c r="Z8" s="39">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="AA8" s="39">
+        <v>0.7006</v>
+      </c>
+      <c r="AB8" s="40">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="AU8" s="39">
         <v>4</v>
       </c>
-      <c r="AA8" s="39">
-        <v>0.73560000000000003</v>
-      </c>
-      <c r="AB8" s="39">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="AC8" s="39">
-        <v>0.7006</v>
-      </c>
-      <c r="AD8" s="40">
-        <v>0.53059999999999996</v>
-      </c>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="39">
-        <v>4</v>
-      </c>
-      <c r="AZ8" s="39">
+      <c r="AV8" s="39">
         <v>0.41</v>
       </c>
-      <c r="BA8" s="39">
+      <c r="AW8" s="39">
         <v>0.90439999999999998</v>
       </c>
-      <c r="BB8" s="39">
+      <c r="AX8" s="39">
         <v>0.3337</v>
       </c>
-      <c r="BC8" s="40">
+      <c r="AY8" s="40">
         <v>0.94650000000000001</v>
       </c>
     </row>
-    <row r="9" spans="3:55" ht="15.75" thickBot="1">
+    <row r="9" spans="3:51" ht="15.75" thickBot="1">
       <c r="C9" s="32" t="s">
         <v>35</v>
       </c>
@@ -5648,42 +3772,38 @@
       <c r="G9" s="33">
         <v>0.95309999999999995</v>
       </c>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="42"/>
+      <c r="X9" s="39">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="39">
+        <v>0.7349</v>
+      </c>
       <c r="Z9" s="39">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="AA9" s="39">
+        <v>0.6956</v>
+      </c>
+      <c r="AB9" s="40">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="AU9" s="39">
         <v>5</v>
       </c>
-      <c r="AA9" s="39">
-        <v>0.7349</v>
-      </c>
-      <c r="AB9" s="39">
-        <v>0.51680000000000004</v>
-      </c>
-      <c r="AC9" s="39">
-        <v>0.6956</v>
-      </c>
-      <c r="AD9" s="40">
-        <v>0.54369999999999996</v>
-      </c>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="39">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="39">
+      <c r="AV9" s="39">
         <v>0.35499999999999998</v>
       </c>
-      <c r="BA9" s="39">
+      <c r="AW9" s="39">
         <v>0.91959999999999997</v>
       </c>
-      <c r="BB9" s="39">
+      <c r="AX9" s="39">
         <v>0.28620000000000001</v>
       </c>
-      <c r="BC9" s="40">
+      <c r="AY9" s="40">
         <v>0.95179999999999998</v>
       </c>
     </row>
-    <row r="10" spans="3:55" ht="15.75" thickBot="1">
+    <row r="10" spans="3:51" ht="15.75" thickBot="1">
       <c r="C10" s="32" t="s">
         <v>36</v>
       </c>
@@ -5699,42 +3819,38 @@
       <c r="G10" s="33">
         <v>0.95309999999999995</v>
       </c>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="42"/>
+      <c r="X10" s="39">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="39">
+        <v>0.71519999999999995</v>
+      </c>
       <c r="Z10" s="39">
+        <v>0.54349999999999998</v>
+      </c>
+      <c r="AA10" s="39">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="AB10" s="40">
+        <v>0.5645</v>
+      </c>
+      <c r="AU10" s="39">
         <v>6</v>
       </c>
-      <c r="AA10" s="39">
-        <v>0.71519999999999995</v>
-      </c>
-      <c r="AB10" s="39">
-        <v>0.54349999999999998</v>
-      </c>
-      <c r="AC10" s="39">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="AD10" s="40">
-        <v>0.5645</v>
-      </c>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="39">
-        <v>6</v>
-      </c>
-      <c r="AZ10" s="39">
+      <c r="AV10" s="39">
         <v>0.3135</v>
       </c>
-      <c r="BA10" s="39">
+      <c r="AW10" s="39">
         <v>0.92390000000000005</v>
       </c>
-      <c r="BB10" s="39">
+      <c r="AX10" s="39">
         <v>0.24</v>
       </c>
-      <c r="BC10" s="40">
+      <c r="AY10" s="40">
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="11" spans="3:55" ht="15.75" thickBot="1">
+    <row r="11" spans="3:51" ht="15.75" thickBot="1">
       <c r="C11" s="32" t="s">
         <v>37</v>
       </c>
@@ -5750,42 +3866,38 @@
       <c r="G11" s="33">
         <v>0.95830000000000004</v>
       </c>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="42"/>
+      <c r="X11" s="39">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="39">
+        <v>0.7228</v>
+      </c>
       <c r="Z11" s="39">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="AA11" s="39">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AB11" s="40">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="AU11" s="39">
         <v>7</v>
       </c>
-      <c r="AA11" s="39">
-        <v>0.7228</v>
-      </c>
-      <c r="AB11" s="39">
-        <v>0.51519999999999999</v>
-      </c>
-      <c r="AC11" s="39">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="AD11" s="40">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="42"/>
-      <c r="AY11" s="39">
-        <v>7</v>
-      </c>
-      <c r="AZ11" s="39">
+      <c r="AV11" s="39">
         <v>0.27600000000000002</v>
       </c>
-      <c r="BA11" s="39">
+      <c r="AW11" s="39">
         <v>0.93279999999999996</v>
       </c>
-      <c r="BB11" s="39">
+      <c r="AX11" s="39">
         <v>0.20810000000000001</v>
       </c>
-      <c r="BC11" s="40">
+      <c r="AY11" s="40">
         <v>0.95960000000000001</v>
       </c>
     </row>
-    <row r="12" spans="3:55" ht="15.75" thickBot="1">
+    <row r="12" spans="3:51" ht="15.75" thickBot="1">
       <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
@@ -5801,42 +3913,38 @@
       <c r="G12" s="33">
         <v>0.95699999999999996</v>
       </c>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="42"/>
+      <c r="X12" s="39">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="39">
+        <v>0.71550000000000002</v>
+      </c>
       <c r="Z12" s="39">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="AA12" s="39">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="AB12" s="40">
+        <v>0.60370000000000001</v>
+      </c>
+      <c r="AU12" s="39">
         <v>8</v>
       </c>
-      <c r="AA12" s="39">
-        <v>0.71550000000000002</v>
-      </c>
-      <c r="AB12" s="39">
-        <v>0.52929999999999999</v>
-      </c>
-      <c r="AC12" s="39">
-        <v>0.68579999999999997</v>
-      </c>
-      <c r="AD12" s="40">
-        <v>0.60370000000000001</v>
-      </c>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="39">
-        <v>8</v>
-      </c>
-      <c r="AZ12" s="39">
+      <c r="AV12" s="39">
         <v>0.24249999999999999</v>
       </c>
-      <c r="BA12" s="39">
+      <c r="AW12" s="39">
         <v>0.93610000000000004</v>
       </c>
-      <c r="BB12" s="39">
+      <c r="AX12" s="39">
         <v>0.18479999999999999</v>
       </c>
-      <c r="BC12" s="40">
+      <c r="AY12" s="40">
         <v>0.95830000000000004</v>
       </c>
     </row>
-    <row r="13" spans="3:55" ht="15.75" thickBot="1">
+    <row r="13" spans="3:51" ht="15.75" thickBot="1">
       <c r="C13" s="32" t="s">
         <v>39</v>
       </c>
@@ -5852,42 +3960,38 @@
       <c r="G13" s="33">
         <v>0.96609999999999996</v>
       </c>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="42"/>
+      <c r="X13" s="39">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="39">
+        <v>0.71299999999999997</v>
+      </c>
       <c r="Z13" s="39">
+        <v>0.53790000000000004</v>
+      </c>
+      <c r="AA13" s="39">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="AB13" s="40">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AU13" s="39">
         <v>9</v>
       </c>
-      <c r="AA13" s="39">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="AB13" s="39">
-        <v>0.53790000000000004</v>
-      </c>
-      <c r="AC13" s="39">
-        <v>0.68369999999999997</v>
-      </c>
-      <c r="AD13" s="40">
-        <v>0.62319999999999998</v>
-      </c>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="39">
-        <v>9</v>
-      </c>
-      <c r="AZ13" s="39">
+      <c r="AV13" s="39">
         <v>0.22339999999999999</v>
       </c>
-      <c r="BA13" s="39">
+      <c r="AW13" s="39">
         <v>0.94069999999999998</v>
       </c>
-      <c r="BB13" s="39">
+      <c r="AX13" s="39">
         <v>0.1701</v>
       </c>
-      <c r="BC13" s="40">
+      <c r="AY13" s="40">
         <v>0.95440000000000003</v>
       </c>
     </row>
-    <row r="14" spans="3:55" ht="15.75" thickBot="1">
+    <row r="14" spans="3:51" ht="15.75" thickBot="1">
       <c r="C14" s="32" t="s">
         <v>40</v>
       </c>
@@ -5903,42 +4007,38 @@
       <c r="G14" s="33">
         <v>0.96740000000000004</v>
       </c>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="42"/>
+      <c r="X14" s="39">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="39">
+        <v>0.7087</v>
+      </c>
       <c r="Z14" s="39">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="AA14" s="39">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="AB14" s="40">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="AU14" s="39">
         <v>10</v>
       </c>
-      <c r="AA14" s="39">
-        <v>0.7087</v>
-      </c>
-      <c r="AB14" s="39">
-        <v>0.53659999999999997</v>
-      </c>
-      <c r="AC14" s="39">
-        <v>0.68189999999999995</v>
-      </c>
-      <c r="AD14" s="40">
-        <v>0.64280000000000004</v>
-      </c>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="42"/>
-      <c r="AY14" s="39">
-        <v>10</v>
-      </c>
-      <c r="AZ14" s="39">
+      <c r="AV14" s="39">
         <v>0.20569999999999999</v>
       </c>
-      <c r="BA14" s="39">
+      <c r="AW14" s="39">
         <v>0.9446</v>
       </c>
-      <c r="BB14" s="39">
+      <c r="AX14" s="39">
         <v>0.15060000000000001</v>
       </c>
-      <c r="BC14" s="40">
+      <c r="AY14" s="40">
         <v>0.96479999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:55" ht="15.75" thickBot="1">
+    <row r="15" spans="3:51" ht="15.75" thickBot="1">
       <c r="C15" s="32" t="s">
         <v>41</v>
       </c>
@@ -5954,42 +4054,38 @@
       <c r="G15" s="33">
         <v>0.96609999999999996</v>
       </c>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="42"/>
+      <c r="X15" s="39">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="39">
+        <v>0.71120000000000005</v>
+      </c>
       <c r="Z15" s="39">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="AA15" s="39">
+        <v>0.6804</v>
+      </c>
+      <c r="AB15" s="40">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="AU15" s="39">
         <v>11</v>
       </c>
-      <c r="AA15" s="39">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="AB15" s="39">
-        <v>0.54320000000000002</v>
-      </c>
-      <c r="AC15" s="39">
-        <v>0.6804</v>
-      </c>
-      <c r="AD15" s="40">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="39">
-        <v>11</v>
-      </c>
-      <c r="AZ15" s="39">
+      <c r="AV15" s="39">
         <v>0.1918</v>
       </c>
-      <c r="BA15" s="39">
+      <c r="AW15" s="39">
         <v>0.9456</v>
       </c>
-      <c r="BB15" s="39">
+      <c r="AX15" s="39">
         <v>0.1331</v>
       </c>
-      <c r="BC15" s="40">
+      <c r="AY15" s="40">
         <v>0.96740000000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:55" ht="15.75" thickBot="1">
+    <row r="16" spans="3:51" ht="15.75" thickBot="1">
       <c r="C16" s="32" t="s">
         <v>42</v>
       </c>
@@ -6005,42 +4101,38 @@
       <c r="G16" s="33">
         <v>0.96870000000000001</v>
       </c>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="42"/>
+      <c r="X16" s="39">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="39">
+        <v>0.71309999999999996</v>
+      </c>
       <c r="Z16" s="39">
+        <v>0.52470000000000006</v>
+      </c>
+      <c r="AA16" s="39">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="AB16" s="40">
+        <v>0.6754</v>
+      </c>
+      <c r="AU16" s="39">
         <v>12</v>
       </c>
-      <c r="AA16" s="39">
-        <v>0.71309999999999996</v>
-      </c>
-      <c r="AB16" s="39">
-        <v>0.52470000000000006</v>
-      </c>
-      <c r="AC16" s="39">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="AD16" s="40">
-        <v>0.6754</v>
-      </c>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="39">
-        <v>12</v>
-      </c>
-      <c r="AZ16" s="39">
+      <c r="AV16" s="39">
         <v>0.1802</v>
       </c>
-      <c r="BA16" s="39">
+      <c r="AW16" s="39">
         <v>0.94589999999999996</v>
       </c>
-      <c r="BB16" s="39">
+      <c r="AX16" s="39">
         <v>0.1273</v>
       </c>
-      <c r="BC16" s="40">
+      <c r="AY16" s="40">
         <v>0.96740000000000004</v>
       </c>
     </row>
-    <row r="17" spans="3:55" ht="15.75" thickBot="1">
+    <row r="17" spans="3:51" ht="15.75" thickBot="1">
       <c r="C17" s="32" t="s">
         <v>43</v>
       </c>
@@ -6056,42 +4148,38 @@
       <c r="G17" s="33">
         <v>0.97</v>
       </c>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="42"/>
+      <c r="X17" s="39">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="39">
+        <v>0.7087</v>
+      </c>
       <c r="Z17" s="39">
+        <v>0.53590000000000004</v>
+      </c>
+      <c r="AA17" s="39">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="AB17" s="40">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="AU17" s="39">
         <v>13</v>
       </c>
-      <c r="AA17" s="39">
-        <v>0.7087</v>
-      </c>
-      <c r="AB17" s="39">
-        <v>0.53590000000000004</v>
-      </c>
-      <c r="AC17" s="39">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="AD17" s="40">
-        <v>0.68840000000000001</v>
-      </c>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="39">
-        <v>13</v>
-      </c>
-      <c r="AZ17" s="39">
+      <c r="AV17" s="39">
         <v>0.16950000000000001</v>
       </c>
-      <c r="BA17" s="39">
+      <c r="AW17" s="39">
         <v>0.95020000000000004</v>
       </c>
-      <c r="BB17" s="39">
+      <c r="AX17" s="39">
         <v>0.11990000000000001</v>
       </c>
-      <c r="BC17" s="40">
+      <c r="AY17" s="40">
         <v>0.96870000000000001</v>
       </c>
     </row>
-    <row r="18" spans="3:55" ht="15.75" thickBot="1">
+    <row r="18" spans="3:51" ht="15.75" thickBot="1">
       <c r="C18" s="32" t="s">
         <v>44</v>
       </c>
@@ -6107,42 +4195,38 @@
       <c r="G18" s="33">
         <v>0.96870000000000001</v>
       </c>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="42"/>
+      <c r="X18" s="39">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="39">
+        <v>0.70240000000000002</v>
+      </c>
       <c r="Z18" s="39">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AA18" s="39">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="AB18" s="40">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="AU18" s="39">
         <v>14</v>
       </c>
-      <c r="AA18" s="39">
-        <v>0.70240000000000002</v>
-      </c>
-      <c r="AB18" s="39">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="AC18" s="39">
-        <v>0.67659999999999998</v>
-      </c>
-      <c r="AD18" s="40">
-        <v>0.69620000000000004</v>
-      </c>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="39">
-        <v>14</v>
-      </c>
-      <c r="AZ18" s="39">
+      <c r="AV18" s="39">
         <v>0.16120000000000001</v>
       </c>
-      <c r="BA18" s="39">
+      <c r="AW18" s="39">
         <v>0.95189999999999997</v>
       </c>
-      <c r="BB18" s="39">
+      <c r="AX18" s="39">
         <v>0.11310000000000001</v>
       </c>
-      <c r="BC18" s="40">
+      <c r="AY18" s="40">
         <v>0.96870000000000001</v>
       </c>
     </row>
-    <row r="19" spans="3:55" ht="15.75" thickBot="1">
+    <row r="19" spans="3:51" ht="15.75" thickBot="1">
       <c r="C19" s="32" t="s">
         <v>45</v>
       </c>
@@ -6158,42 +4242,38 @@
       <c r="G19" s="33">
         <v>0.97</v>
       </c>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="42"/>
+      <c r="X19" s="39">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="39">
+        <v>0.70509999999999995</v>
+      </c>
       <c r="Z19" s="39">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="AA19" s="39">
+        <v>0.67559999999999998</v>
+      </c>
+      <c r="AB19" s="40">
+        <v>0.71189999999999998</v>
+      </c>
+      <c r="AU19" s="39">
         <v>15</v>
       </c>
-      <c r="AA19" s="39">
-        <v>0.70509999999999995</v>
-      </c>
-      <c r="AB19" s="39">
-        <v>0.54020000000000001</v>
-      </c>
-      <c r="AC19" s="39">
-        <v>0.67559999999999998</v>
-      </c>
-      <c r="AD19" s="40">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="39">
-        <v>15</v>
-      </c>
-      <c r="AZ19" s="39">
+      <c r="AV19" s="39">
         <v>0.158</v>
       </c>
-      <c r="BA19" s="39">
+      <c r="AW19" s="39">
         <v>0.95150000000000001</v>
       </c>
-      <c r="BB19" s="39">
+      <c r="AX19" s="39">
         <v>0.1081</v>
       </c>
-      <c r="BC19" s="40">
+      <c r="AY19" s="40">
         <v>0.96870000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:55" ht="15.75" thickBot="1">
+    <row r="20" spans="3:51" ht="15.75" thickBot="1">
       <c r="C20" s="32" t="s">
         <v>46</v>
       </c>
@@ -6209,42 +4289,38 @@
       <c r="G20" s="33">
         <v>0.97130000000000005</v>
       </c>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="42"/>
+      <c r="X20" s="39">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="39">
+        <v>0.70150000000000001</v>
+      </c>
       <c r="Z20" s="39">
+        <v>0.55079999999999996</v>
+      </c>
+      <c r="AA20" s="39">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="AB20" s="40">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="AU20" s="39">
         <v>16</v>
       </c>
-      <c r="AA20" s="39">
-        <v>0.70150000000000001</v>
-      </c>
-      <c r="AB20" s="39">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="AC20" s="39">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="AD20" s="40">
-        <v>0.72230000000000005</v>
-      </c>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="39">
-        <v>16</v>
-      </c>
-      <c r="AZ20" s="39">
+      <c r="AV20" s="39">
         <v>0.1472</v>
       </c>
-      <c r="BA20" s="39">
+      <c r="AW20" s="39">
         <v>0.95250000000000001</v>
       </c>
-      <c r="BB20" s="39">
+      <c r="AX20" s="39">
         <v>0.1026</v>
       </c>
-      <c r="BC20" s="40">
+      <c r="AY20" s="40">
         <v>0.96870000000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:55" ht="15.75" thickBot="1">
+    <row r="21" spans="3:51" ht="15.75" thickBot="1">
       <c r="C21" s="32" t="s">
         <v>47</v>
       </c>
@@ -6260,42 +4336,38 @@
       <c r="G21" s="33">
         <v>0.97130000000000005</v>
       </c>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="42"/>
+      <c r="X21" s="39">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="39">
+        <v>0.69330000000000003</v>
+      </c>
       <c r="Z21" s="39">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AA21" s="39">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="AB21" s="40">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AU21" s="39">
         <v>17</v>
       </c>
-      <c r="AA21" s="39">
-        <v>0.69330000000000003</v>
-      </c>
-      <c r="AB21" s="39">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="AC21" s="39">
-        <v>0.67359999999999998</v>
-      </c>
-      <c r="AD21" s="40">
-        <v>0.72750000000000004</v>
-      </c>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="39">
-        <v>17</v>
-      </c>
-      <c r="AZ21" s="39">
+      <c r="AV21" s="39">
         <v>0.14299999999999999</v>
       </c>
-      <c r="BA21" s="39">
+      <c r="AW21" s="39">
         <v>0.95650000000000002</v>
       </c>
-      <c r="BB21" s="39">
+      <c r="AX21" s="39">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="BC21" s="40">
+      <c r="AY21" s="40">
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" spans="3:55" ht="15.75" thickBot="1">
+    <row r="22" spans="3:51" ht="15.75" thickBot="1">
       <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
@@ -6311,42 +4383,41 @@
       <c r="G22" s="33">
         <v>0.97130000000000005</v>
       </c>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="42"/>
+      <c r="X22" s="39">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="39">
+        <v>0.7026</v>
+      </c>
       <c r="Z22" s="39">
+        <v>0.54120000000000001</v>
+      </c>
+      <c r="AA22" s="39">
+        <v>0.67259999999999998</v>
+      </c>
+      <c r="AB22" s="40">
+        <v>0.73009999999999997</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU22" s="39">
         <v>18</v>
       </c>
-      <c r="AA22" s="39">
-        <v>0.7026</v>
-      </c>
-      <c r="AB22" s="39">
-        <v>0.54120000000000001</v>
-      </c>
-      <c r="AC22" s="39">
-        <v>0.67259999999999998</v>
-      </c>
-      <c r="AD22" s="40">
-        <v>0.73009999999999997</v>
-      </c>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="39">
-        <v>18</v>
-      </c>
-      <c r="AZ22" s="39">
+      <c r="AV22" s="39">
         <v>0.13619999999999999</v>
       </c>
-      <c r="BA22" s="39">
+      <c r="AW22" s="39">
         <v>0.95850000000000002</v>
       </c>
-      <c r="BB22" s="39">
+      <c r="AX22" s="39">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="BC22" s="40">
+      <c r="AY22" s="40">
         <v>0.97</v>
       </c>
     </row>
-    <row r="23" spans="3:55" ht="15.75" thickBot="1">
+    <row r="23" spans="3:51" ht="15.75" thickBot="1">
       <c r="C23" s="32" t="s">
         <v>49</v>
       </c>
@@ -6362,42 +4433,38 @@
       <c r="G23" s="33">
         <v>0.97650000000000003</v>
       </c>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="42"/>
+      <c r="X23" s="39">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="39">
+        <v>0.69730000000000003</v>
+      </c>
       <c r="Z23" s="39">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="AA23" s="39">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="AB23" s="40">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="AU23" s="39">
         <v>19</v>
       </c>
-      <c r="AA23" s="39">
-        <v>0.69730000000000003</v>
-      </c>
-      <c r="AB23" s="39">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="AC23" s="39">
-        <v>0.67169999999999996</v>
-      </c>
-      <c r="AD23" s="40">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="39">
-        <v>19</v>
-      </c>
-      <c r="AZ23" s="39">
+      <c r="AV23" s="39">
         <v>0.1283</v>
       </c>
-      <c r="BA23" s="39">
+      <c r="AW23" s="39">
         <v>0.95950000000000002</v>
       </c>
-      <c r="BB23" s="39">
+      <c r="AX23" s="39">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="BC23" s="40">
+      <c r="AY23" s="40">
         <v>0.97260000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:55" ht="15.75" thickBot="1">
+    <row r="24" spans="3:51" ht="15.75" thickBot="1">
       <c r="C24" s="32" t="s">
         <v>50</v>
       </c>
@@ -6413,42 +4480,38 @@
       <c r="G24" s="33">
         <v>0.97260000000000002</v>
       </c>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="42"/>
+      <c r="X24" s="39">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="39">
+        <v>0.69679999999999997</v>
+      </c>
       <c r="Z24" s="39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AA24" s="39">
+        <v>0.67079999999999995</v>
+      </c>
+      <c r="AB24" s="40">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="AU24" s="39">
         <v>20</v>
       </c>
-      <c r="AA24" s="39">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="AB24" s="39">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AC24" s="39">
-        <v>0.67079999999999995</v>
-      </c>
-      <c r="AD24" s="40">
-        <v>0.74050000000000005</v>
-      </c>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="39">
-        <v>20</v>
-      </c>
-      <c r="AZ24" s="39">
+      <c r="AV24" s="39">
         <v>0.1265</v>
       </c>
-      <c r="BA24" s="39">
+      <c r="AW24" s="39">
         <v>0.96140000000000003</v>
       </c>
-      <c r="BB24" s="39">
+      <c r="AX24" s="39">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="BC24" s="40">
+      <c r="AY24" s="40">
         <v>0.97260000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:55" ht="15.75" thickBot="1">
+    <row r="25" spans="3:51" ht="15.75" thickBot="1">
       <c r="C25" s="32" t="s">
         <v>51</v>
       </c>
@@ -6464,42 +4527,38 @@
       <c r="G25" s="33">
         <v>0.97519999999999996</v>
       </c>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="42"/>
+      <c r="X25" s="39">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="39">
+        <v>0.6946</v>
+      </c>
       <c r="Z25" s="39">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="AA25" s="39">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="AB25" s="40">
+        <v>0.74709999999999999</v>
+      </c>
+      <c r="AU25" s="39">
         <v>21</v>
       </c>
-      <c r="AA25" s="39">
-        <v>0.6946</v>
-      </c>
-      <c r="AB25" s="39">
-        <v>0.56789999999999996</v>
-      </c>
-      <c r="AC25" s="39">
-        <v>0.66990000000000005</v>
-      </c>
-      <c r="AD25" s="40">
-        <v>0.74709999999999999</v>
-      </c>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="39">
-        <v>21</v>
-      </c>
-      <c r="AZ25" s="39">
+      <c r="AV25" s="39">
         <v>0.12</v>
       </c>
-      <c r="BA25" s="39">
+      <c r="AW25" s="39">
         <v>0.95879999999999999</v>
       </c>
-      <c r="BB25" s="39">
+      <c r="AX25" s="39">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="BC25" s="40">
+      <c r="AY25" s="40">
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="26" spans="3:55" ht="15.75" thickBot="1">
+    <row r="26" spans="3:51" ht="15.75" thickBot="1">
       <c r="C26" s="32" t="s">
         <v>52</v>
       </c>
@@ -6515,42 +4574,38 @@
       <c r="G26" s="33">
         <v>0.97650000000000003</v>
       </c>
-      <c r="X26" s="41"/>
-      <c r="Y26" s="42"/>
+      <c r="X26" s="39">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="39">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="Z26" s="39">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="AA26" s="39">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AB26" s="40">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="AU26" s="39">
         <v>22</v>
       </c>
-      <c r="AA26" s="39">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="AB26" s="39">
-        <v>0.55869999999999997</v>
-      </c>
-      <c r="AC26" s="39">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="AD26" s="40">
-        <v>0.74970000000000003</v>
-      </c>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="39">
-        <v>22</v>
-      </c>
-      <c r="AZ26" s="39">
+      <c r="AV26" s="39">
         <v>0.12089999999999999</v>
       </c>
-      <c r="BA26" s="39">
+      <c r="AW26" s="39">
         <v>0.95950000000000002</v>
       </c>
-      <c r="BB26" s="39">
+      <c r="AX26" s="39">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="BC26" s="40">
+      <c r="AY26" s="40">
         <v>0.97650000000000003</v>
       </c>
     </row>
-    <row r="27" spans="3:55" ht="15.75" thickBot="1">
+    <row r="27" spans="3:51" ht="15.75" thickBot="1">
       <c r="C27" s="32" t="s">
         <v>53</v>
       </c>
@@ -6566,42 +4621,38 @@
       <c r="G27" s="33">
         <v>0.9778</v>
       </c>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="42"/>
+      <c r="X27" s="39">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="39">
+        <v>0.69410000000000005</v>
+      </c>
       <c r="Z27" s="39">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="AA27" s="39">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="AB27" s="40">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="AU27" s="39">
         <v>23</v>
       </c>
-      <c r="AA27" s="39">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="AB27" s="39">
-        <v>0.56659999999999999</v>
-      </c>
-      <c r="AC27" s="39">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="AD27" s="40">
-        <v>0.75360000000000005</v>
-      </c>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="39">
-        <v>23</v>
-      </c>
-      <c r="AZ27" s="39">
+      <c r="AV27" s="39">
         <v>0.1149</v>
       </c>
-      <c r="BA27" s="39">
+      <c r="AW27" s="39">
         <v>0.9637</v>
       </c>
-      <c r="BB27" s="39">
+      <c r="AX27" s="39">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="BC27" s="40">
+      <c r="AY27" s="40">
         <v>0.97909999999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:55" ht="15.75" thickBot="1">
+    <row r="28" spans="3:51" ht="15.75" thickBot="1">
       <c r="C28" s="32" t="s">
         <v>54</v>
       </c>
@@ -6617,42 +4668,38 @@
       <c r="G28" s="33">
         <v>0.98040000000000005</v>
       </c>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="42"/>
+      <c r="X28" s="39">
+        <v>24</v>
+      </c>
+      <c r="Y28" s="39">
+        <v>0.69689999999999996</v>
+      </c>
       <c r="Z28" s="39">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="AA28" s="39">
+        <v>0.6673</v>
+      </c>
+      <c r="AB28" s="40">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="AU28" s="39">
         <v>24</v>
       </c>
-      <c r="AA28" s="39">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="AB28" s="39">
-        <v>0.55869999999999997</v>
-      </c>
-      <c r="AC28" s="39">
-        <v>0.6673</v>
-      </c>
-      <c r="AD28" s="40">
-        <v>0.75749999999999995</v>
-      </c>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="39">
-        <v>24</v>
-      </c>
-      <c r="AZ28" s="39">
+      <c r="AV28" s="39">
         <v>0.115</v>
       </c>
-      <c r="BA28" s="39">
+      <c r="AW28" s="39">
         <v>0.95850000000000002</v>
       </c>
-      <c r="BB28" s="39">
+      <c r="AX28" s="39">
         <v>7.5200000000000003E-2</v>
       </c>
-      <c r="BC28" s="40">
+      <c r="AY28" s="40">
         <v>0.9778</v>
       </c>
     </row>
-    <row r="29" spans="3:55" ht="15.75" thickBot="1">
+    <row r="29" spans="3:51" ht="15.75" thickBot="1">
       <c r="C29" s="32" t="s">
         <v>55</v>
       </c>
@@ -6668,42 +4715,38 @@
       <c r="G29" s="33">
         <v>0.98040000000000005</v>
       </c>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="42"/>
+      <c r="X29" s="39">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="39">
+        <v>0.69679999999999997</v>
+      </c>
       <c r="Z29" s="39">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AA29" s="39">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="AB29" s="40">
+        <v>0.75619999999999998</v>
+      </c>
+      <c r="AU29" s="39">
         <v>25</v>
       </c>
-      <c r="AA29" s="39">
-        <v>0.69679999999999997</v>
-      </c>
-      <c r="AB29" s="39">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AC29" s="39">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="AD29" s="40">
-        <v>0.75619999999999998</v>
-      </c>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="39">
-        <v>25</v>
-      </c>
-      <c r="AZ29" s="39">
+      <c r="AV29" s="39">
         <v>0.1096</v>
       </c>
-      <c r="BA29" s="39">
+      <c r="AW29" s="39">
         <v>0.96009999999999995</v>
       </c>
-      <c r="BB29" s="39">
+      <c r="AX29" s="39">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="BC29" s="40">
+      <c r="AY29" s="40">
         <v>0.9778</v>
       </c>
     </row>
-    <row r="30" spans="3:55" ht="15.75" thickBot="1">
+    <row r="30" spans="3:51" ht="15.75" thickBot="1">
       <c r="C30" s="32" t="s">
         <v>56</v>
       </c>
@@ -6719,42 +4762,38 @@
       <c r="G30" s="33">
         <v>0.98170000000000002</v>
       </c>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="42"/>
+      <c r="X30" s="39">
+        <v>26</v>
+      </c>
+      <c r="Y30" s="39">
+        <v>0.69089999999999996</v>
+      </c>
       <c r="Z30" s="39">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="AA30" s="39">
+        <v>0.66559999999999997</v>
+      </c>
+      <c r="AB30" s="40">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="AU30" s="39">
         <v>26</v>
       </c>
-      <c r="AA30" s="39">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="AB30" s="39">
-        <v>0.56789999999999996</v>
-      </c>
-      <c r="AC30" s="39">
-        <v>0.66559999999999997</v>
-      </c>
-      <c r="AD30" s="40">
-        <v>0.76139999999999997</v>
-      </c>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="39">
-        <v>26</v>
-      </c>
-      <c r="AZ30" s="39">
+      <c r="AV30" s="39">
         <v>0.1072</v>
       </c>
-      <c r="BA30" s="39">
+      <c r="AW30" s="39">
         <v>0.96640000000000004</v>
       </c>
-      <c r="BB30" s="39">
+      <c r="AX30" s="39">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="BC30" s="40">
+      <c r="AY30" s="40">
         <v>0.97909999999999997</v>
       </c>
     </row>
-    <row r="31" spans="3:55" ht="15.75" thickBot="1">
+    <row r="31" spans="3:51" ht="15.75" thickBot="1">
       <c r="C31" s="32" t="s">
         <v>57</v>
       </c>
@@ -6770,42 +4809,38 @@
       <c r="G31" s="33">
         <v>0.98040000000000005</v>
       </c>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="42"/>
+      <c r="X31" s="39">
+        <v>27</v>
+      </c>
+      <c r="Y31" s="39">
+        <v>0.68989999999999996</v>
+      </c>
       <c r="Z31" s="39">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="AA31" s="39">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="AB31" s="40">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="AU31" s="39">
         <v>27</v>
       </c>
-      <c r="AA31" s="39">
-        <v>0.68989999999999996</v>
-      </c>
-      <c r="AB31" s="39">
-        <v>0.57120000000000004</v>
-      </c>
-      <c r="AC31" s="39">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="AD31" s="40">
-        <v>0.76270000000000004</v>
-      </c>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="39">
-        <v>27</v>
-      </c>
-      <c r="AZ31" s="39">
+      <c r="AV31" s="39">
         <v>0.10489999999999999</v>
       </c>
-      <c r="BA31" s="39">
+      <c r="AW31" s="39">
         <v>0.96609999999999996</v>
       </c>
-      <c r="BB31" s="39">
+      <c r="AX31" s="39">
         <v>7.0599999999999996E-2</v>
       </c>
-      <c r="BC31" s="40">
+      <c r="AY31" s="40">
         <v>0.9778</v>
       </c>
     </row>
-    <row r="32" spans="3:55" ht="15.75" thickBot="1">
+    <row r="32" spans="3:51" ht="15.75" thickBot="1">
       <c r="C32" s="32" t="s">
         <v>58</v>
       </c>
@@ -6821,42 +4856,38 @@
       <c r="G32" s="33">
         <v>0.98040000000000005</v>
       </c>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="42"/>
+      <c r="X32" s="39">
+        <v>28</v>
+      </c>
+      <c r="Y32" s="39">
+        <v>0.69169999999999998</v>
+      </c>
       <c r="Z32" s="39">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AA32" s="39">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="AB32" s="40">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AU32" s="39">
         <v>28</v>
       </c>
-      <c r="AA32" s="39">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="AB32" s="39">
-        <v>0.56299999999999994</v>
-      </c>
-      <c r="AC32" s="39">
-        <v>0.66379999999999995</v>
-      </c>
-      <c r="AD32" s="40">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="42"/>
-      <c r="AY32" s="39">
-        <v>28</v>
-      </c>
-      <c r="AZ32" s="39">
+      <c r="AV32" s="39">
         <v>0.10639999999999999</v>
       </c>
-      <c r="BA32" s="39">
+      <c r="AW32" s="39">
         <v>0.96340000000000003</v>
       </c>
-      <c r="BB32" s="39">
+      <c r="AX32" s="39">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="BC32" s="40">
+      <c r="AY32" s="40">
         <v>0.98170000000000002</v>
       </c>
     </row>
-    <row r="33" spans="3:55" ht="15.75" thickBot="1">
+    <row r="33" spans="3:51" ht="15.75" thickBot="1">
       <c r="C33" s="32" t="s">
         <v>59</v>
       </c>
@@ -6872,42 +4903,38 @@
       <c r="G33" s="33">
         <v>0.98170000000000002</v>
       </c>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="42"/>
+      <c r="X33" s="39">
+        <v>29</v>
+      </c>
+      <c r="Y33" s="39">
+        <v>0.68740000000000001</v>
+      </c>
       <c r="Z33" s="39">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="AA33" s="39">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AB33" s="40">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="AU33" s="39">
         <v>29</v>
       </c>
-      <c r="AA33" s="39">
-        <v>0.68740000000000001</v>
-      </c>
-      <c r="AB33" s="39">
-        <v>0.58209999999999995</v>
-      </c>
-      <c r="AC33" s="39">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="AD33" s="40">
-        <v>0.76659999999999995</v>
-      </c>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="39">
-        <v>29</v>
-      </c>
-      <c r="AZ33" s="39">
+      <c r="AV33" s="39">
         <v>9.7699999999999995E-2</v>
       </c>
-      <c r="BA33" s="39">
+      <c r="AW33" s="39">
         <v>0.96930000000000005</v>
       </c>
-      <c r="BB33" s="39">
+      <c r="AX33" s="39">
         <v>6.3299999999999995E-2</v>
       </c>
-      <c r="BC33" s="40">
+      <c r="AY33" s="40">
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="34" spans="3:55" ht="15.75" thickBot="1">
+    <row r="34" spans="3:51" ht="15.75" thickBot="1">
       <c r="C34" s="32" t="s">
         <v>60</v>
       </c>
@@ -6923,42 +4950,38 @@
       <c r="G34" s="33">
         <v>0.98170000000000002</v>
       </c>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="42"/>
+      <c r="X34" s="39">
+        <v>30</v>
+      </c>
+      <c r="Y34" s="39">
+        <v>0.68600000000000005</v>
+      </c>
       <c r="Z34" s="39">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="AA34" s="39">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="AB34" s="40">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="AU34" s="39">
         <v>30</v>
       </c>
-      <c r="AA34" s="39">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="AB34" s="39">
-        <v>0.57909999999999995</v>
-      </c>
-      <c r="AC34" s="39">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="AD34" s="40">
-        <v>0.77180000000000004</v>
-      </c>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="42"/>
-      <c r="AY34" s="39">
-        <v>30</v>
-      </c>
-      <c r="AZ34" s="39">
+      <c r="AV34" s="39">
         <v>9.4600000000000004E-2</v>
       </c>
-      <c r="BA34" s="39">
+      <c r="AW34" s="39">
         <v>0.96970000000000001</v>
       </c>
-      <c r="BB34" s="39">
+      <c r="AX34" s="39">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="BC34" s="40">
+      <c r="AY34" s="40">
         <v>0.9778</v>
       </c>
     </row>
-    <row r="35" spans="3:55" ht="15.75" thickBot="1">
+    <row r="35" spans="3:51" ht="15.75" thickBot="1">
       <c r="C35" s="32" t="s">
         <v>61</v>
       </c>
@@ -6974,42 +4997,38 @@
       <c r="G35" s="33">
         <v>0.98040000000000005</v>
       </c>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="42"/>
+      <c r="X35" s="39">
+        <v>31</v>
+      </c>
+      <c r="Y35" s="39">
+        <v>0.6835</v>
+      </c>
       <c r="Z35" s="39">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="AA35" s="39">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="AB35" s="40">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AU35" s="39">
         <v>31</v>
       </c>
-      <c r="AA35" s="39">
-        <v>0.6835</v>
-      </c>
-      <c r="AB35" s="39">
-        <v>0.58730000000000004</v>
-      </c>
-      <c r="AC35" s="39">
-        <v>0.66120000000000001</v>
-      </c>
-      <c r="AD35" s="40">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="39">
-        <v>31</v>
-      </c>
-      <c r="AZ35" s="39">
+      <c r="AV35" s="39">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="BA35" s="39">
+      <c r="AW35" s="39">
         <v>0.97099999999999997</v>
       </c>
-      <c r="BB35" s="39">
+      <c r="AX35" s="39">
         <v>6.0600000000000001E-2</v>
       </c>
-      <c r="BC35" s="40">
+      <c r="AY35" s="40">
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="36" spans="3:55" ht="15.75" thickBot="1">
+    <row r="36" spans="3:51" ht="15.75" thickBot="1">
       <c r="C36" s="32" t="s">
         <v>62</v>
       </c>
@@ -7025,42 +5044,38 @@
       <c r="G36" s="33">
         <v>0.98309999999999997</v>
       </c>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="42"/>
+      <c r="X36" s="39">
+        <v>32</v>
+      </c>
+      <c r="Y36" s="39">
+        <v>0.6845</v>
+      </c>
       <c r="Z36" s="39">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="AA36" s="39">
+        <v>0.6603</v>
+      </c>
+      <c r="AB36" s="40">
+        <v>0.77310000000000001</v>
+      </c>
+      <c r="AU36" s="39">
         <v>32</v>
       </c>
-      <c r="AA36" s="39">
-        <v>0.6845</v>
-      </c>
-      <c r="AB36" s="39">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="AC36" s="39">
-        <v>0.6603</v>
-      </c>
-      <c r="AD36" s="40">
-        <v>0.77310000000000001</v>
-      </c>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="39">
-        <v>32</v>
-      </c>
-      <c r="AZ36" s="39">
+      <c r="AV36" s="39">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="BA36" s="39">
+      <c r="AW36" s="39">
         <v>0.96699999999999997</v>
       </c>
-      <c r="BB36" s="39">
+      <c r="AX36" s="39">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="BC36" s="40">
+      <c r="AY36" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:55" ht="15.75" thickBot="1">
+    <row r="37" spans="3:51" ht="15.75" thickBot="1">
       <c r="C37" s="32" t="s">
         <v>63</v>
       </c>
@@ -7076,42 +5091,38 @@
       <c r="G37" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="42"/>
+      <c r="X37" s="39">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="39">
+        <v>0.69069999999999998</v>
+      </c>
       <c r="Z37" s="39">
+        <v>0.56689999999999996</v>
+      </c>
+      <c r="AA37" s="39">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="AB37" s="40">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="AU37" s="39">
         <v>33</v>
       </c>
-      <c r="AA37" s="39">
-        <v>0.69069999999999998</v>
-      </c>
-      <c r="AB37" s="39">
-        <v>0.56689999999999996</v>
-      </c>
-      <c r="AC37" s="39">
-        <v>0.65939999999999999</v>
-      </c>
-      <c r="AD37" s="40">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="AW37" s="41"/>
-      <c r="AX37" s="42"/>
-      <c r="AY37" s="39">
-        <v>33</v>
-      </c>
-      <c r="AZ37" s="39">
+      <c r="AV37" s="39">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="BA37" s="39">
+      <c r="AW37" s="39">
         <v>0.96930000000000005</v>
       </c>
-      <c r="BB37" s="39">
+      <c r="AX37" s="39">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="BC37" s="40">
+      <c r="AY37" s="40">
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="38" spans="3:55" ht="15.75" thickBot="1">
+    <row r="38" spans="3:51" ht="15.75" thickBot="1">
       <c r="C38" s="32" t="s">
         <v>64</v>
       </c>
@@ -7127,42 +5138,38 @@
       <c r="G38" s="33">
         <v>0.98170000000000002</v>
       </c>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="42"/>
+      <c r="X38" s="39">
+        <v>34</v>
+      </c>
+      <c r="Y38" s="39">
+        <v>0.68559999999999999</v>
+      </c>
       <c r="Z38" s="39">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="AA38" s="39">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AB38" s="40">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="AU38" s="39">
         <v>34</v>
       </c>
-      <c r="AA38" s="39">
-        <v>0.68559999999999999</v>
-      </c>
-      <c r="AB38" s="39">
-        <v>0.58309999999999995</v>
-      </c>
-      <c r="AC38" s="39">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="AD38" s="40">
-        <v>0.77439999999999998</v>
-      </c>
-      <c r="AW38" s="41"/>
-      <c r="AX38" s="42"/>
-      <c r="AY38" s="39">
-        <v>34</v>
-      </c>
-      <c r="AZ38" s="39">
+      <c r="AV38" s="39">
         <v>8.9300000000000004E-2</v>
       </c>
-      <c r="BA38" s="39">
+      <c r="AW38" s="39">
         <v>0.97130000000000005</v>
       </c>
-      <c r="BB38" s="39">
+      <c r="AX38" s="39">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="BC38" s="40">
+      <c r="AY38" s="40">
         <v>0.98440000000000005</v>
       </c>
     </row>
-    <row r="39" spans="3:55" ht="15.75" thickBot="1">
+    <row r="39" spans="3:51" ht="15.75" thickBot="1">
       <c r="C39" s="32" t="s">
         <v>65</v>
       </c>
@@ -7178,42 +5185,38 @@
       <c r="G39" s="33">
         <v>0.98170000000000002</v>
       </c>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="42"/>
+      <c r="X39" s="39">
+        <v>35</v>
+      </c>
+      <c r="Y39" s="39">
+        <v>0.67849999999999999</v>
+      </c>
       <c r="Z39" s="39">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="AA39" s="39">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="AB39" s="40">
+        <v>0.77569999999999995</v>
+      </c>
+      <c r="AU39" s="39">
         <v>35</v>
       </c>
-      <c r="AA39" s="39">
-        <v>0.67849999999999999</v>
-      </c>
-      <c r="AB39" s="39">
-        <v>0.59360000000000002</v>
-      </c>
-      <c r="AC39" s="39">
-        <v>0.65749999999999997</v>
-      </c>
-      <c r="AD39" s="40">
-        <v>0.77569999999999995</v>
-      </c>
-      <c r="AW39" s="41"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="39">
-        <v>35</v>
-      </c>
-      <c r="AZ39" s="39">
+      <c r="AV39" s="39">
         <v>8.77E-2</v>
       </c>
-      <c r="BA39" s="39">
+      <c r="AW39" s="39">
         <v>0.97230000000000005</v>
       </c>
-      <c r="BB39" s="39">
+      <c r="AX39" s="39">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="BC39" s="40">
+      <c r="AY39" s="40">
         <v>0.98440000000000005</v>
       </c>
     </row>
-    <row r="40" spans="3:55" ht="15.75" thickBot="1">
+    <row r="40" spans="3:51" ht="15.75" thickBot="1">
       <c r="C40" s="32" t="s">
         <v>66</v>
       </c>
@@ -7229,42 +5232,38 @@
       <c r="G40" s="33">
         <v>0.98309999999999997</v>
       </c>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="42"/>
+      <c r="X40" s="39">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="39">
+        <v>0.68240000000000001</v>
+      </c>
       <c r="Z40" s="39">
+        <v>0.59509999999999996</v>
+      </c>
+      <c r="AA40" s="39">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="AB40" s="40">
+        <v>0.7823</v>
+      </c>
+      <c r="AU40" s="39">
         <v>36</v>
       </c>
-      <c r="AA40" s="39">
-        <v>0.68240000000000001</v>
-      </c>
-      <c r="AB40" s="39">
-        <v>0.59509999999999996</v>
-      </c>
-      <c r="AC40" s="39">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="AD40" s="40">
-        <v>0.7823</v>
-      </c>
-      <c r="AW40" s="41"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="39">
-        <v>36</v>
-      </c>
-      <c r="AZ40" s="39">
+      <c r="AV40" s="39">
         <v>9.01E-2</v>
       </c>
-      <c r="BA40" s="39">
+      <c r="AW40" s="39">
         <v>0.97170000000000001</v>
       </c>
-      <c r="BB40" s="39">
+      <c r="AX40" s="39">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="BC40" s="40">
+      <c r="AY40" s="40">
         <v>0.98309999999999997</v>
       </c>
     </row>
-    <row r="41" spans="3:55" ht="15.75" thickBot="1">
+    <row r="41" spans="3:51" ht="15.75" thickBot="1">
       <c r="C41" s="32" t="s">
         <v>67</v>
       </c>
@@ -7280,42 +5279,38 @@
       <c r="G41" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="42"/>
+      <c r="X41" s="39">
+        <v>37</v>
+      </c>
+      <c r="Y41" s="39">
+        <v>0.67920000000000003</v>
+      </c>
       <c r="Z41" s="39">
+        <v>0.6028</v>
+      </c>
+      <c r="AA41" s="39">
+        <v>0.65569999999999995</v>
+      </c>
+      <c r="AB41" s="40">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="AU41" s="39">
         <v>37</v>
       </c>
-      <c r="AA41" s="39">
-        <v>0.67920000000000003</v>
-      </c>
-      <c r="AB41" s="39">
-        <v>0.6028</v>
-      </c>
-      <c r="AC41" s="39">
-        <v>0.65569999999999995</v>
-      </c>
-      <c r="AD41" s="40">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="AW41" s="41"/>
-      <c r="AX41" s="42"/>
-      <c r="AY41" s="39">
-        <v>37</v>
-      </c>
-      <c r="AZ41" s="39">
+      <c r="AV41" s="39">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="BA41" s="39">
+      <c r="AW41" s="39">
         <v>0.97070000000000001</v>
       </c>
-      <c r="BB41" s="39">
+      <c r="AX41" s="39">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="BC41" s="40">
+      <c r="AY41" s="40">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="42" spans="3:55" ht="15.75" thickBot="1">
+    <row r="42" spans="3:51" ht="15.75" thickBot="1">
       <c r="C42" s="32" t="s">
         <v>68</v>
       </c>
@@ -7331,42 +5326,38 @@
       <c r="G42" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="42"/>
+      <c r="X42" s="39">
+        <v>38</v>
+      </c>
+      <c r="Y42" s="39">
+        <v>0.6794</v>
+      </c>
       <c r="Z42" s="39">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="AA42" s="39">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="AB42" s="40">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="AU42" s="39">
         <v>38</v>
       </c>
-      <c r="AA42" s="39">
-        <v>0.6794</v>
-      </c>
-      <c r="AB42" s="39">
-        <v>0.60219999999999996</v>
-      </c>
-      <c r="AC42" s="39">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="AD42" s="40">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="AW42" s="41"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="39">
-        <v>38</v>
-      </c>
-      <c r="AZ42" s="39">
+      <c r="AV42" s="39">
         <v>8.3099999999999993E-2</v>
       </c>
-      <c r="BA42" s="39">
+      <c r="AW42" s="39">
         <v>0.97299999999999998</v>
       </c>
-      <c r="BB42" s="39">
+      <c r="AX42" s="39">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="BC42" s="40">
+      <c r="AY42" s="40">
         <v>0.98440000000000005</v>
       </c>
     </row>
-    <row r="43" spans="3:55" ht="15.75" thickBot="1">
+    <row r="43" spans="3:51" ht="15.75" thickBot="1">
       <c r="C43" s="32" t="s">
         <v>69</v>
       </c>
@@ -7382,42 +5373,38 @@
       <c r="G43" s="33">
         <v>0.98440000000000005</v>
       </c>
-      <c r="X43" s="41"/>
-      <c r="Y43" s="42"/>
+      <c r="X43" s="39">
+        <v>39</v>
+      </c>
+      <c r="Y43" s="39">
+        <v>0.68169999999999997</v>
+      </c>
       <c r="Z43" s="39">
+        <v>0.59719999999999995</v>
+      </c>
+      <c r="AA43" s="39">
+        <v>0.65390000000000004</v>
+      </c>
+      <c r="AB43" s="40">
+        <v>0.78620000000000001</v>
+      </c>
+      <c r="AU43" s="39">
         <v>39</v>
       </c>
-      <c r="AA43" s="39">
-        <v>0.68169999999999997</v>
-      </c>
-      <c r="AB43" s="39">
-        <v>0.59719999999999995</v>
-      </c>
-      <c r="AC43" s="39">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="AD43" s="40">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="AW43" s="41"/>
-      <c r="AX43" s="42"/>
-      <c r="AY43" s="39">
-        <v>39</v>
-      </c>
-      <c r="AZ43" s="39">
+      <c r="AV43" s="39">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="BA43" s="39">
+      <c r="AW43" s="39">
         <v>0.96840000000000004</v>
       </c>
-      <c r="BB43" s="39">
+      <c r="AX43" s="39">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="BC43" s="40">
+      <c r="AY43" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="44" spans="3:55" ht="15.75" thickBot="1">
+    <row r="44" spans="3:51" ht="15.75" thickBot="1">
       <c r="C44" s="32" t="s">
         <v>70</v>
       </c>
@@ -7433,42 +5420,38 @@
       <c r="G44" s="33">
         <v>0.98440000000000005</v>
       </c>
-      <c r="X44" s="41"/>
-      <c r="Y44" s="42"/>
+      <c r="X44" s="39">
+        <v>40</v>
+      </c>
+      <c r="Y44" s="39">
+        <v>0.67769999999999997</v>
+      </c>
       <c r="Z44" s="39">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="AA44" s="39">
+        <v>0.65310000000000001</v>
+      </c>
+      <c r="AB44" s="40">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="AU44" s="39">
         <v>40</v>
       </c>
-      <c r="AA44" s="39">
-        <v>0.67769999999999997</v>
-      </c>
-      <c r="AB44" s="39">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="AC44" s="39">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="AD44" s="40">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="AW44" s="41"/>
-      <c r="AX44" s="42"/>
-      <c r="AY44" s="39">
-        <v>40</v>
-      </c>
-      <c r="AZ44" s="39">
+      <c r="AV44" s="39">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="BA44" s="39">
+      <c r="AW44" s="39">
         <v>0.97260000000000002</v>
       </c>
-      <c r="BB44" s="39">
+      <c r="AX44" s="39">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="BC44" s="40">
+      <c r="AY44" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="45" spans="3:55" ht="15.75" thickBot="1">
+    <row r="45" spans="3:51" ht="15.75" thickBot="1">
       <c r="C45" s="32" t="s">
         <v>71</v>
       </c>
@@ -7484,42 +5467,38 @@
       <c r="G45" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X45" s="41"/>
-      <c r="Y45" s="42"/>
+      <c r="X45" s="39">
+        <v>41</v>
+      </c>
+      <c r="Y45" s="39">
+        <v>0.67589999999999995</v>
+      </c>
       <c r="Z45" s="39">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="AA45" s="39">
+        <v>0.6522</v>
+      </c>
+      <c r="AB45" s="40">
+        <v>0.78879999999999995</v>
+      </c>
+      <c r="AU45" s="39">
         <v>41</v>
       </c>
-      <c r="AA45" s="39">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="AB45" s="39">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="AC45" s="39">
-        <v>0.6522</v>
-      </c>
-      <c r="AD45" s="40">
-        <v>0.78879999999999995</v>
-      </c>
-      <c r="AW45" s="41"/>
-      <c r="AX45" s="42"/>
-      <c r="AY45" s="39">
-        <v>41</v>
-      </c>
-      <c r="AZ45" s="39">
+      <c r="AV45" s="39">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="BA45" s="39">
+      <c r="AW45" s="39">
         <v>0.97199999999999998</v>
       </c>
-      <c r="BB45" s="39">
+      <c r="AX45" s="39">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="BC45" s="40">
+      <c r="AY45" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="46" spans="3:55" ht="15.75" thickBot="1">
+    <row r="46" spans="3:51" ht="15.75" thickBot="1">
       <c r="C46" s="32" t="s">
         <v>72</v>
       </c>
@@ -7535,42 +5514,38 @@
       <c r="G46" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="42"/>
+      <c r="X46" s="39">
+        <v>42</v>
+      </c>
+      <c r="Y46" s="39">
+        <v>0.67589999999999995</v>
+      </c>
       <c r="Z46" s="39">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="AA46" s="39">
+        <v>0.65129999999999999</v>
+      </c>
+      <c r="AB46" s="40">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="AU46" s="39">
         <v>42</v>
       </c>
-      <c r="AA46" s="39">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="AB46" s="39">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="AC46" s="39">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="AD46" s="40">
-        <v>0.79279999999999995</v>
-      </c>
-      <c r="AW46" s="41"/>
-      <c r="AX46" s="42"/>
-      <c r="AY46" s="39">
-        <v>42</v>
-      </c>
-      <c r="AZ46" s="39">
+      <c r="AV46" s="39">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="BA46" s="39">
+      <c r="AW46" s="39">
         <v>0.97199999999999998</v>
       </c>
-      <c r="BB46" s="39">
+      <c r="AX46" s="39">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="BC46" s="40">
+      <c r="AY46" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="47" spans="3:55" ht="15.75" thickBot="1">
+    <row r="47" spans="3:51" ht="15.75" thickBot="1">
       <c r="C47" s="32" t="s">
         <v>73</v>
       </c>
@@ -7586,42 +5561,38 @@
       <c r="G47" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X47" s="41"/>
-      <c r="Y47" s="42"/>
+      <c r="X47" s="39">
+        <v>43</v>
+      </c>
+      <c r="Y47" s="39">
+        <v>0.67430000000000001</v>
+      </c>
       <c r="Z47" s="39">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="AA47" s="39">
+        <v>0.65039999999999998</v>
+      </c>
+      <c r="AB47" s="40">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AU47" s="39">
         <v>43</v>
       </c>
-      <c r="AA47" s="39">
-        <v>0.67430000000000001</v>
-      </c>
-      <c r="AB47" s="39">
-        <v>0.61819999999999997</v>
-      </c>
-      <c r="AC47" s="39">
-        <v>0.65039999999999998</v>
-      </c>
-      <c r="AD47" s="40">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="AW47" s="41"/>
-      <c r="AX47" s="42"/>
-      <c r="AY47" s="39">
-        <v>43</v>
-      </c>
-      <c r="AZ47" s="39">
+      <c r="AV47" s="39">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="BA47" s="39">
+      <c r="AW47" s="39">
         <v>0.97689999999999999</v>
       </c>
-      <c r="BB47" s="39">
+      <c r="AX47" s="39">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="BC47" s="40">
+      <c r="AY47" s="40">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="48" spans="3:55" ht="15.75" thickBot="1">
+    <row r="48" spans="3:51" ht="15.75" thickBot="1">
       <c r="C48" s="32" t="s">
         <v>74</v>
       </c>
@@ -7637,42 +5608,38 @@
       <c r="G48" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="42"/>
+      <c r="X48" s="39">
+        <v>44</v>
+      </c>
+      <c r="Y48" s="39">
+        <v>0.67530000000000001</v>
+      </c>
       <c r="Z48" s="39">
+        <v>0.6119</v>
+      </c>
+      <c r="AA48" s="39">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="AB48" s="40">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AU48" s="39">
         <v>44</v>
       </c>
-      <c r="AA48" s="39">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="AB48" s="39">
-        <v>0.6119</v>
-      </c>
-      <c r="AC48" s="39">
-        <v>0.64959999999999996</v>
-      </c>
-      <c r="AD48" s="40">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="AW48" s="41"/>
-      <c r="AX48" s="42"/>
-      <c r="AY48" s="39">
-        <v>44</v>
-      </c>
-      <c r="AZ48" s="39">
+      <c r="AV48" s="39">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="BA48" s="39">
+      <c r="AW48" s="39">
         <v>0.97360000000000002</v>
       </c>
-      <c r="BB48" s="39">
+      <c r="AX48" s="39">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="BC48" s="40">
+      <c r="AY48" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="49" spans="3:55" ht="15.75" thickBot="1">
+    <row r="49" spans="3:51" ht="15.75" thickBot="1">
       <c r="C49" s="32" t="s">
         <v>75</v>
       </c>
@@ -7688,42 +5655,38 @@
       <c r="G49" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X49" s="41"/>
-      <c r="Y49" s="42"/>
+      <c r="X49" s="39">
+        <v>45</v>
+      </c>
+      <c r="Y49" s="39">
+        <v>0.67620000000000002</v>
+      </c>
       <c r="Z49" s="39">
+        <v>0.61480000000000001</v>
+      </c>
+      <c r="AA49" s="39">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="AB49" s="40">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="AU49" s="39">
         <v>45</v>
       </c>
-      <c r="AA49" s="39">
-        <v>0.67620000000000002</v>
-      </c>
-      <c r="AB49" s="39">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="AC49" s="39">
-        <v>0.64870000000000005</v>
-      </c>
-      <c r="AD49" s="40">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="AW49" s="41"/>
-      <c r="AX49" s="42"/>
-      <c r="AY49" s="39">
-        <v>45</v>
-      </c>
-      <c r="AZ49" s="39">
+      <c r="AV49" s="39">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="BA49" s="39">
+      <c r="AW49" s="39">
         <v>0.97560000000000002</v>
       </c>
-      <c r="BB49" s="39">
+      <c r="AX49" s="39">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="BC49" s="40">
+      <c r="AY49" s="40">
         <v>0.98440000000000005</v>
       </c>
     </row>
-    <row r="50" spans="3:55" ht="15.75" thickBot="1">
+    <row r="50" spans="3:51" ht="15.75" thickBot="1">
       <c r="C50" s="32" t="s">
         <v>76</v>
       </c>
@@ -7739,42 +5702,38 @@
       <c r="G50" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="42"/>
+      <c r="X50" s="39">
+        <v>46</v>
+      </c>
+      <c r="Y50" s="39">
+        <v>0.67269999999999996</v>
+      </c>
       <c r="Z50" s="39">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="AA50" s="39">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="AB50" s="40">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AU50" s="39">
         <v>46</v>
       </c>
-      <c r="AA50" s="39">
-        <v>0.67269999999999996</v>
-      </c>
-      <c r="AB50" s="39">
-        <v>0.62080000000000002</v>
-      </c>
-      <c r="AC50" s="39">
-        <v>0.64790000000000003</v>
-      </c>
-      <c r="AD50" s="40">
-        <v>0.79669999999999996</v>
-      </c>
-      <c r="AW50" s="41"/>
-      <c r="AX50" s="42"/>
-      <c r="AY50" s="39">
-        <v>46</v>
-      </c>
-      <c r="AZ50" s="39">
+      <c r="AV50" s="39">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="BA50" s="39">
+      <c r="AW50" s="39">
         <v>0.97750000000000004</v>
       </c>
-      <c r="BB50" s="39">
+      <c r="AX50" s="39">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="BC50" s="40">
+      <c r="AY50" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="51" spans="3:55" ht="15.75" thickBot="1">
+    <row r="51" spans="3:51" ht="15.75" thickBot="1">
       <c r="C51" s="32" t="s">
         <v>77</v>
       </c>
@@ -7790,42 +5749,38 @@
       <c r="G51" s="33">
         <v>0.98570000000000002</v>
       </c>
-      <c r="X51" s="41"/>
-      <c r="Y51" s="42"/>
+      <c r="X51" s="39">
+        <v>47</v>
+      </c>
+      <c r="Y51" s="39">
+        <v>0.67490000000000006</v>
+      </c>
       <c r="Z51" s="39">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="AA51" s="39">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="AB51" s="40">
+        <v>0.79669999999999996</v>
+      </c>
+      <c r="AU51" s="39">
         <v>47</v>
       </c>
-      <c r="AA51" s="39">
-        <v>0.67490000000000006</v>
-      </c>
-      <c r="AB51" s="39">
-        <v>0.61860000000000004</v>
-      </c>
-      <c r="AC51" s="39">
-        <v>0.64710000000000001</v>
-      </c>
-      <c r="AD51" s="40">
-        <v>0.79669999999999996</v>
-      </c>
-      <c r="AW51" s="41"/>
-      <c r="AX51" s="42"/>
-      <c r="AY51" s="39">
-        <v>47</v>
-      </c>
-      <c r="AZ51" s="39">
+      <c r="AV51" s="39">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="BA51" s="39">
+      <c r="AW51" s="39">
         <v>0.97460000000000002</v>
       </c>
-      <c r="BB51" s="39">
+      <c r="AX51" s="39">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="BC51" s="40">
+      <c r="AY51" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="52" spans="3:55" ht="15.75" thickBot="1">
+    <row r="52" spans="3:51" ht="15.75" thickBot="1">
       <c r="C52" s="32" t="s">
         <v>78</v>
       </c>
@@ -7841,42 +5796,38 @@
       <c r="G52" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="42"/>
+      <c r="X52" s="39">
+        <v>48</v>
+      </c>
+      <c r="Y52" s="39">
+        <v>0.67410000000000003</v>
+      </c>
       <c r="Z52" s="39">
+        <v>0.61629999999999996</v>
+      </c>
+      <c r="AA52" s="39">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="AB52" s="40">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AU52" s="39">
         <v>48</v>
       </c>
-      <c r="AA52" s="39">
-        <v>0.67410000000000003</v>
-      </c>
-      <c r="AB52" s="39">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="AC52" s="39">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="AD52" s="40">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="AW52" s="41"/>
-      <c r="AX52" s="42"/>
-      <c r="AY52" s="39">
-        <v>48</v>
-      </c>
-      <c r="AZ52" s="39">
+      <c r="AV52" s="39">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="BA52" s="39">
+      <c r="AW52" s="39">
         <v>0.97589999999999999</v>
       </c>
-      <c r="BB52" s="39">
+      <c r="AX52" s="39">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="BC52" s="40">
+      <c r="AY52" s="40">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="53" spans="3:55" ht="15.75" thickBot="1">
+    <row r="53" spans="3:51" ht="15.75" thickBot="1">
       <c r="C53" s="32" t="s">
         <v>79</v>
       </c>
@@ -7892,42 +5843,38 @@
       <c r="G53" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="42"/>
+      <c r="X53" s="39">
+        <v>49</v>
+      </c>
+      <c r="Y53" s="39">
+        <v>0.6754</v>
+      </c>
       <c r="Z53" s="39">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="AA53" s="39">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="AB53" s="40">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="AU53" s="39">
         <v>49</v>
       </c>
-      <c r="AA53" s="39">
-        <v>0.6754</v>
-      </c>
-      <c r="AB53" s="39">
-        <v>0.61509999999999998</v>
-      </c>
-      <c r="AC53" s="39">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="AD53" s="40">
-        <v>0.79930000000000001</v>
-      </c>
-      <c r="AW53" s="41"/>
-      <c r="AX53" s="42"/>
-      <c r="AY53" s="39">
-        <v>49</v>
-      </c>
-      <c r="AZ53" s="39">
+      <c r="AV53" s="39">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="BA53" s="39">
+      <c r="AW53" s="39">
         <v>0.97519999999999996</v>
       </c>
-      <c r="BB53" s="39">
+      <c r="AX53" s="39">
         <v>4.1799999999999997E-2</v>
       </c>
-      <c r="BC53" s="40">
+      <c r="AY53" s="40">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="54" spans="3:55" ht="15.75" thickBot="1">
+    <row r="54" spans="3:51" ht="15.75" thickBot="1">
       <c r="C54" s="32" t="s">
         <v>80</v>
       </c>
@@ -7943,42 +5890,38 @@
       <c r="G54" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="42"/>
+      <c r="X54" s="39">
+        <v>50</v>
+      </c>
+      <c r="Y54" s="39">
+        <v>0.67179999999999995</v>
+      </c>
       <c r="Z54" s="39">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="AA54" s="39">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="AB54" s="40">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="AU54" s="39">
         <v>50</v>
       </c>
-      <c r="AA54" s="39">
-        <v>0.67179999999999995</v>
-      </c>
-      <c r="AB54" s="39">
-        <v>0.62080000000000002</v>
-      </c>
-      <c r="AC54" s="39">
-        <v>0.64459999999999995</v>
-      </c>
-      <c r="AD54" s="40">
-        <v>0.79930000000000001</v>
-      </c>
-      <c r="AW54" s="41"/>
-      <c r="AX54" s="42"/>
-      <c r="AY54" s="39">
-        <v>50</v>
-      </c>
-      <c r="AZ54" s="39">
+      <c r="AV54" s="39">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="BA54" s="39">
+      <c r="AW54" s="39">
         <v>0.97789999999999999</v>
       </c>
-      <c r="BB54" s="39">
+      <c r="AX54" s="39">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="BC54" s="40">
+      <c r="AY54" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:55" ht="15.75" thickBot="1">
+    <row r="55" spans="3:51" ht="15.75" thickBot="1">
       <c r="C55" s="32" t="s">
         <v>81</v>
       </c>
@@ -7994,42 +5937,38 @@
       <c r="G55" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X55" s="41"/>
-      <c r="Y55" s="42"/>
+      <c r="X55" s="39">
+        <v>51</v>
+      </c>
+      <c r="Y55" s="39">
+        <v>0.66810000000000003</v>
+      </c>
       <c r="Z55" s="39">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="AA55" s="39">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="AB55" s="40">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AU55" s="39">
         <v>51</v>
       </c>
-      <c r="AA55" s="39">
-        <v>0.66810000000000003</v>
-      </c>
-      <c r="AB55" s="39">
-        <v>0.63260000000000005</v>
-      </c>
-      <c r="AC55" s="39">
-        <v>0.64380000000000004</v>
-      </c>
-      <c r="AD55" s="40">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="AW55" s="41"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="39">
-        <v>51</v>
-      </c>
-      <c r="AZ55" s="39">
+      <c r="AV55" s="39">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="BA55" s="39">
+      <c r="AW55" s="39">
         <v>0.97419999999999995</v>
       </c>
-      <c r="BB55" s="39">
+      <c r="AX55" s="39">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="BC55" s="40">
+      <c r="AY55" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="56" spans="3:55" ht="15.75" thickBot="1">
+    <row r="56" spans="3:51" ht="15.75" thickBot="1">
       <c r="C56" s="32" t="s">
         <v>82</v>
       </c>
@@ -8045,42 +5984,38 @@
       <c r="G56" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="42"/>
+      <c r="X56" s="39">
+        <v>52</v>
+      </c>
+      <c r="Y56" s="39">
+        <v>0.66820000000000002</v>
+      </c>
       <c r="Z56" s="39">
+        <v>0.62829999999999997</v>
+      </c>
+      <c r="AA56" s="39">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="AB56" s="40">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AU56" s="39">
         <v>52</v>
       </c>
-      <c r="AA56" s="39">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="AB56" s="39">
-        <v>0.62829999999999997</v>
-      </c>
-      <c r="AC56" s="39">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="AD56" s="40">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="AW56" s="41"/>
-      <c r="AX56" s="42"/>
-      <c r="AY56" s="39">
-        <v>52</v>
-      </c>
-      <c r="AZ56" s="39">
+      <c r="AV56" s="39">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="BA56" s="39">
+      <c r="AW56" s="39">
         <v>0.97560000000000002</v>
       </c>
-      <c r="BB56" s="39">
+      <c r="AX56" s="39">
         <v>3.95E-2</v>
       </c>
-      <c r="BC56" s="40">
+      <c r="AY56" s="40">
         <v>0.98570000000000002</v>
       </c>
     </row>
-    <row r="57" spans="3:55" ht="15.75" thickBot="1">
+    <row r="57" spans="3:51" ht="15.75" thickBot="1">
       <c r="C57" s="32" t="s">
         <v>83</v>
       </c>
@@ -8096,42 +6031,38 @@
       <c r="G57" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X57" s="41"/>
-      <c r="Y57" s="42"/>
+      <c r="X57" s="39">
+        <v>53</v>
+      </c>
+      <c r="Y57" s="39">
+        <v>0.66639999999999999</v>
+      </c>
       <c r="Z57" s="39">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="AA57" s="39">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="AB57" s="40">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AU57" s="39">
         <v>53</v>
       </c>
-      <c r="AA57" s="39">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="AB57" s="39">
-        <v>0.63170000000000004</v>
-      </c>
-      <c r="AC57" s="39">
-        <v>0.64219999999999999</v>
-      </c>
-      <c r="AD57" s="40">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="AW57" s="41"/>
-      <c r="AX57" s="42"/>
-      <c r="AY57" s="39">
-        <v>53</v>
-      </c>
-      <c r="AZ57" s="39">
+      <c r="AV57" s="39">
         <v>6.93E-2</v>
       </c>
-      <c r="BA57" s="39">
+      <c r="AW57" s="39">
         <v>0.97650000000000003</v>
       </c>
-      <c r="BB57" s="39">
+      <c r="AX57" s="39">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="BC57" s="40">
+      <c r="AY57" s="40">
         <v>0.98829999999999996</v>
       </c>
     </row>
-    <row r="58" spans="3:55" ht="15.75" thickBot="1">
+    <row r="58" spans="3:51" ht="15.75" thickBot="1">
       <c r="C58" s="32" t="s">
         <v>84</v>
       </c>
@@ -8147,42 +6078,38 @@
       <c r="G58" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="42"/>
+      <c r="X58" s="39">
+        <v>54</v>
+      </c>
+      <c r="Y58" s="39">
+        <v>0.66830000000000001</v>
+      </c>
       <c r="Z58" s="39">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="AA58" s="39">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="AB58" s="40">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="AU58" s="39">
         <v>54</v>
       </c>
-      <c r="AA58" s="39">
-        <v>0.66830000000000001</v>
-      </c>
-      <c r="AB58" s="39">
-        <v>0.62860000000000005</v>
-      </c>
-      <c r="AC58" s="39">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="AD58" s="40">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="AW58" s="41"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="39">
-        <v>54</v>
-      </c>
-      <c r="AZ58" s="39">
+      <c r="AV58" s="39">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="BA58" s="39">
+      <c r="AW58" s="39">
         <v>0.97950000000000004</v>
       </c>
-      <c r="BB58" s="39">
+      <c r="AX58" s="39">
         <v>4.07E-2</v>
       </c>
-      <c r="BC58" s="40">
+      <c r="AY58" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="59" spans="3:55" ht="15.75" thickBot="1">
+    <row r="59" spans="3:51" ht="15.75" thickBot="1">
       <c r="C59" s="32" t="s">
         <v>85</v>
       </c>
@@ -8198,42 +6125,38 @@
       <c r="G59" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X59" s="41"/>
-      <c r="Y59" s="42"/>
+      <c r="X59" s="39">
+        <v>55</v>
+      </c>
+      <c r="Y59" s="39">
+        <v>0.66359999999999997</v>
+      </c>
       <c r="Z59" s="39">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AA59" s="39">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="AB59" s="40">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AU59" s="39">
         <v>55</v>
       </c>
-      <c r="AA59" s="39">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="AB59" s="39">
-        <v>0.63339999999999996</v>
-      </c>
-      <c r="AC59" s="39">
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="AD59" s="40">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AW59" s="41"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="39">
-        <v>55</v>
-      </c>
-      <c r="AZ59" s="39">
+      <c r="AV59" s="39">
         <v>6.8199999999999997E-2</v>
       </c>
-      <c r="BA59" s="39">
+      <c r="AW59" s="39">
         <v>0.97789999999999999</v>
       </c>
-      <c r="BB59" s="39">
+      <c r="AX59" s="39">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="BC59" s="40">
+      <c r="AY59" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="60" spans="3:55" ht="15.75" thickBot="1">
+    <row r="60" spans="3:51" ht="15.75" thickBot="1">
       <c r="C60" s="32" t="s">
         <v>86</v>
       </c>
@@ -8249,42 +6172,38 @@
       <c r="G60" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X60" s="41"/>
-      <c r="Y60" s="42"/>
+      <c r="X60" s="39">
+        <v>56</v>
+      </c>
+      <c r="Y60" s="39">
+        <v>0.66290000000000004</v>
+      </c>
       <c r="Z60" s="39">
+        <v>0.63429999999999997</v>
+      </c>
+      <c r="AA60" s="39">
+        <v>0.64</v>
+      </c>
+      <c r="AB60" s="40">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AU60" s="39">
         <v>56</v>
       </c>
-      <c r="AA60" s="39">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="AB60" s="39">
-        <v>0.63429999999999997</v>
-      </c>
-      <c r="AC60" s="39">
-        <v>0.64</v>
-      </c>
-      <c r="AD60" s="40">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="AW60" s="41"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="39">
-        <v>56</v>
-      </c>
-      <c r="AZ60" s="39">
+      <c r="AV60" s="39">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="BA60" s="39">
+      <c r="AW60" s="39">
         <v>0.97760000000000002</v>
       </c>
-      <c r="BB60" s="39">
+      <c r="AX60" s="39">
         <v>3.95E-2</v>
       </c>
-      <c r="BC60" s="40">
+      <c r="AY60" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="61" spans="3:55" ht="15.75" thickBot="1">
+    <row r="61" spans="3:51" ht="15.75" thickBot="1">
       <c r="C61" s="32" t="s">
         <v>87</v>
       </c>
@@ -8300,42 +6219,38 @@
       <c r="G61" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X61" s="41"/>
-      <c r="Y61" s="42"/>
+      <c r="X61" s="39">
+        <v>57</v>
+      </c>
+      <c r="Y61" s="39">
+        <v>0.66290000000000004</v>
+      </c>
       <c r="Z61" s="39">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AA61" s="39">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="AB61" s="40">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="AU61" s="39">
         <v>57</v>
       </c>
-      <c r="AA61" s="39">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="AB61" s="39">
-        <v>0.63570000000000004</v>
-      </c>
-      <c r="AC61" s="39">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="AD61" s="40">
-        <v>0.80330000000000001</v>
-      </c>
-      <c r="AW61" s="41"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="39">
-        <v>57</v>
-      </c>
-      <c r="AZ61" s="39">
+      <c r="AV61" s="39">
         <v>6.88E-2</v>
       </c>
-      <c r="BA61" s="39">
+      <c r="AW61" s="39">
         <v>0.97719999999999996</v>
       </c>
-      <c r="BB61" s="39">
+      <c r="AX61" s="39">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="BC61" s="40">
+      <c r="AY61" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="62" spans="3:55" ht="15.75" thickBot="1">
+    <row r="62" spans="3:51" ht="15.75" thickBot="1">
       <c r="C62" s="32" t="s">
         <v>88</v>
       </c>
@@ -8351,42 +6266,38 @@
       <c r="G62" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X62" s="41"/>
-      <c r="Y62" s="42"/>
+      <c r="X62" s="39">
+        <v>58</v>
+      </c>
+      <c r="Y62" s="39">
+        <v>0.66169999999999995</v>
+      </c>
       <c r="Z62" s="39">
+        <v>0.63490000000000002</v>
+      </c>
+      <c r="AA62" s="39">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="AB62" s="40">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="AU62" s="39">
         <v>58</v>
       </c>
-      <c r="AA62" s="39">
-        <v>0.66169999999999995</v>
-      </c>
-      <c r="AB62" s="39">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="AC62" s="39">
-        <v>0.63859999999999995</v>
-      </c>
-      <c r="AD62" s="40">
-        <v>0.80330000000000001</v>
-      </c>
-      <c r="AW62" s="41"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="39">
-        <v>58</v>
-      </c>
-      <c r="AZ62" s="39">
+      <c r="AV62" s="39">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="BA62" s="39">
+      <c r="AW62" s="39">
         <v>0.97719999999999996</v>
       </c>
-      <c r="BB62" s="39">
+      <c r="AX62" s="39">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="BC62" s="40">
+      <c r="AY62" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="63" spans="3:55" ht="15.75" thickBot="1">
+    <row r="63" spans="3:51" ht="15.75" thickBot="1">
       <c r="C63" s="32" t="s">
         <v>89</v>
       </c>
@@ -8402,42 +6313,38 @@
       <c r="G63" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="42"/>
+      <c r="X63" s="39">
+        <v>59</v>
+      </c>
+      <c r="Y63" s="39">
+        <v>0.66069999999999995</v>
+      </c>
       <c r="Z63" s="39">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="AA63" s="39">
+        <v>0.63780000000000003</v>
+      </c>
+      <c r="AB63" s="40">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AU63" s="39">
         <v>59</v>
       </c>
-      <c r="AA63" s="39">
-        <v>0.66069999999999995</v>
-      </c>
-      <c r="AB63" s="39">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="AC63" s="39">
-        <v>0.63780000000000003</v>
-      </c>
-      <c r="AD63" s="40">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="AW63" s="41"/>
-      <c r="AX63" s="42"/>
-      <c r="AY63" s="39">
-        <v>59</v>
-      </c>
-      <c r="AZ63" s="39">
+      <c r="AV63" s="39">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="BA63" s="39">
+      <c r="AW63" s="39">
         <v>0.97919999999999996</v>
       </c>
-      <c r="BB63" s="39">
+      <c r="AX63" s="39">
         <v>3.6200000000000003E-2</v>
       </c>
-      <c r="BC63" s="40">
+      <c r="AY63" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="64" spans="3:55" ht="15.75" thickBot="1">
+    <row r="64" spans="3:51" ht="15.75" thickBot="1">
       <c r="C64" s="32" t="s">
         <v>90</v>
       </c>
@@ -8453,42 +6360,38 @@
       <c r="G64" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="42"/>
+      <c r="X64" s="39">
+        <v>60</v>
+      </c>
+      <c r="Y64" s="39">
+        <v>0.66139999999999999</v>
+      </c>
       <c r="Z64" s="39">
+        <v>0.6371</v>
+      </c>
+      <c r="AA64" s="39">
+        <v>0.6371</v>
+      </c>
+      <c r="AB64" s="40">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AU64" s="39">
         <v>60</v>
       </c>
-      <c r="AA64" s="39">
-        <v>0.66139999999999999</v>
-      </c>
-      <c r="AB64" s="39">
-        <v>0.6371</v>
-      </c>
-      <c r="AC64" s="39">
-        <v>0.6371</v>
-      </c>
-      <c r="AD64" s="40">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="AW64" s="41"/>
-      <c r="AX64" s="42"/>
-      <c r="AY64" s="39">
-        <v>60</v>
-      </c>
-      <c r="AZ64" s="39">
+      <c r="AV64" s="39">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="BA64" s="39">
+      <c r="AW64" s="39">
         <v>0.97819999999999996</v>
       </c>
-      <c r="BB64" s="39">
+      <c r="AX64" s="39">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="BC64" s="40">
+      <c r="AY64" s="40">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="65" spans="3:55" ht="15.75" thickBot="1">
+    <row r="65" spans="3:51" ht="15.75" thickBot="1">
       <c r="C65" s="32" t="s">
         <v>91</v>
       </c>
@@ -8504,42 +6407,38 @@
       <c r="G65" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="42"/>
+      <c r="X65" s="39">
+        <v>61</v>
+      </c>
+      <c r="Y65" s="39">
+        <v>0.65949999999999998</v>
+      </c>
       <c r="Z65" s="39">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="AA65" s="39">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="AB65" s="40">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AU65" s="39">
         <v>61</v>
       </c>
-      <c r="AA65" s="39">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="AB65" s="39">
-        <v>0.63829999999999998</v>
-      </c>
-      <c r="AC65" s="39">
-        <v>0.63639999999999997</v>
-      </c>
-      <c r="AD65" s="40">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="AW65" s="41"/>
-      <c r="AX65" s="42"/>
-      <c r="AY65" s="39">
-        <v>61</v>
-      </c>
-      <c r="AZ65" s="39">
+      <c r="AV65" s="39">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="BA65" s="39">
+      <c r="AW65" s="39">
         <v>0.97860000000000003</v>
       </c>
-      <c r="BB65" s="39">
+      <c r="AX65" s="39">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="BC65" s="40">
+      <c r="AY65" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="66" spans="3:55" ht="15.75" thickBot="1">
+    <row r="66" spans="3:51" ht="15.75" thickBot="1">
       <c r="C66" s="32" t="s">
         <v>92</v>
       </c>
@@ -8555,42 +6454,38 @@
       <c r="G66" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="42"/>
+      <c r="X66" s="39">
+        <v>62</v>
+      </c>
+      <c r="Y66" s="39">
+        <v>0.65880000000000005</v>
+      </c>
       <c r="Z66" s="39">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="AA66" s="39">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="AB66" s="40">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="AU66" s="39">
         <v>62</v>
       </c>
-      <c r="AA66" s="39">
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="AB66" s="39">
-        <v>0.64239999999999997</v>
-      </c>
-      <c r="AC66" s="39">
-        <v>0.63570000000000004</v>
-      </c>
-      <c r="AD66" s="40">
-        <v>0.80459999999999998</v>
-      </c>
-      <c r="AW66" s="41"/>
-      <c r="AX66" s="42"/>
-      <c r="AY66" s="39">
-        <v>62</v>
-      </c>
-      <c r="AZ66" s="39">
+      <c r="AV66" s="39">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="BA66" s="39">
+      <c r="AW66" s="39">
         <v>0.97889999999999999</v>
       </c>
-      <c r="BB66" s="39">
+      <c r="AX66" s="39">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="BC66" s="40">
+      <c r="AY66" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="67" spans="3:55" ht="15.75" thickBot="1">
+    <row r="67" spans="3:51" ht="15.75" thickBot="1">
       <c r="C67" s="32" t="s">
         <v>93</v>
       </c>
@@ -8606,42 +6501,38 @@
       <c r="G67" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="42"/>
+      <c r="X67" s="39">
+        <v>63</v>
+      </c>
+      <c r="Y67" s="39">
+        <v>0.65880000000000005</v>
+      </c>
       <c r="Z67" s="39">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="AA67" s="39">
+        <v>0.6351</v>
+      </c>
+      <c r="AB67" s="40">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="AU67" s="39">
         <v>63</v>
       </c>
-      <c r="AA67" s="39">
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="AB67" s="39">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="AC67" s="39">
-        <v>0.6351</v>
-      </c>
-      <c r="AD67" s="40">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="AW67" s="41"/>
-      <c r="AX67" s="42"/>
-      <c r="AY67" s="39">
-        <v>63</v>
-      </c>
-      <c r="AZ67" s="39">
+      <c r="AV67" s="39">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="BA67" s="39">
+      <c r="AW67" s="39">
         <v>0.97819999999999996</v>
       </c>
-      <c r="BB67" s="39">
+      <c r="AX67" s="39">
         <v>3.6400000000000002E-2</v>
       </c>
-      <c r="BC67" s="40">
+      <c r="AY67" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="68" spans="3:55" ht="15.75" thickBot="1">
+    <row r="68" spans="3:51" ht="15.75" thickBot="1">
       <c r="C68" s="32" t="s">
         <v>94</v>
       </c>
@@ -8657,42 +6548,38 @@
       <c r="G68" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X68" s="41"/>
-      <c r="Y68" s="42"/>
+      <c r="X68" s="39">
+        <v>64</v>
+      </c>
+      <c r="Y68" s="39">
+        <v>0.65739999999999998</v>
+      </c>
       <c r="Z68" s="39">
+        <v>0.6421</v>
+      </c>
+      <c r="AA68" s="39">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="AB68" s="40">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="AU68" s="39">
         <v>64</v>
       </c>
-      <c r="AA68" s="39">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="AB68" s="39">
-        <v>0.6421</v>
-      </c>
-      <c r="AC68" s="39">
-        <v>0.63439999999999996</v>
-      </c>
-      <c r="AD68" s="40">
-        <v>0.80589999999999995</v>
-      </c>
-      <c r="AW68" s="41"/>
-      <c r="AX68" s="42"/>
-      <c r="AY68" s="39">
-        <v>64</v>
-      </c>
-      <c r="AZ68" s="39">
+      <c r="AV68" s="39">
         <v>6.4799999999999996E-2</v>
       </c>
-      <c r="BA68" s="39">
+      <c r="AW68" s="39">
         <v>0.97860000000000003</v>
       </c>
-      <c r="BB68" s="39">
+      <c r="AX68" s="39">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="BC68" s="40">
+      <c r="AY68" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="69" spans="3:55" ht="15.75" thickBot="1">
+    <row r="69" spans="3:51" ht="15.75" thickBot="1">
       <c r="C69" s="32" t="s">
         <v>95</v>
       </c>
@@ -8708,42 +6595,38 @@
       <c r="G69" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X69" s="41"/>
-      <c r="Y69" s="42"/>
+      <c r="X69" s="39">
+        <v>65</v>
+      </c>
+      <c r="Y69" s="39">
+        <v>0.65820000000000001</v>
+      </c>
       <c r="Z69" s="39">
+        <v>0.6421</v>
+      </c>
+      <c r="AA69" s="39">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="AB69" s="40">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AU69" s="39">
         <v>65</v>
       </c>
-      <c r="AA69" s="39">
-        <v>0.65820000000000001</v>
-      </c>
-      <c r="AB69" s="39">
-        <v>0.6421</v>
-      </c>
-      <c r="AC69" s="39">
-        <v>0.63370000000000004</v>
-      </c>
-      <c r="AD69" s="40">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="AW69" s="41"/>
-      <c r="AX69" s="42"/>
-      <c r="AY69" s="39">
-        <v>65</v>
-      </c>
-      <c r="AZ69" s="39">
+      <c r="AV69" s="39">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="BA69" s="39">
+      <c r="AW69" s="39">
         <v>0.97989999999999999</v>
       </c>
-      <c r="BB69" s="39">
+      <c r="AX69" s="39">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="BC69" s="40">
+      <c r="AY69" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="70" spans="3:55" ht="15.75" thickBot="1">
+    <row r="70" spans="3:51" ht="15.75" thickBot="1">
       <c r="C70" s="32" t="s">
         <v>96</v>
       </c>
@@ -8759,42 +6642,38 @@
       <c r="G70" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X70" s="41"/>
-      <c r="Y70" s="42"/>
+      <c r="X70" s="39">
+        <v>66</v>
+      </c>
+      <c r="Y70" s="39">
+        <v>0.65429999999999999</v>
+      </c>
       <c r="Z70" s="39">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="AA70" s="39">
+        <v>0.6331</v>
+      </c>
+      <c r="AB70" s="40">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AU70" s="39">
         <v>66</v>
       </c>
-      <c r="AA70" s="39">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="AB70" s="39">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="AC70" s="39">
-        <v>0.6331</v>
-      </c>
-      <c r="AD70" s="40">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="AW70" s="41"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="39">
-        <v>66</v>
-      </c>
-      <c r="AZ70" s="39">
+      <c r="AV70" s="39">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="BA70" s="39">
+      <c r="AW70" s="39">
         <v>0.97960000000000003</v>
       </c>
-      <c r="BB70" s="39">
+      <c r="AX70" s="39">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="BC70" s="40">
+      <c r="AY70" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="71" spans="3:55" ht="15.75" thickBot="1">
+    <row r="71" spans="3:51" ht="15.75" thickBot="1">
       <c r="C71" s="32" t="s">
         <v>97</v>
       </c>
@@ -8810,42 +6689,38 @@
       <c r="G71" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X71" s="41"/>
-      <c r="Y71" s="42"/>
+      <c r="X71" s="39">
+        <v>67</v>
+      </c>
+      <c r="Y71" s="39">
+        <v>0.65569999999999995</v>
+      </c>
       <c r="Z71" s="39">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="AA71" s="39">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="AB71" s="40">
+        <v>0.80720000000000003</v>
+      </c>
+      <c r="AU71" s="39">
         <v>67</v>
       </c>
-      <c r="AA71" s="39">
-        <v>0.65569999999999995</v>
-      </c>
-      <c r="AB71" s="39">
-        <v>0.64770000000000005</v>
-      </c>
-      <c r="AC71" s="39">
-        <v>0.63239999999999996</v>
-      </c>
-      <c r="AD71" s="40">
-        <v>0.80720000000000003</v>
-      </c>
-      <c r="AW71" s="41"/>
-      <c r="AX71" s="42"/>
-      <c r="AY71" s="39">
-        <v>67</v>
-      </c>
-      <c r="AZ71" s="39">
+      <c r="AV71" s="39">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="BA71" s="39">
+      <c r="AW71" s="39">
         <v>0.98019999999999996</v>
       </c>
-      <c r="BB71" s="39">
+      <c r="AX71" s="39">
         <v>3.4200000000000001E-2</v>
       </c>
-      <c r="BC71" s="40">
+      <c r="AY71" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="72" spans="3:55" ht="15.75" thickBot="1">
+    <row r="72" spans="3:51" ht="15.75" thickBot="1">
       <c r="C72" s="32" t="s">
         <v>98</v>
       </c>
@@ -8861,42 +6736,38 @@
       <c r="G72" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X72" s="41"/>
-      <c r="Y72" s="42"/>
+      <c r="X72" s="39">
+        <v>68</v>
+      </c>
+      <c r="Y72" s="39">
+        <v>0.65469999999999995</v>
+      </c>
       <c r="Z72" s="39">
+        <v>0.64349999999999996</v>
+      </c>
+      <c r="AA72" s="39">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="AB72" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU72" s="39">
         <v>68</v>
       </c>
-      <c r="AA72" s="39">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="AB72" s="39">
-        <v>0.64349999999999996</v>
-      </c>
-      <c r="AC72" s="39">
-        <v>0.63180000000000003</v>
-      </c>
-      <c r="AD72" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW72" s="41"/>
-      <c r="AX72" s="42"/>
-      <c r="AY72" s="39">
-        <v>68</v>
-      </c>
-      <c r="AZ72" s="39">
+      <c r="AV72" s="39">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="BA72" s="39">
+      <c r="AW72" s="39">
         <v>0.98019999999999996</v>
       </c>
-      <c r="BB72" s="39">
+      <c r="AX72" s="39">
         <v>3.4099999999999998E-2</v>
       </c>
-      <c r="BC72" s="40">
+      <c r="AY72" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="73" spans="3:55" ht="15.75" thickBot="1">
+    <row r="73" spans="3:51" ht="15.75" thickBot="1">
       <c r="C73" s="32" t="s">
         <v>99</v>
       </c>
@@ -8912,42 +6783,38 @@
       <c r="G73" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="42"/>
+      <c r="X73" s="39">
+        <v>69</v>
+      </c>
+      <c r="Y73" s="39">
+        <v>0.65490000000000004</v>
+      </c>
       <c r="Z73" s="39">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="AA73" s="39">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="AB73" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU73" s="39">
         <v>69</v>
       </c>
-      <c r="AA73" s="39">
-        <v>0.65490000000000004</v>
-      </c>
-      <c r="AB73" s="39">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="AC73" s="39">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AD73" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW73" s="41"/>
-      <c r="AX73" s="42"/>
-      <c r="AY73" s="39">
-        <v>69</v>
-      </c>
-      <c r="AZ73" s="39">
+      <c r="AV73" s="39">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="BA73" s="39">
+      <c r="AW73" s="39">
         <v>0.97989999999999999</v>
       </c>
-      <c r="BB73" s="39">
+      <c r="AX73" s="39">
         <v>3.4599999999999999E-2</v>
       </c>
-      <c r="BC73" s="40">
+      <c r="AY73" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="74" spans="3:55" ht="15.75" thickBot="1">
+    <row r="74" spans="3:51" ht="15.75" thickBot="1">
       <c r="C74" s="32" t="s">
         <v>100</v>
       </c>
@@ -8963,42 +6830,38 @@
       <c r="G74" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X74" s="41"/>
-      <c r="Y74" s="42"/>
+      <c r="X74" s="39">
+        <v>70</v>
+      </c>
+      <c r="Y74" s="39">
+        <v>0.65329999999999999</v>
+      </c>
       <c r="Z74" s="39">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="AA74" s="39">
+        <v>0.63049999999999995</v>
+      </c>
+      <c r="AB74" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU74" s="39">
         <v>70</v>
       </c>
-      <c r="AA74" s="39">
-        <v>0.65329999999999999</v>
-      </c>
-      <c r="AB74" s="39">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="AC74" s="39">
-        <v>0.63049999999999995</v>
-      </c>
-      <c r="AD74" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW74" s="41"/>
-      <c r="AX74" s="42"/>
-      <c r="AY74" s="39">
-        <v>70</v>
-      </c>
-      <c r="AZ74" s="39">
+      <c r="AV74" s="39">
         <v>5.8099999999999999E-2</v>
       </c>
-      <c r="BA74" s="39">
+      <c r="AW74" s="39">
         <v>0.97960000000000003</v>
       </c>
-      <c r="BB74" s="39">
+      <c r="AX74" s="39">
         <v>3.3500000000000002E-2</v>
       </c>
-      <c r="BC74" s="40">
+      <c r="AY74" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="75" spans="3:55" ht="15.75" thickBot="1">
+    <row r="75" spans="3:51" ht="15.75" thickBot="1">
       <c r="C75" s="32" t="s">
         <v>101</v>
       </c>
@@ -9014,42 +6877,38 @@
       <c r="G75" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="42"/>
+      <c r="X75" s="39">
+        <v>71</v>
+      </c>
+      <c r="Y75" s="39">
+        <v>0.65310000000000001</v>
+      </c>
       <c r="Z75" s="39">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="AA75" s="39">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="AB75" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU75" s="39">
         <v>71</v>
       </c>
-      <c r="AA75" s="39">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="AB75" s="39">
-        <v>0.64770000000000005</v>
-      </c>
-      <c r="AC75" s="39">
-        <v>0.62990000000000002</v>
-      </c>
-      <c r="AD75" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW75" s="41"/>
-      <c r="AX75" s="42"/>
-      <c r="AY75" s="39">
-        <v>71</v>
-      </c>
-      <c r="AZ75" s="39">
+      <c r="AV75" s="39">
         <v>5.96E-2</v>
       </c>
-      <c r="BA75" s="39">
+      <c r="AW75" s="39">
         <v>0.98060000000000003</v>
       </c>
-      <c r="BB75" s="39">
+      <c r="AX75" s="39">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="BC75" s="40">
+      <c r="AY75" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="76" spans="3:55" ht="15.75" thickBot="1">
+    <row r="76" spans="3:51" ht="15.75" thickBot="1">
       <c r="C76" s="32" t="s">
         <v>102</v>
       </c>
@@ -9065,42 +6924,38 @@
       <c r="G76" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="42"/>
+      <c r="X76" s="39">
+        <v>72</v>
+      </c>
+      <c r="Y76" s="39">
+        <v>0.65029999999999999</v>
+      </c>
       <c r="Z76" s="39">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="AA76" s="39">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="AB76" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU76" s="39">
         <v>72</v>
       </c>
-      <c r="AA76" s="39">
-        <v>0.65029999999999999</v>
-      </c>
-      <c r="AB76" s="39">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="AC76" s="39">
-        <v>0.62919999999999998</v>
-      </c>
-      <c r="AD76" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW76" s="41"/>
-      <c r="AX76" s="42"/>
-      <c r="AY76" s="39">
-        <v>72</v>
-      </c>
-      <c r="AZ76" s="39">
+      <c r="AV76" s="39">
         <v>5.91E-2</v>
       </c>
-      <c r="BA76" s="39">
+      <c r="AW76" s="39">
         <v>0.97960000000000003</v>
       </c>
-      <c r="BB76" s="39">
+      <c r="AX76" s="39">
         <v>3.32E-2</v>
       </c>
-      <c r="BC76" s="40">
+      <c r="AY76" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="77" spans="3:55" ht="15.75" thickBot="1">
+    <row r="77" spans="3:51" ht="15.75" thickBot="1">
       <c r="C77" s="32" t="s">
         <v>103</v>
       </c>
@@ -9116,42 +6971,38 @@
       <c r="G77" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X77" s="41"/>
-      <c r="Y77" s="42"/>
+      <c r="X77" s="39">
+        <v>73</v>
+      </c>
+      <c r="Y77" s="39">
+        <v>0.65139999999999998</v>
+      </c>
       <c r="Z77" s="39">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="AA77" s="39">
+        <v>0.62860000000000005</v>
+      </c>
+      <c r="AB77" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU77" s="39">
         <v>73</v>
       </c>
-      <c r="AA77" s="39">
-        <v>0.65139999999999998</v>
-      </c>
-      <c r="AB77" s="39">
-        <v>0.64690000000000003</v>
-      </c>
-      <c r="AC77" s="39">
-        <v>0.62860000000000005</v>
-      </c>
-      <c r="AD77" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW77" s="41"/>
-      <c r="AX77" s="42"/>
-      <c r="AY77" s="39">
-        <v>73</v>
-      </c>
-      <c r="AZ77" s="39">
+      <c r="AV77" s="39">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="BA77" s="39">
+      <c r="AW77" s="39">
         <v>0.97989999999999999</v>
       </c>
-      <c r="BB77" s="39">
+      <c r="AX77" s="39">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="BC77" s="40">
+      <c r="AY77" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="78" spans="3:55" ht="15.75" thickBot="1">
+    <row r="78" spans="3:51" ht="15.75" thickBot="1">
       <c r="C78" s="32" t="s">
         <v>104</v>
       </c>
@@ -9167,42 +7018,38 @@
       <c r="G78" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="42"/>
+      <c r="X78" s="39">
+        <v>74</v>
+      </c>
+      <c r="Y78" s="39">
+        <v>0.64859999999999995</v>
+      </c>
       <c r="Z78" s="39">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AA78" s="39">
+        <v>0.628</v>
+      </c>
+      <c r="AB78" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU78" s="39">
         <v>74</v>
       </c>
-      <c r="AA78" s="39">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="AB78" s="39">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="AC78" s="39">
-        <v>0.628</v>
-      </c>
-      <c r="AD78" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW78" s="41"/>
-      <c r="AX78" s="42"/>
-      <c r="AY78" s="39">
-        <v>74</v>
-      </c>
-      <c r="AZ78" s="39">
+      <c r="AV78" s="39">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="BA78" s="39">
+      <c r="AW78" s="39">
         <v>0.97919999999999996</v>
       </c>
-      <c r="BB78" s="39">
+      <c r="AX78" s="39">
         <v>3.3099999999999997E-2</v>
       </c>
-      <c r="BC78" s="40">
+      <c r="AY78" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="79" spans="3:55" ht="15.75" thickBot="1">
+    <row r="79" spans="3:51" ht="15.75" thickBot="1">
       <c r="C79" s="32" t="s">
         <v>105</v>
       </c>
@@ -9218,42 +7065,38 @@
       <c r="G79" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X79" s="41"/>
-      <c r="Y79" s="42"/>
+      <c r="X79" s="39">
+        <v>75</v>
+      </c>
+      <c r="Y79" s="39">
+        <v>0.65129999999999999</v>
+      </c>
       <c r="Z79" s="39">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="AA79" s="39">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="AB79" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU79" s="39">
         <v>75</v>
       </c>
-      <c r="AA79" s="39">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="AB79" s="39">
-        <v>0.64939999999999998</v>
-      </c>
-      <c r="AC79" s="39">
-        <v>0.62739999999999996</v>
-      </c>
-      <c r="AD79" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW79" s="41"/>
-      <c r="AX79" s="42"/>
-      <c r="AY79" s="39">
-        <v>75</v>
-      </c>
-      <c r="AZ79" s="39">
+      <c r="AV79" s="39">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="BA79" s="39">
+      <c r="AW79" s="39">
         <v>0.9819</v>
       </c>
-      <c r="BB79" s="39">
+      <c r="AX79" s="39">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="BC79" s="40">
+      <c r="AY79" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="80" spans="3:55" ht="15.75" thickBot="1">
+    <row r="80" spans="3:51" ht="15.75" thickBot="1">
       <c r="C80" s="32" t="s">
         <v>106</v>
       </c>
@@ -9269,42 +7112,38 @@
       <c r="G80" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X80" s="41"/>
-      <c r="Y80" s="42"/>
+      <c r="X80" s="39">
+        <v>76</v>
+      </c>
+      <c r="Y80" s="39">
+        <v>0.64900000000000002</v>
+      </c>
       <c r="Z80" s="39">
+        <v>0.65349999999999997</v>
+      </c>
+      <c r="AA80" s="39">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="AB80" s="40">
+        <v>0.8085</v>
+      </c>
+      <c r="AU80" s="39">
         <v>76</v>
       </c>
-      <c r="AA80" s="39">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="AB80" s="39">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="AC80" s="39">
-        <v>0.62670000000000003</v>
-      </c>
-      <c r="AD80" s="40">
-        <v>0.8085</v>
-      </c>
-      <c r="AW80" s="41"/>
-      <c r="AX80" s="42"/>
-      <c r="AY80" s="39">
-        <v>76</v>
-      </c>
-      <c r="AZ80" s="39">
+      <c r="AV80" s="39">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="BA80" s="39">
+      <c r="AW80" s="39">
         <v>0.98019999999999996</v>
       </c>
-      <c r="BB80" s="39">
+      <c r="AX80" s="39">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="BC80" s="40">
+      <c r="AY80" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="81" spans="3:55" ht="15.75" thickBot="1">
+    <row r="81" spans="3:51" ht="15.75" thickBot="1">
       <c r="C81" s="32" t="s">
         <v>107</v>
       </c>
@@ -9320,42 +7159,38 @@
       <c r="G81" s="33">
         <v>0.98640000000000005</v>
       </c>
-      <c r="X81" s="41"/>
-      <c r="Y81" s="42"/>
+      <c r="X81" s="39">
+        <v>77</v>
+      </c>
+      <c r="Y81" s="39">
+        <v>0.64780000000000004</v>
+      </c>
       <c r="Z81" s="39">
+        <v>0.65410000000000001</v>
+      </c>
+      <c r="AA81" s="39">
+        <v>0.62609999999999999</v>
+      </c>
+      <c r="AB81" s="40">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AU81" s="39">
         <v>77</v>
       </c>
-      <c r="AA81" s="39">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="AB81" s="39">
-        <v>0.65410000000000001</v>
-      </c>
-      <c r="AC81" s="39">
-        <v>0.62609999999999999</v>
-      </c>
-      <c r="AD81" s="40">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="AW81" s="41"/>
-      <c r="AX81" s="42"/>
-      <c r="AY81" s="39">
-        <v>77</v>
-      </c>
-      <c r="AZ81" s="39">
+      <c r="AV81" s="39">
         <v>5.67E-2</v>
       </c>
-      <c r="BA81" s="39">
+      <c r="AW81" s="39">
         <v>0.97960000000000003</v>
       </c>
-      <c r="BB81" s="39">
+      <c r="AX81" s="39">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="BC81" s="40">
+      <c r="AY81" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="82" spans="3:55" ht="15.75" thickBot="1">
+    <row r="82" spans="3:51" ht="15.75" thickBot="1">
       <c r="C82" s="32" t="s">
         <v>108</v>
       </c>
@@ -9371,42 +7206,38 @@
       <c r="G82" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="42"/>
+      <c r="X82" s="39">
+        <v>78</v>
+      </c>
+      <c r="Y82" s="39">
+        <v>0.64800000000000002</v>
+      </c>
       <c r="Z82" s="39">
+        <v>0.65159999999999996</v>
+      </c>
+      <c r="AA82" s="39">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="AB82" s="40">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AU82" s="39">
         <v>78</v>
       </c>
-      <c r="AA82" s="39">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="AB82" s="39">
-        <v>0.65159999999999996</v>
-      </c>
-      <c r="AC82" s="39">
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="AD82" s="40">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="AW82" s="41"/>
-      <c r="AX82" s="42"/>
-      <c r="AY82" s="39">
-        <v>78</v>
-      </c>
-      <c r="AZ82" s="39">
+      <c r="AV82" s="39">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="BA82" s="39">
+      <c r="AW82" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB82" s="39">
+      <c r="AX82" s="39">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="BC82" s="40">
+      <c r="AY82" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="83" spans="3:55" ht="15.75" thickBot="1">
+    <row r="83" spans="3:51" ht="15.75" thickBot="1">
       <c r="C83" s="32" t="s">
         <v>109</v>
       </c>
@@ -9422,42 +7253,38 @@
       <c r="G83" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="42"/>
+      <c r="X83" s="39">
+        <v>79</v>
+      </c>
+      <c r="Y83" s="39">
+        <v>0.64970000000000006</v>
+      </c>
       <c r="Z83" s="39">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="AA83" s="39">
+        <v>0.625</v>
+      </c>
+      <c r="AB83" s="40">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AU83" s="39">
         <v>79</v>
       </c>
-      <c r="AA83" s="39">
-        <v>0.64970000000000006</v>
-      </c>
-      <c r="AB83" s="39">
-        <v>0.65080000000000005</v>
-      </c>
-      <c r="AC83" s="39">
-        <v>0.625</v>
-      </c>
-      <c r="AD83" s="40">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="AW83" s="41"/>
-      <c r="AX83" s="42"/>
-      <c r="AY83" s="39">
-        <v>79</v>
-      </c>
-      <c r="AZ83" s="39">
+      <c r="AV83" s="39">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="BA83" s="39">
+      <c r="AW83" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB83" s="39">
+      <c r="AX83" s="39">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="BC83" s="40">
+      <c r="AY83" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="84" spans="3:55" ht="15.75" thickBot="1">
+    <row r="84" spans="3:51" ht="15.75" thickBot="1">
       <c r="C84" s="32" t="s">
         <v>110</v>
       </c>
@@ -9473,42 +7300,38 @@
       <c r="G84" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="42"/>
+      <c r="X84" s="39">
+        <v>80</v>
+      </c>
+      <c r="Y84" s="39">
+        <v>0.64580000000000004</v>
+      </c>
       <c r="Z84" s="39">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="AA84" s="39">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="AB84" s="40">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AU84" s="39">
         <v>80</v>
       </c>
-      <c r="AA84" s="39">
-        <v>0.64580000000000004</v>
-      </c>
-      <c r="AB84" s="39">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="AC84" s="39">
-        <v>0.62439999999999996</v>
-      </c>
-      <c r="AD84" s="40">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="AW84" s="41"/>
-      <c r="AX84" s="42"/>
-      <c r="AY84" s="39">
-        <v>80</v>
-      </c>
-      <c r="AZ84" s="39">
+      <c r="AV84" s="39">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="BA84" s="39">
+      <c r="AW84" s="39">
         <v>0.97919999999999996</v>
       </c>
-      <c r="BB84" s="39">
+      <c r="AX84" s="39">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="BC84" s="40">
+      <c r="AY84" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="85" spans="3:55" ht="15.75" thickBot="1">
+    <row r="85" spans="3:51" ht="15.75" thickBot="1">
       <c r="C85" s="32" t="s">
         <v>111</v>
       </c>
@@ -9524,42 +7347,38 @@
       <c r="G85" s="33">
         <v>0.98699999999999999</v>
       </c>
-      <c r="X85" s="41"/>
-      <c r="Y85" s="42"/>
+      <c r="X85" s="39">
+        <v>81</v>
+      </c>
+      <c r="Y85" s="39">
+        <v>0.64659999999999995</v>
+      </c>
       <c r="Z85" s="39">
+        <v>0.6522</v>
+      </c>
+      <c r="AA85" s="39">
+        <v>0.62380000000000002</v>
+      </c>
+      <c r="AB85" s="40">
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="AU85" s="39">
         <v>81</v>
       </c>
-      <c r="AA85" s="39">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="AB85" s="39">
-        <v>0.6522</v>
-      </c>
-      <c r="AC85" s="39">
-        <v>0.62380000000000002</v>
-      </c>
-      <c r="AD85" s="40">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="AW85" s="41"/>
-      <c r="AX85" s="42"/>
-      <c r="AY85" s="39">
-        <v>81</v>
-      </c>
-      <c r="AZ85" s="39">
+      <c r="AV85" s="39">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="BA85" s="39">
+      <c r="AW85" s="39">
         <v>0.97989999999999999</v>
       </c>
-      <c r="BB85" s="39">
+      <c r="AX85" s="39">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="BC85" s="40">
+      <c r="AY85" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="86" spans="3:55" ht="15.75" thickBot="1">
+    <row r="86" spans="3:51" ht="15.75" thickBot="1">
       <c r="C86" s="32" t="s">
         <v>112</v>
       </c>
@@ -9575,42 +7394,38 @@
       <c r="G86" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X86" s="41"/>
-      <c r="Y86" s="42"/>
+      <c r="X86" s="39">
+        <v>82</v>
+      </c>
+      <c r="Y86" s="39">
+        <v>0.6482</v>
+      </c>
       <c r="Z86" s="39">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="AA86" s="39">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AB86" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU86" s="39">
         <v>82</v>
       </c>
-      <c r="AA86" s="39">
-        <v>0.6482</v>
-      </c>
-      <c r="AB86" s="39">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="AC86" s="39">
-        <v>0.62319999999999998</v>
-      </c>
-      <c r="AD86" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW86" s="41"/>
-      <c r="AX86" s="42"/>
-      <c r="AY86" s="39">
-        <v>82</v>
-      </c>
-      <c r="AZ86" s="39">
+      <c r="AV86" s="39">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="BA86" s="39">
+      <c r="AW86" s="39">
         <v>0.9819</v>
       </c>
-      <c r="BB86" s="39">
+      <c r="AX86" s="39">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="BC86" s="40">
+      <c r="AY86" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="87" spans="3:55" ht="15.75" thickBot="1">
+    <row r="87" spans="3:51" ht="15.75" thickBot="1">
       <c r="C87" s="32" t="s">
         <v>113</v>
       </c>
@@ -9626,42 +7441,38 @@
       <c r="G87" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X87" s="41"/>
-      <c r="Y87" s="42"/>
+      <c r="X87" s="39">
+        <v>83</v>
+      </c>
+      <c r="Y87" s="39">
+        <v>0.64459999999999995</v>
+      </c>
       <c r="Z87" s="39">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="AA87" s="39">
+        <v>0.62270000000000003</v>
+      </c>
+      <c r="AB87" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU87" s="39">
         <v>83</v>
       </c>
-      <c r="AA87" s="39">
-        <v>0.64459999999999995</v>
-      </c>
-      <c r="AB87" s="39">
-        <v>0.65620000000000001</v>
-      </c>
-      <c r="AC87" s="39">
-        <v>0.62270000000000003</v>
-      </c>
-      <c r="AD87" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW87" s="41"/>
-      <c r="AX87" s="42"/>
-      <c r="AY87" s="39">
-        <v>83</v>
-      </c>
-      <c r="AZ87" s="39">
+      <c r="AV87" s="39">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="BA87" s="39">
+      <c r="AW87" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB87" s="39">
+      <c r="AX87" s="39">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="BC87" s="40">
+      <c r="AY87" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="88" spans="3:55" ht="15.75" thickBot="1">
+    <row r="88" spans="3:51" ht="15.75" thickBot="1">
       <c r="C88" s="32" t="s">
         <v>114</v>
       </c>
@@ -9677,42 +7488,38 @@
       <c r="G88" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X88" s="41"/>
-      <c r="Y88" s="42"/>
+      <c r="X88" s="39">
+        <v>84</v>
+      </c>
+      <c r="Y88" s="39">
+        <v>0.64529999999999998</v>
+      </c>
       <c r="Z88" s="39">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="AA88" s="39">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="AB88" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU88" s="39">
         <v>84</v>
       </c>
-      <c r="AA88" s="39">
-        <v>0.64529999999999998</v>
-      </c>
-      <c r="AB88" s="39">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="AC88" s="39">
-        <v>0.62209999999999999</v>
-      </c>
-      <c r="AD88" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW88" s="41"/>
-      <c r="AX88" s="42"/>
-      <c r="AY88" s="39">
-        <v>84</v>
-      </c>
-      <c r="AZ88" s="39">
+      <c r="AV88" s="39">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="BA88" s="39">
+      <c r="AW88" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB88" s="39">
+      <c r="AX88" s="39">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="BC88" s="40">
+      <c r="AY88" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="89" spans="3:55" ht="15.75" thickBot="1">
+    <row r="89" spans="3:51" ht="15.75" thickBot="1">
       <c r="C89" s="32" t="s">
         <v>115</v>
       </c>
@@ -9728,42 +7535,38 @@
       <c r="G89" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="42"/>
+      <c r="X89" s="39">
+        <v>85</v>
+      </c>
+      <c r="Y89" s="39">
+        <v>0.64370000000000005</v>
+      </c>
       <c r="Z89" s="39">
+        <v>0.6573</v>
+      </c>
+      <c r="AA89" s="39">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="AB89" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU89" s="39">
         <v>85</v>
       </c>
-      <c r="AA89" s="39">
-        <v>0.64370000000000005</v>
-      </c>
-      <c r="AB89" s="39">
-        <v>0.6573</v>
-      </c>
-      <c r="AC89" s="39">
-        <v>0.62150000000000005</v>
-      </c>
-      <c r="AD89" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW89" s="41"/>
-      <c r="AX89" s="42"/>
-      <c r="AY89" s="39">
-        <v>85</v>
-      </c>
-      <c r="AZ89" s="39">
+      <c r="AV89" s="39">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="BA89" s="39">
+      <c r="AW89" s="39">
         <v>0.98019999999999996</v>
       </c>
-      <c r="BB89" s="39">
+      <c r="AX89" s="39">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="BC89" s="40">
+      <c r="AY89" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="90" spans="3:55" ht="15.75" thickBot="1">
+    <row r="90" spans="3:51" ht="15.75" thickBot="1">
       <c r="C90" s="32" t="s">
         <v>116</v>
       </c>
@@ -9779,42 +7582,38 @@
       <c r="G90" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X90" s="41"/>
-      <c r="Y90" s="42"/>
+      <c r="X90" s="39">
+        <v>86</v>
+      </c>
+      <c r="Y90" s="39">
+        <v>0.64229999999999998</v>
+      </c>
       <c r="Z90" s="39">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="AA90" s="39">
+        <v>0.621</v>
+      </c>
+      <c r="AB90" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU90" s="39">
         <v>86</v>
       </c>
-      <c r="AA90" s="39">
-        <v>0.64229999999999998</v>
-      </c>
-      <c r="AB90" s="39">
-        <v>0.66080000000000005</v>
-      </c>
-      <c r="AC90" s="39">
-        <v>0.621</v>
-      </c>
-      <c r="AD90" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW90" s="41"/>
-      <c r="AX90" s="42"/>
-      <c r="AY90" s="39">
-        <v>86</v>
-      </c>
-      <c r="AZ90" s="39">
+      <c r="AV90" s="39">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="BA90" s="39">
+      <c r="AW90" s="39">
         <v>0.98160000000000003</v>
       </c>
-      <c r="BB90" s="39">
+      <c r="AX90" s="39">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="BC90" s="40">
+      <c r="AY90" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="91" spans="3:55" ht="15.75" thickBot="1">
+    <row r="91" spans="3:51" ht="15.75" thickBot="1">
       <c r="C91" s="32" t="s">
         <v>117</v>
       </c>
@@ -9830,42 +7629,38 @@
       <c r="G91" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X91" s="41"/>
-      <c r="Y91" s="42"/>
+      <c r="X91" s="39">
+        <v>87</v>
+      </c>
+      <c r="Y91" s="39">
+        <v>0.64280000000000004</v>
+      </c>
       <c r="Z91" s="39">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="AA91" s="39">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="AB91" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU91" s="39">
         <v>87</v>
       </c>
-      <c r="AA91" s="39">
-        <v>0.64280000000000004</v>
-      </c>
-      <c r="AB91" s="39">
-        <v>0.65849999999999997</v>
-      </c>
-      <c r="AC91" s="39">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="AD91" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW91" s="41"/>
-      <c r="AX91" s="42"/>
-      <c r="AY91" s="39">
-        <v>87</v>
-      </c>
-      <c r="AZ91" s="39">
+      <c r="AV91" s="39">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="BA91" s="39">
+      <c r="AW91" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB91" s="39">
+      <c r="AX91" s="39">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="BC91" s="40">
+      <c r="AY91" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="92" spans="3:55" ht="15.75" thickBot="1">
+    <row r="92" spans="3:51" ht="15.75" thickBot="1">
       <c r="C92" s="32" t="s">
         <v>118</v>
       </c>
@@ -9881,42 +7676,38 @@
       <c r="G92" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X92" s="41"/>
-      <c r="Y92" s="42"/>
+      <c r="X92" s="39">
+        <v>88</v>
+      </c>
+      <c r="Y92" s="39">
+        <v>0.64370000000000005</v>
+      </c>
       <c r="Z92" s="39">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="AA92" s="39">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="AB92" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU92" s="39">
         <v>88</v>
       </c>
-      <c r="AA92" s="39">
-        <v>0.64370000000000005</v>
-      </c>
-      <c r="AB92" s="39">
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="AC92" s="39">
-        <v>0.61990000000000001</v>
-      </c>
-      <c r="AD92" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW92" s="41"/>
-      <c r="AX92" s="42"/>
-      <c r="AY92" s="39">
-        <v>88</v>
-      </c>
-      <c r="AZ92" s="39">
+      <c r="AV92" s="39">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="BA92" s="39">
+      <c r="AW92" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB92" s="39">
+      <c r="AX92" s="39">
         <v>3.15E-2</v>
       </c>
-      <c r="BC92" s="40">
+      <c r="AY92" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="93" spans="3:55" ht="15.75" thickBot="1">
+    <row r="93" spans="3:51" ht="15.75" thickBot="1">
       <c r="C93" s="32" t="s">
         <v>119</v>
       </c>
@@ -9932,42 +7723,38 @@
       <c r="G93" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="42"/>
+      <c r="X93" s="39">
+        <v>89</v>
+      </c>
+      <c r="Y93" s="39">
+        <v>0.64159999999999995</v>
+      </c>
       <c r="Z93" s="39">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="AA93" s="39">
+        <v>0.61929999999999996</v>
+      </c>
+      <c r="AB93" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU93" s="39">
         <v>89</v>
       </c>
-      <c r="AA93" s="39">
-        <v>0.64159999999999995</v>
-      </c>
-      <c r="AB93" s="39">
-        <v>0.66020000000000001</v>
-      </c>
-      <c r="AC93" s="39">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="AD93" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW93" s="41"/>
-      <c r="AX93" s="42"/>
-      <c r="AY93" s="39">
-        <v>89</v>
-      </c>
-      <c r="AZ93" s="39">
+      <c r="AV93" s="39">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="BA93" s="39">
+      <c r="AW93" s="39">
         <v>0.9819</v>
       </c>
-      <c r="BB93" s="39">
+      <c r="AX93" s="39">
         <v>3.09E-2</v>
       </c>
-      <c r="BC93" s="40">
+      <c r="AY93" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="94" spans="3:55" ht="15.75" thickBot="1">
+    <row r="94" spans="3:51" ht="15.75" thickBot="1">
       <c r="C94" s="32" t="s">
         <v>120</v>
       </c>
@@ -9983,42 +7770,38 @@
       <c r="G94" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X94" s="41"/>
-      <c r="Y94" s="42"/>
+      <c r="X94" s="39">
+        <v>90</v>
+      </c>
+      <c r="Y94" s="39">
+        <v>0.64280000000000004</v>
+      </c>
       <c r="Z94" s="39">
+        <v>0.65759999999999996</v>
+      </c>
+      <c r="AA94" s="39">
+        <v>0.61880000000000002</v>
+      </c>
+      <c r="AB94" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU94" s="39">
         <v>90</v>
       </c>
-      <c r="AA94" s="39">
-        <v>0.64280000000000004</v>
-      </c>
-      <c r="AB94" s="39">
-        <v>0.65759999999999996</v>
-      </c>
-      <c r="AC94" s="39">
-        <v>0.61880000000000002</v>
-      </c>
-      <c r="AD94" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW94" s="41"/>
-      <c r="AX94" s="42"/>
-      <c r="AY94" s="39">
-        <v>90</v>
-      </c>
-      <c r="AZ94" s="39">
+      <c r="AV94" s="39">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="BA94" s="39">
+      <c r="AW94" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB94" s="39">
+      <c r="AX94" s="39">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="BC94" s="40">
+      <c r="AY94" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="95" spans="3:55" ht="15.75" thickBot="1">
+    <row r="95" spans="3:51" ht="15.75" thickBot="1">
       <c r="C95" s="32" t="s">
         <v>121</v>
       </c>
@@ -10034,42 +7817,38 @@
       <c r="G95" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X95" s="41"/>
-      <c r="Y95" s="42"/>
+      <c r="X95" s="39">
+        <v>91</v>
+      </c>
+      <c r="Y95" s="39">
+        <v>0.63929999999999998</v>
+      </c>
       <c r="Z95" s="39">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="AA95" s="39">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="AB95" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU95" s="39">
         <v>91</v>
       </c>
-      <c r="AA95" s="39">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="AB95" s="39">
-        <v>0.66349999999999998</v>
-      </c>
-      <c r="AC95" s="39">
-        <v>0.61829999999999996</v>
-      </c>
-      <c r="AD95" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW95" s="41"/>
-      <c r="AX95" s="42"/>
-      <c r="AY95" s="39">
-        <v>91</v>
-      </c>
-      <c r="AZ95" s="39">
+      <c r="AV95" s="39">
         <v>5.5300000000000002E-2</v>
       </c>
-      <c r="BA95" s="39">
+      <c r="AW95" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB95" s="39">
+      <c r="AX95" s="39">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="BC95" s="40">
+      <c r="AY95" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="96" spans="3:55" ht="15.75" thickBot="1">
+    <row r="96" spans="3:51" ht="15.75" thickBot="1">
       <c r="C96" s="32" t="s">
         <v>122</v>
       </c>
@@ -10085,42 +7864,38 @@
       <c r="G96" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X96" s="41"/>
-      <c r="Y96" s="42"/>
+      <c r="X96" s="39">
+        <v>92</v>
+      </c>
+      <c r="Y96" s="39">
+        <v>0.63890000000000002</v>
+      </c>
       <c r="Z96" s="39">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="AA96" s="39">
+        <v>0.61770000000000003</v>
+      </c>
+      <c r="AB96" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU96" s="39">
         <v>92</v>
       </c>
-      <c r="AA96" s="39">
-        <v>0.63890000000000002</v>
-      </c>
-      <c r="AB96" s="39">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="AC96" s="39">
-        <v>0.61770000000000003</v>
-      </c>
-      <c r="AD96" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW96" s="41"/>
-      <c r="AX96" s="42"/>
-      <c r="AY96" s="39">
-        <v>92</v>
-      </c>
-      <c r="AZ96" s="39">
+      <c r="AV96" s="39">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="BA96" s="39">
+      <c r="AW96" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB96" s="39">
+      <c r="AX96" s="39">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="BC96" s="40">
+      <c r="AY96" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="97" spans="3:55" ht="15.75" thickBot="1">
+    <row r="97" spans="3:51" ht="15.75" thickBot="1">
       <c r="C97" s="32" t="s">
         <v>123</v>
       </c>
@@ -10136,42 +7911,38 @@
       <c r="G97" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X97" s="41"/>
-      <c r="Y97" s="42"/>
+      <c r="X97" s="39">
+        <v>93</v>
+      </c>
+      <c r="Y97" s="39">
+        <v>0.63949999999999996</v>
+      </c>
       <c r="Z97" s="39">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="AA97" s="39">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="AB97" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU97" s="39">
         <v>93</v>
       </c>
-      <c r="AA97" s="39">
-        <v>0.63949999999999996</v>
-      </c>
-      <c r="AB97" s="39">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="AC97" s="39">
-        <v>0.61719999999999997</v>
-      </c>
-      <c r="AD97" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW97" s="41"/>
-      <c r="AX97" s="42"/>
-      <c r="AY97" s="39">
-        <v>93</v>
-      </c>
-      <c r="AZ97" s="39">
+      <c r="AV97" s="39">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="BA97" s="39">
+      <c r="AW97" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB97" s="39">
+      <c r="AX97" s="39">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="BC97" s="40">
+      <c r="AY97" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="98" spans="3:55" ht="15.75" thickBot="1">
+    <row r="98" spans="3:51" ht="15.75" thickBot="1">
       <c r="C98" s="32" t="s">
         <v>124</v>
       </c>
@@ -10187,42 +7958,38 @@
       <c r="G98" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X98" s="41"/>
-      <c r="Y98" s="42"/>
+      <c r="X98" s="39">
+        <v>94</v>
+      </c>
+      <c r="Y98" s="39">
+        <v>0.63949999999999996</v>
+      </c>
       <c r="Z98" s="39">
+        <v>0.66290000000000004</v>
+      </c>
+      <c r="AA98" s="39">
+        <v>0.61660000000000004</v>
+      </c>
+      <c r="AB98" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU98" s="39">
         <v>94</v>
       </c>
-      <c r="AA98" s="39">
-        <v>0.63949999999999996</v>
-      </c>
-      <c r="AB98" s="39">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="AC98" s="39">
-        <v>0.61660000000000004</v>
-      </c>
-      <c r="AD98" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW98" s="41"/>
-      <c r="AX98" s="42"/>
-      <c r="AY98" s="39">
-        <v>94</v>
-      </c>
-      <c r="AZ98" s="39">
+      <c r="AV98" s="39">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="BA98" s="39">
+      <c r="AW98" s="39">
         <v>0.9819</v>
       </c>
-      <c r="BB98" s="39">
+      <c r="AX98" s="39">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="BC98" s="40">
+      <c r="AY98" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="99" spans="3:55" ht="15.75" thickBot="1">
+    <row r="99" spans="3:51" ht="15.75" thickBot="1">
       <c r="C99" s="32" t="s">
         <v>125</v>
       </c>
@@ -10238,42 +8005,38 @@
       <c r="G99" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X99" s="41"/>
-      <c r="Y99" s="42"/>
+      <c r="X99" s="39">
+        <v>95</v>
+      </c>
+      <c r="Y99" s="39">
+        <v>0.63759999999999994</v>
+      </c>
       <c r="Z99" s="39">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="AA99" s="39">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="AB99" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU99" s="39">
         <v>95</v>
       </c>
-      <c r="AA99" s="39">
-        <v>0.63759999999999994</v>
-      </c>
-      <c r="AB99" s="39">
-        <v>0.66510000000000002</v>
-      </c>
-      <c r="AC99" s="39">
-        <v>0.61609999999999998</v>
-      </c>
-      <c r="AD99" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW99" s="41"/>
-      <c r="AX99" s="42"/>
-      <c r="AY99" s="39">
-        <v>95</v>
-      </c>
-      <c r="AZ99" s="39">
+      <c r="AV99" s="39">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="BA99" s="39">
+      <c r="AW99" s="39">
         <v>0.98160000000000003</v>
       </c>
-      <c r="BB99" s="39">
+      <c r="AX99" s="39">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="BC99" s="40">
+      <c r="AY99" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="100" spans="3:55" ht="15.75" thickBot="1">
+    <row r="100" spans="3:51" ht="15.75" thickBot="1">
       <c r="C100" s="32" t="s">
         <v>126</v>
       </c>
@@ -10289,42 +8052,38 @@
       <c r="G100" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X100" s="41"/>
-      <c r="Y100" s="42"/>
+      <c r="X100" s="39">
+        <v>96</v>
+      </c>
+      <c r="Y100" s="39">
+        <v>0.63839999999999997</v>
+      </c>
       <c r="Z100" s="39">
+        <v>0.6633</v>
+      </c>
+      <c r="AA100" s="39">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="AB100" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU100" s="39">
         <v>96</v>
       </c>
-      <c r="AA100" s="39">
-        <v>0.63839999999999997</v>
-      </c>
-      <c r="AB100" s="39">
-        <v>0.6633</v>
-      </c>
-      <c r="AC100" s="39">
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="AD100" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW100" s="41"/>
-      <c r="AX100" s="42"/>
-      <c r="AY100" s="39">
-        <v>96</v>
-      </c>
-      <c r="AZ100" s="39">
+      <c r="AV100" s="39">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="BA100" s="39">
+      <c r="AW100" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB100" s="39">
+      <c r="AX100" s="39">
         <v>3.09E-2</v>
       </c>
-      <c r="BC100" s="40">
+      <c r="AY100" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="101" spans="3:55" ht="15.75" thickBot="1">
+    <row r="101" spans="3:51" ht="15.75" thickBot="1">
       <c r="C101" s="32" t="s">
         <v>127</v>
       </c>
@@ -10340,42 +8099,38 @@
       <c r="G101" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="42"/>
+      <c r="X101" s="39">
+        <v>97</v>
+      </c>
+      <c r="Y101" s="39">
+        <v>0.63670000000000004</v>
+      </c>
       <c r="Z101" s="39">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="AA101" s="39">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="AB101" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU101" s="39">
         <v>97</v>
       </c>
-      <c r="AA101" s="39">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="AB101" s="39">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="AC101" s="39">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="AD101" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW101" s="41"/>
-      <c r="AX101" s="42"/>
-      <c r="AY101" s="39">
-        <v>97</v>
-      </c>
-      <c r="AZ101" s="39">
+      <c r="AV101" s="39">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="BA101" s="39">
+      <c r="AW101" s="39">
         <v>0.98089999999999999</v>
       </c>
-      <c r="BB101" s="39">
+      <c r="AX101" s="39">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="BC101" s="40">
+      <c r="AY101" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="102" spans="3:55" ht="15.75" thickBot="1">
+    <row r="102" spans="3:51" ht="15.75" thickBot="1">
       <c r="C102" s="32" t="s">
         <v>128</v>
       </c>
@@ -10391,42 +8146,38 @@
       <c r="G102" s="33">
         <v>0.98770000000000002</v>
       </c>
-      <c r="X102" s="41"/>
-      <c r="Y102" s="42"/>
+      <c r="X102" s="39">
+        <v>98</v>
+      </c>
+      <c r="Y102" s="39">
+        <v>0.63759999999999994</v>
+      </c>
       <c r="Z102" s="39">
+        <v>0.66539999999999999</v>
+      </c>
+      <c r="AA102" s="39">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="AB102" s="40">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="AU102" s="39">
         <v>98</v>
       </c>
-      <c r="AA102" s="39">
-        <v>0.63759999999999994</v>
-      </c>
-      <c r="AB102" s="39">
-        <v>0.66539999999999999</v>
-      </c>
-      <c r="AC102" s="39">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="AD102" s="40">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="AW102" s="41"/>
-      <c r="AX102" s="42"/>
-      <c r="AY102" s="39">
-        <v>98</v>
-      </c>
-      <c r="AZ102" s="39">
+      <c r="AV102" s="39">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="BA102" s="39">
+      <c r="AW102" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB102" s="39">
+      <c r="AX102" s="39">
         <v>3.09E-2</v>
       </c>
-      <c r="BC102" s="40">
+      <c r="AY102" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="103" spans="3:55" ht="15.75" thickBot="1">
+    <row r="103" spans="3:51" ht="15.75" thickBot="1">
       <c r="C103" s="32" t="s">
         <v>129</v>
       </c>
@@ -10442,196 +8193,128 @@
       <c r="G103" s="33">
         <v>0.98829999999999996</v>
       </c>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="42"/>
+      <c r="X103" s="39">
+        <v>99</v>
+      </c>
+      <c r="Y103" s="39">
+        <v>0.63670000000000004</v>
+      </c>
       <c r="Z103" s="39">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="AA103" s="39">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="AB103" s="40">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="AU103" s="39">
         <v>99</v>
       </c>
-      <c r="AA103" s="39">
-        <v>0.63670000000000004</v>
-      </c>
-      <c r="AB103" s="39">
-        <v>0.66720000000000002</v>
-      </c>
-      <c r="AC103" s="39">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="AD103" s="40">
+      <c r="AV103" s="39">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="AW103" s="39">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="AX103" s="39">
+        <v>3.0499999999999999E-2</v>
+      </c>
+      <c r="AY103" s="40">
+        <v>0.9909</v>
+      </c>
+    </row>
+    <row r="104" spans="3:51" ht="15.75" thickBot="1">
+      <c r="X104" s="39">
+        <v>100</v>
+      </c>
+      <c r="Y104" s="39">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="Z104" s="39">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="AA104" s="39">
+        <v>0.61350000000000005</v>
+      </c>
+      <c r="AB104" s="40">
         <v>0.81240000000000001</v>
       </c>
-      <c r="AW103" s="41"/>
-      <c r="AX103" s="42"/>
-      <c r="AY103" s="39">
-        <v>99</v>
-      </c>
-      <c r="AZ103" s="39">
-        <v>5.3100000000000001E-2</v>
-      </c>
-      <c r="BA103" s="39">
+      <c r="AU104" s="39">
+        <v>100</v>
+      </c>
+      <c r="AV104" s="39">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="AW104" s="39">
         <v>0.98119999999999996</v>
       </c>
-      <c r="BB103" s="39">
-        <v>3.0499999999999999E-2</v>
-      </c>
-      <c r="BC103" s="40">
+      <c r="AX104" s="39">
+        <v>3.09E-2</v>
+      </c>
+      <c r="AY104" s="40">
         <v>0.9909</v>
       </c>
     </row>
-    <row r="104" spans="3:55" ht="15.75" thickBot="1">
-      <c r="X104" s="41"/>
-      <c r="Y104" s="42"/>
-      <c r="Z104" s="39">
-        <v>100</v>
-      </c>
-      <c r="AA104" s="39">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="AB104" s="39">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="AC104" s="39">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="AD104" s="40">
-        <v>0.81240000000000001</v>
-      </c>
-      <c r="AW104" s="41"/>
-      <c r="AX104" s="42"/>
-      <c r="AY104" s="39">
-        <v>100</v>
-      </c>
-      <c r="AZ104" s="39">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="BA104" s="39">
-        <v>0.98119999999999996</v>
-      </c>
-      <c r="BB104" s="39">
-        <v>3.09E-2</v>
-      </c>
-      <c r="BC104" s="40">
-        <v>0.9909</v>
-      </c>
-    </row>
-    <row r="105" spans="3:55">
-      <c r="X105" s="41"/>
-      <c r="Y105" s="42"/>
-      <c r="Z105"/>
-      <c r="AW105" s="41"/>
-      <c r="AX105" s="42"/>
-      <c r="AY105"/>
-    </row>
-    <row r="106" spans="3:55">
-      <c r="X106" s="41"/>
-      <c r="Y106" s="42"/>
-      <c r="Z106"/>
-      <c r="AW106" s="41"/>
-      <c r="AX106" s="42"/>
-      <c r="AY106"/>
-    </row>
-    <row r="107" spans="3:55">
-      <c r="X107" s="41"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107"/>
-      <c r="AW107" s="41"/>
-      <c r="AX107" s="42"/>
-      <c r="AY107"/>
-    </row>
-    <row r="108" spans="3:55">
-      <c r="X108" s="41"/>
-      <c r="Y108" s="42"/>
-      <c r="Z108"/>
-      <c r="AW108" s="41"/>
-      <c r="AX108" s="42"/>
-      <c r="AY108"/>
-    </row>
-    <row r="109" spans="3:55">
-      <c r="X109" s="41"/>
-      <c r="Y109" s="42"/>
-      <c r="Z109"/>
-      <c r="AW109" s="41"/>
-      <c r="AX109" s="42"/>
-      <c r="AY109"/>
-    </row>
-    <row r="110" spans="3:55">
-      <c r="X110" s="41"/>
-      <c r="Y110" s="42"/>
-      <c r="Z110"/>
-      <c r="AW110" s="41"/>
-      <c r="AX110" s="42"/>
-      <c r="AY110"/>
-    </row>
-    <row r="111" spans="3:55">
-      <c r="X111" s="41"/>
-      <c r="Y111" s="42"/>
-      <c r="Z111"/>
-      <c r="AW111" s="41"/>
-      <c r="AX111" s="42"/>
-      <c r="AY111"/>
-    </row>
-    <row r="112" spans="3:55">
-      <c r="X112" s="41"/>
-      <c r="Y112" s="42"/>
-      <c r="Z112"/>
-      <c r="AW112" s="41"/>
-      <c r="AX112" s="42"/>
-      <c r="AY112"/>
-    </row>
-    <row r="113" spans="24:51">
-      <c r="X113" s="41"/>
-      <c r="Y113" s="42"/>
-      <c r="Z113"/>
-      <c r="AW113" s="41"/>
-      <c r="AX113" s="42"/>
-      <c r="AY113"/>
-    </row>
-    <row r="114" spans="24:51">
-      <c r="X114" s="41"/>
-      <c r="Y114" s="42"/>
-      <c r="Z114"/>
-      <c r="AW114" s="41"/>
-      <c r="AX114" s="42"/>
-      <c r="AY114"/>
-    </row>
-    <row r="115" spans="24:51">
-      <c r="X115" s="41"/>
-      <c r="Y115" s="42"/>
-      <c r="Z115"/>
-      <c r="AW115" s="41"/>
-      <c r="AX115" s="42"/>
-      <c r="AY115"/>
-    </row>
-    <row r="116" spans="24:51">
-      <c r="X116" s="41"/>
-      <c r="Y116" s="42"/>
-      <c r="Z116"/>
-      <c r="AW116" s="41"/>
-      <c r="AX116" s="42"/>
-      <c r="AY116"/>
-    </row>
-    <row r="117" spans="24:51">
-      <c r="X117" s="41"/>
-      <c r="Y117" s="42"/>
-      <c r="Z117"/>
-      <c r="AW117" s="41"/>
-      <c r="AX117" s="42"/>
-      <c r="AY117"/>
-    </row>
-    <row r="118" spans="24:51">
-      <c r="X118" s="41"/>
-      <c r="Y118" s="42"/>
-      <c r="Z118"/>
-      <c r="AW118" s="41"/>
-      <c r="AX118" s="42"/>
-      <c r="AY118"/>
-    </row>
-    <row r="119" spans="24:51">
-      <c r="X119" s="41"/>
-      <c r="Y119" s="42"/>
-      <c r="Z119"/>
-      <c r="AW119" s="41"/>
-      <c r="AX119" s="42"/>
-      <c r="AY119"/>
+    <row r="105" spans="3:51">
+      <c r="X105"/>
+      <c r="AU105"/>
+    </row>
+    <row r="106" spans="3:51">
+      <c r="X106"/>
+      <c r="AU106"/>
+    </row>
+    <row r="107" spans="3:51">
+      <c r="X107"/>
+      <c r="AU107"/>
+    </row>
+    <row r="108" spans="3:51">
+      <c r="X108"/>
+      <c r="AU108"/>
+    </row>
+    <row r="109" spans="3:51">
+      <c r="X109"/>
+      <c r="AU109"/>
+    </row>
+    <row r="110" spans="3:51">
+      <c r="X110"/>
+      <c r="AU110"/>
+    </row>
+    <row r="111" spans="3:51">
+      <c r="X111"/>
+      <c r="AU111"/>
+    </row>
+    <row r="112" spans="3:51">
+      <c r="X112"/>
+      <c r="AU112"/>
+    </row>
+    <row r="113" spans="24:47">
+      <c r="X113"/>
+      <c r="AU113"/>
+    </row>
+    <row r="114" spans="24:47">
+      <c r="X114"/>
+      <c r="AU114"/>
+    </row>
+    <row r="115" spans="24:47">
+      <c r="X115"/>
+      <c r="AU115"/>
+    </row>
+    <row r="116" spans="24:47">
+      <c r="X116"/>
+      <c r="AU116"/>
+    </row>
+    <row r="117" spans="24:47">
+      <c r="X117"/>
+      <c r="AU117"/>
+    </row>
+    <row r="118" spans="24:47">
+      <c r="X118"/>
+      <c r="AU118"/>
+    </row>
+    <row r="119" spans="24:47">
+      <c r="X119"/>
+      <c r="AU119"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10660,148 +8343,148 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>132</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>3449</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="45">
         <v>384</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>3066</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>767</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <v>2683</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>1150</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="47" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>1440</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>1280</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <v>1120</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="46">
         <v>480</v>
       </c>
     </row>
@@ -10853,44 +8536,44 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:22">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
     </row>
     <row r="3" spans="2:22" ht="39" customHeight="1">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="I3" s="53" t="s">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="I3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="O3" s="53" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="O3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
       <c r="U3" s="28" t="s">
         <v>5</v>
       </c>
@@ -14830,7 +12513,7 @@
   </sheetPr>
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -16343,23 +14026,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="39" customHeight="1">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="J1" s="53" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="J1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="Q1" s="53" t="s">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="Q1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
     </row>
     <row r="2" spans="2:20" ht="25.5" customHeight="1">
       <c r="B2" s="4" t="s">
@@ -20324,7 +18007,7 @@
   </sheetPr>
   <dimension ref="D8:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -20345,29 +18028,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="4:15" ht="15.75">
       <c r="D12" s="11"/>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="M12" s="61" t="s">
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+      <c r="M12" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="O12" s="61" t="s">
+      <c r="O12" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="4:15" ht="15.75">
       <c r="D13" s="11"/>
       <c r="E13" s="24" t="s">
         <v>22</v>
@@ -20387,17 +18070,17 @@
       <c r="J13" s="25">
         <v>10</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="O13" s="60">
+      <c r="O13" s="49">
         <v>147584</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="4:15" ht="15.75">
       <c r="D14" s="25" t="s">
         <v>25</v>
       </c>
@@ -20416,17 +18099,17 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="O14" s="60">
+      <c r="O14" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="4:15" ht="15.75">
       <c r="D15" s="25" t="s">
         <v>26</v>
       </c>
@@ -20436,17 +18119,17 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="N15" s="60" t="s">
+      <c r="N15" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="O15" s="60">
+      <c r="O15" s="49">
         <v>295168</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="4:15" ht="15.75">
       <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
@@ -20456,155 +18139,155 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
-      <c r="M16" s="60" t="s">
+      <c r="M16" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="N16" s="60" t="s">
+      <c r="N16" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="49">
         <v>590080</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="15" customHeight="1">
-      <c r="M17" s="60" t="s">
+      <c r="M17" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="O17" s="60">
+      <c r="O17" s="49">
         <v>590080</v>
       </c>
     </row>
     <row r="18" spans="4:15" ht="15" customHeight="1">
-      <c r="M18" s="60" t="s">
+      <c r="M18" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="N18" s="60" t="s">
+      <c r="N18" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="O18" s="60">
+      <c r="O18" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:15" ht="15" customHeight="1">
-      <c r="M19" s="60" t="s">
+      <c r="M19" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="N19" s="60" t="s">
+      <c r="N19" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="O19" s="60">
+      <c r="O19" s="49">
         <v>1180160</v>
       </c>
     </row>
     <row r="20" spans="4:15" ht="15" customHeight="1">
-      <c r="M20" s="60" t="s">
+      <c r="M20" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="N20" s="60" t="s">
+      <c r="N20" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="O20" s="60">
+      <c r="O20" s="49">
         <v>2359808</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="15" customHeight="1">
-      <c r="M21" s="60" t="s">
+      <c r="M21" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="N21" s="60" t="s">
+      <c r="N21" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="O21" s="60">
+      <c r="O21" s="49">
         <v>2359808</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="15" customHeight="1">
-      <c r="M22" s="60" t="s">
+      <c r="M22" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="N22" s="60" t="s">
+      <c r="N22" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="O22" s="60">
+      <c r="O22" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:15" ht="15" customHeight="1">
-      <c r="M23" s="60" t="s">
+      <c r="M23" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="N23" s="60" t="s">
+      <c r="N23" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="O23" s="60">
+      <c r="O23" s="49">
         <v>2359808</v>
       </c>
     </row>
     <row r="24" spans="4:15" ht="15" customHeight="1">
-      <c r="M24" s="60" t="s">
+      <c r="M24" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="N24" s="60" t="s">
+      <c r="N24" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="O24" s="60">
+      <c r="O24" s="49">
         <v>2359808</v>
       </c>
     </row>
-    <row r="25" spans="4:15">
+    <row r="25" spans="4:15" ht="15.75">
       <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="60" t="s">
+      <c r="M25" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="N25" s="60" t="s">
+      <c r="N25" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="O25" s="60">
+      <c r="O25" s="49">
         <v>2359808</v>
       </c>
     </row>
     <row r="26" spans="4:15" ht="15" customHeight="1">
-      <c r="M26" s="60" t="s">
+      <c r="M26" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="N26" s="60" t="s">
+      <c r="N26" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="O26" s="60">
+      <c r="O26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:15">
+    <row r="27" spans="4:15" ht="15.75">
       <c r="D27" s="11"/>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="57"/>
-      <c r="M27" s="60" t="s">
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="M27" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="N27" s="60" t="s">
+      <c r="N27" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="O27" s="60">
+      <c r="O27" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:15">
+    <row r="28" spans="4:15" ht="15.75">
       <c r="D28" s="11"/>
       <c r="E28" s="24" t="s">
         <v>22</v>
@@ -20624,17 +18307,17 @@
       <c r="J28" s="25">
         <v>10</v>
       </c>
-      <c r="M28" s="60" t="s">
+      <c r="M28" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="N28" s="60" t="s">
+      <c r="N28" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="O28" s="60">
+      <c r="O28" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:15">
+    <row r="29" spans="4:15" ht="15.75">
       <c r="D29" s="25" t="s">
         <v>25</v>
       </c>
@@ -20644,17 +18327,17 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="M29" s="60" t="s">
+      <c r="M29" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="N29" s="60" t="s">
+      <c r="N29" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="O29" s="60">
+      <c r="O29" s="49">
         <v>65664</v>
       </c>
     </row>
-    <row r="30" spans="4:15">
+    <row r="30" spans="4:15" ht="15.75">
       <c r="D30" s="25" t="s">
         <v>26</v>
       </c>
@@ -20664,17 +18347,17 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="M30" s="60" t="s">
+      <c r="M30" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="N30" s="60" t="s">
+      <c r="N30" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="O30" s="60">
+      <c r="O30" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:15">
+    <row r="31" spans="4:15" ht="15.75">
       <c r="D31" s="25" t="s">
         <v>27</v>
       </c>
@@ -20684,40 +18367,40 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="M31" s="62" t="s">
+      <c r="M31" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="N31" s="62" t="s">
+      <c r="N31" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="O31" s="62">
+      <c r="O31" s="51">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="4:15" ht="15" customHeight="1">
-      <c r="M32" s="63" t="s">
+      <c r="M32" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="N32" s="59"/>
-      <c r="O32" s="65">
+      <c r="N32" s="48"/>
+      <c r="O32" s="54">
         <v>14780610</v>
       </c>
     </row>
     <row r="33" spans="13:15" ht="15" customHeight="1">
-      <c r="M33" s="64" t="s">
+      <c r="M33" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="N33" s="59"/>
-      <c r="O33" s="65">
+      <c r="N33" s="48"/>
+      <c r="O33" s="54">
         <v>65922</v>
       </c>
     </row>
     <row r="34" spans="13:15" ht="15" customHeight="1">
-      <c r="M34" s="64" t="s">
+      <c r="M34" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="N34" s="59"/>
-      <c r="O34" s="65">
+      <c r="N34" s="48"/>
+      <c r="O34" s="54">
         <v>14714688</v>
       </c>
     </row>
